--- a/data/worldometer global/20-05-15 Global wom raw data.xlsx
+++ b/data/worldometer global/20-05-15 Global wom raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/worldometer global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{1C99A350-91DC-412D-83AE-87BCEB09C359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE5C17D5-5EE2-4211-AE94-585FE153F09E}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{1C99A350-91DC-412D-83AE-87BCEB09C359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BAB0F2C-531A-427C-9FB1-23BD2E21A91A}"/>
   <bookViews>
     <workbookView xWindow="1130" yWindow="580" windowWidth="24860" windowHeight="16470" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
   </bookViews>
@@ -1382,12 +1382,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18C471-AD1F-4B8D-873E-6BF836B63BEB}">
   <dimension ref="A1:N217"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:N217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
     <col min="14" max="14" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9783,432 +9784,432 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{AED44D47-86B1-4DD3-8A67-1AEEABEDB7AB}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{56FB9EF8-0C85-423D-A930-86B52752673A}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{D6389D63-37C9-4557-A1D6-E2CA1DABF213}"/>
-    <hyperlink ref="N4" r:id="rId4" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{DB55D9D5-B993-435C-816C-66026BE9001C}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{3A5A8062-BAEC-4C0D-9C3B-9DB31B96FE1B}"/>
-    <hyperlink ref="N5" r:id="rId6" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{7D9F3989-D528-4B68-9CBB-4BC533414E55}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{0EF94E3B-624D-4BD5-A62B-92BCC810E706}"/>
-    <hyperlink ref="N6" r:id="rId8" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{5316A2BC-17BD-4A65-B635-6C0FFF881BF2}"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C0B55CED-23B2-4D39-B2DD-0FA4AA52B5A3}"/>
-    <hyperlink ref="N7" r:id="rId10" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{510ECDF2-8499-4253-A97A-9E0A28B05215}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{7511BFDA-DCDD-4305-BDE2-05E397A318DF}"/>
-    <hyperlink ref="N8" r:id="rId12" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{BC63EF94-6A1E-4618-A743-1042F9EFC4B5}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{A7204496-915B-4C40-BD9C-FA45AF864848}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{461E499F-8133-4DE8-AE95-826605C5229E}"/>
-    <hyperlink ref="B10" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{668ACE96-CC8F-41D2-8906-CD0FCF4C24CA}"/>
-    <hyperlink ref="N10" r:id="rId16" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{F6589005-DE34-4D82-B67E-77BF4C801816}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{D0597DDC-F82B-4AD8-ADA4-12CF6876FA11}"/>
-    <hyperlink ref="N11" r:id="rId18" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{B96B394C-3543-4BDE-B650-FD70293C9DB0}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{D67A141A-4961-45F7-B1E6-891C69E4C57A}"/>
-    <hyperlink ref="N12" r:id="rId20" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{1810D27A-A376-4742-B856-F969991960C5}"/>
-    <hyperlink ref="B13" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{B69C9A84-306C-49F0-BB43-D373D6CDE02B}"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.worldometers.info/world-population/china-population/" xr:uid="{C7FCA9D9-1441-4CBE-B82A-A2367D9E04E2}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{B6D6D225-1E1F-4DDC-8050-66DC384067B8}"/>
-    <hyperlink ref="N14" r:id="rId24" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{5081962A-A900-4CD9-B4E1-6D17EED16CD5}"/>
-    <hyperlink ref="B15" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{037E60B5-8131-4ED0-B0AE-A0043CA77B0D}"/>
-    <hyperlink ref="N15" r:id="rId26" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{EC9E6B33-B1F2-449E-80F1-A5CEA11990E2}"/>
-    <hyperlink ref="B16" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{EC448B8C-0E24-4436-9010-09D6116732B2}"/>
-    <hyperlink ref="N16" r:id="rId28" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{A5A95D3E-2FE6-4092-821E-6010FBA2FF62}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{9D7A66CC-47EB-4CA3-9A35-FEE966376872}"/>
-    <hyperlink ref="N17" r:id="rId30" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{19E7AF65-1888-44FE-8191-CB26AD5585A1}"/>
-    <hyperlink ref="B18" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{C5D8AD6D-13C1-4710-BDBE-DB076C87349F}"/>
-    <hyperlink ref="N18" r:id="rId32" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{5B0E747D-3736-4E14-837E-9F09488059C5}"/>
-    <hyperlink ref="B19" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{7238A033-0C8E-4DF7-B170-E2AF1A09EF75}"/>
-    <hyperlink ref="N19" r:id="rId34" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{8667C7A9-D069-4619-94E7-881FA83D6DA1}"/>
-    <hyperlink ref="B20" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{AAC29302-EC2D-4DC7-B492-1AA354ED7D37}"/>
-    <hyperlink ref="N20" r:id="rId36" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{0863F3D3-D6B6-4D60-A921-CA2E4562592C}"/>
-    <hyperlink ref="B21" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{FF72035C-67CC-467B-8A98-B9F4495F105F}"/>
-    <hyperlink ref="N21" r:id="rId38" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{DD5AA775-EA5F-4285-B568-F9BE1C68B3E2}"/>
-    <hyperlink ref="B22" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{8E9497FB-9DD2-40CA-B9BE-902981EB93E1}"/>
-    <hyperlink ref="N22" r:id="rId40" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{5B234DE8-B9F1-4AF3-8871-8456DF5BDA8C}"/>
-    <hyperlink ref="B23" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{28F1D791-A810-45F9-B607-BAEF6A7F2DB0}"/>
-    <hyperlink ref="N23" r:id="rId42" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{2F8C977D-AD74-406D-9202-8EFE287F710E}"/>
-    <hyperlink ref="B24" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{ADA65136-3934-433F-A566-DD01F0AAB91E}"/>
-    <hyperlink ref="N24" r:id="rId44" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{CD832A2A-79B8-47BC-BC37-8A7288DB5A59}"/>
-    <hyperlink ref="B25" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{A7F5295E-2890-4DEF-8AD8-7EC3C64DEFC8}"/>
-    <hyperlink ref="N25" r:id="rId46" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{EAD6A328-02FD-4EFF-B8F4-339AF0029DE6}"/>
-    <hyperlink ref="B26" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{C1CE3B0C-35D9-49CA-9ED3-6442695ED350}"/>
-    <hyperlink ref="N26" r:id="rId48" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{1C31D426-512E-44E1-BCDB-9761A9F7FCA7}"/>
-    <hyperlink ref="B27" r:id="rId49" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{86C616D8-03FB-4D21-9EEB-E0913940AF6F}"/>
-    <hyperlink ref="N27" r:id="rId50" display="https://www.worldometers.info/world-population/qatar-population/" xr:uid="{BB5BCCF5-0867-45D1-8A6B-5F0F00AB3C69}"/>
-    <hyperlink ref="B28" r:id="rId51" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{A583B931-3455-4647-BEB9-F47B9953CFBC}"/>
-    <hyperlink ref="N28" r:id="rId52" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{6066BE44-927E-435E-AE67-5BBD798579A2}"/>
-    <hyperlink ref="B29" r:id="rId53" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{6B3DCA67-41F1-4BC7-B5D0-57C26CB8257E}"/>
-    <hyperlink ref="N29" r:id="rId54" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{22E7E010-C999-4AA9-848D-AC458080679F}"/>
-    <hyperlink ref="B30" r:id="rId55" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{28E006D2-1C6D-48E0-B54D-6B7B25144FD2}"/>
-    <hyperlink ref="N30" r:id="rId56" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{65F17414-2734-4DDA-B2C2-FF6568E7C26C}"/>
-    <hyperlink ref="B31" r:id="rId57" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{B392C44F-EA83-4E47-9ED6-47E697C8DD9B}"/>
-    <hyperlink ref="N31" r:id="rId58" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{9F469778-41CD-45CB-9B65-AB4A46D8F908}"/>
-    <hyperlink ref="B32" r:id="rId59" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{A60B292B-F0AD-4B87-AFF1-49DD5021DC68}"/>
-    <hyperlink ref="N32" r:id="rId60" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{993F40DE-7F82-4CF6-AF2F-3D296E2148A1}"/>
-    <hyperlink ref="B33" r:id="rId61" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{EBA32A9E-EBB6-409D-BCE2-C31E36A61E04}"/>
-    <hyperlink ref="N33" r:id="rId62" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{BC191A1B-D258-47F1-BAA8-35C3D208D058}"/>
-    <hyperlink ref="B34" r:id="rId63" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{6C0E5A1B-3B04-4ECA-89D5-CA3E1DD8E706}"/>
-    <hyperlink ref="N34" r:id="rId64" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{CF37D625-75EA-423D-B760-F24E2E40F456}"/>
-    <hyperlink ref="B35" r:id="rId65" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{C3E2F096-36AC-474B-876C-BB60E55204F2}"/>
-    <hyperlink ref="N35" r:id="rId66" display="https://www.worldometers.info/world-population/israel-population/" xr:uid="{4AD27984-B1EB-4CDF-9283-80F16F8C915C}"/>
-    <hyperlink ref="B36" r:id="rId67" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{D6AFB624-7A3B-41FA-8413-2207B8FFD029}"/>
-    <hyperlink ref="N36" r:id="rId68" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{2305714D-2127-42C4-A226-FBAF6E0CD334}"/>
-    <hyperlink ref="B37" r:id="rId69" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{DD94ECF7-A4DA-4B2E-B1E4-97D71B662977}"/>
-    <hyperlink ref="N37" r:id="rId70" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{3CB42FC7-BFBA-4C95-820B-CDD668DBD8D0}"/>
-    <hyperlink ref="B38" r:id="rId71" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{1A68CF80-45F6-41F1-90B6-36A2404BD5C5}"/>
-    <hyperlink ref="N38" r:id="rId72" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{AB18BD1C-7415-4ADA-849D-AD1BD4C1FD71}"/>
-    <hyperlink ref="B39" r:id="rId73" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{9957DBE2-ADEA-443B-9B3F-822E83BEC192}"/>
-    <hyperlink ref="N39" r:id="rId74" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{8D096D4A-D327-43C3-92DC-CB232E97223A}"/>
-    <hyperlink ref="B40" r:id="rId75" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{213A50BC-709F-47CC-883A-5938DE3008A2}"/>
-    <hyperlink ref="N40" r:id="rId76" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{655C9882-3539-4701-ACA8-44522AD5B494}"/>
-    <hyperlink ref="B41" r:id="rId77" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{D31D8D3E-64FD-492B-A84A-2F8CDBB9E3D0}"/>
-    <hyperlink ref="N41" r:id="rId78" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{0EBCFF40-7555-48F9-9AD6-07EFCA062773}"/>
-    <hyperlink ref="B42" r:id="rId79" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{562426ED-D5EF-4856-92AF-E66A628EED7E}"/>
-    <hyperlink ref="N42" r:id="rId80" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{C7A40CF2-84D5-4BE9-B756-D4D57100C557}"/>
-    <hyperlink ref="B43" r:id="rId81" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{2CED9FDD-498F-4A3E-AE57-A15EA8DC685A}"/>
-    <hyperlink ref="N43" r:id="rId82" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{D65D2EE2-F911-4FCE-A803-CD5D0E8956DC}"/>
-    <hyperlink ref="B44" r:id="rId83" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{B09F1861-2E8D-4637-9AA0-85DC2D85870A}"/>
-    <hyperlink ref="N44" r:id="rId84" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{2313DCC7-1D36-4795-A1B3-A43F2FC40EF8}"/>
-    <hyperlink ref="B45" r:id="rId85" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{37E390C2-372C-44AA-80F9-6DD770E4A567}"/>
-    <hyperlink ref="N45" r:id="rId86" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{D2ADBAA8-53CE-4433-8D0E-9F537D6F9697}"/>
-    <hyperlink ref="B46" r:id="rId87" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{A8904A51-2FE9-416A-9DCA-76E0DCA007AF}"/>
-    <hyperlink ref="N46" r:id="rId88" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{B82F7272-BAE0-409A-9F12-3FD230E74B76}"/>
-    <hyperlink ref="B47" r:id="rId89" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{9015747D-2CE1-4526-8CFA-B913F035488E}"/>
-    <hyperlink ref="N47" r:id="rId90" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{7C296434-360E-4DCB-957E-52932FEEFF6D}"/>
-    <hyperlink ref="B48" r:id="rId91" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{EE413F25-1E4D-42AA-8FC0-D1017FAA4BFD}"/>
-    <hyperlink ref="N48" r:id="rId92" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{439B7806-3BCC-44D1-AD4C-7B9B1112A23E}"/>
-    <hyperlink ref="B49" r:id="rId93" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{F6E6D7E4-23EA-4CFD-B1EE-16A827BF9F8C}"/>
-    <hyperlink ref="N49" r:id="rId94" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{927FC421-60D1-4FAA-8D14-6848046E45BE}"/>
-    <hyperlink ref="B50" r:id="rId95" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{4AE579D9-9283-4791-A2AC-96265CD0BF13}"/>
-    <hyperlink ref="N50" r:id="rId96" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{3AF01887-B476-44B2-93F2-24DE9AE1B6E7}"/>
-    <hyperlink ref="B51" r:id="rId97" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{4F281397-BF2B-4AC4-92F4-EAA06E6C0EAF}"/>
-    <hyperlink ref="N51" r:id="rId98" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{A41F6EC2-F193-4B93-ACD6-080ABFB90415}"/>
-    <hyperlink ref="B52" r:id="rId99" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{118C437B-A065-4B89-8E64-05619F56AD89}"/>
-    <hyperlink ref="N52" r:id="rId100" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{22E3E674-D3D0-4810-B0DC-03117338FB2C}"/>
-    <hyperlink ref="B53" r:id="rId101" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{7A4E0846-3AE3-47F1-B024-A3972753EF61}"/>
-    <hyperlink ref="N53" r:id="rId102" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{B60B111C-2A2C-49AF-9E85-C82672962882}"/>
-    <hyperlink ref="B54" r:id="rId103" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{53FA32D5-00C9-4918-BE7B-7996D833F185}"/>
-    <hyperlink ref="N54" r:id="rId104" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{A4822884-0311-4167-83CD-4893CC1B0935}"/>
-    <hyperlink ref="B55" r:id="rId105" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{27773E99-BDC3-4320-B0D9-708DEA7770FC}"/>
-    <hyperlink ref="N55" r:id="rId106" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{5518318E-19A2-4DD0-909C-C48BA141827C}"/>
-    <hyperlink ref="B56" r:id="rId107" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{8A926E6A-6756-4EB8-89C0-36037C437028}"/>
-    <hyperlink ref="N56" r:id="rId108" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{6A08F4EC-CDC2-4EC1-B9CD-06E9DF5FA856}"/>
-    <hyperlink ref="B57" r:id="rId109" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{80675B6A-B70C-4637-991D-CBAC32A8A85F}"/>
-    <hyperlink ref="N57" r:id="rId110" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{5E52B5B8-9C5F-4FF1-98B4-A74B9F488D86}"/>
-    <hyperlink ref="B58" r:id="rId111" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{37AC4507-601D-4FD0-9A74-61F1BC75850E}"/>
-    <hyperlink ref="N58" r:id="rId112" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{59EECF15-2590-4958-BF6D-F63E7AC9EBF9}"/>
-    <hyperlink ref="B59" r:id="rId113" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{636CF292-864D-40AB-A80A-2BF7BBEDB8BB}"/>
-    <hyperlink ref="N59" r:id="rId114" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{B1A2F607-661A-4D22-A458-148EBAA2C55A}"/>
-    <hyperlink ref="B60" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{4436447F-62B3-40A0-8F06-FC4259CBD2B8}"/>
-    <hyperlink ref="N60" r:id="rId116" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{67BA5EE5-C299-4962-8CE4-62679C49BCAD}"/>
-    <hyperlink ref="B61" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{028EA16A-2E65-485B-9F75-2C9A705D96B0}"/>
-    <hyperlink ref="N61" r:id="rId118" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{9E7ABF43-D18A-4B46-ADF3-6400BF49CAAC}"/>
-    <hyperlink ref="B62" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{5034A04F-D9DC-4F76-B319-594FDA1104ED}"/>
-    <hyperlink ref="N62" r:id="rId120" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{AEFA0891-E863-4A67-89ED-7C7D7F49028A}"/>
-    <hyperlink ref="B63" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{7BC91014-CFED-451E-A5C6-5B13E0B592C4}"/>
-    <hyperlink ref="N63" r:id="rId122" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{CC8849CD-E8C2-4EB0-BCDF-D25C8186B9BB}"/>
-    <hyperlink ref="B64" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{5E3FC2E2-B95B-4C1B-A5BA-D2EADB8652F9}"/>
-    <hyperlink ref="N64" r:id="rId124" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{DA56EE79-E869-4EB0-B6E6-DE59BFBB2AF4}"/>
-    <hyperlink ref="B65" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{431424FA-899A-414D-8EF1-096C43C13A86}"/>
-    <hyperlink ref="N65" r:id="rId126" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{1211839D-0990-496C-89BD-F9F1831957EC}"/>
-    <hyperlink ref="B66" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{6D1BC77E-948B-4992-9AD2-9B9D4B660C57}"/>
-    <hyperlink ref="N66" r:id="rId128" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{5010A0AA-17A0-4559-9369-2D2955FD3362}"/>
-    <hyperlink ref="B67" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{6B8018C6-C4D0-4586-8C08-B9E43DCC2370}"/>
-    <hyperlink ref="N67" r:id="rId130" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{B01D4F1C-1FB8-40E0-B7BA-F7EA354C9F64}"/>
-    <hyperlink ref="B68" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{78534B21-E810-4A27-A04C-7ED5F47C8776}"/>
-    <hyperlink ref="N68" r:id="rId132" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{8B5D2914-B9A6-48EF-A8C2-D9FDD8A38825}"/>
-    <hyperlink ref="B69" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{35572098-0A01-4018-897E-077845733BF4}"/>
-    <hyperlink ref="N69" r:id="rId134" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{84F7C965-4F9C-49A0-99B3-5A8240F81688}"/>
-    <hyperlink ref="B70" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{D8E53674-263E-4F3A-8AD7-0DE8B4D40AAE}"/>
-    <hyperlink ref="N70" r:id="rId136" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{19CC7926-C8B5-4FFC-863D-2E1FA89CEB63}"/>
-    <hyperlink ref="B71" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{301BA943-3312-4ECA-B3F5-422D7421C944}"/>
-    <hyperlink ref="N71" r:id="rId138" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{7EA0450F-117B-42DB-9AE0-0480CA720EAA}"/>
-    <hyperlink ref="B72" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{E1ACAAA9-06F6-422B-A9EB-F72BE4599CE7}"/>
-    <hyperlink ref="N72" r:id="rId140" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{DFF2FE60-9F38-4BDB-949C-DE0FFFD80D19}"/>
-    <hyperlink ref="B73" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{291F7CCE-D096-4A40-AE35-66FAAA04CB0D}"/>
-    <hyperlink ref="N73" r:id="rId142" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{10C1F3F4-76CE-4A1B-BD42-EDDF83279999}"/>
-    <hyperlink ref="B74" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{1E760713-76D1-4DEB-A750-0DC2CDEA9D11}"/>
-    <hyperlink ref="N74" r:id="rId144" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{B9DF4C9D-F3AD-46AB-B077-D4D34E363260}"/>
-    <hyperlink ref="B75" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{9B374325-448E-491A-BBA6-78590A9F2FD4}"/>
-    <hyperlink ref="N75" r:id="rId146" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{A69CA781-C0E2-4787-9B50-BDFEA36DF1A0}"/>
-    <hyperlink ref="B76" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{E23B6D13-D466-45AE-B168-CA7D19C14260}"/>
-    <hyperlink ref="N76" r:id="rId148" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{DE786426-8F1B-461C-9EE2-1203DA9CEECA}"/>
-    <hyperlink ref="B77" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{DC72A639-7DCA-42B0-8CFE-6E7529D6AA07}"/>
-    <hyperlink ref="N77" r:id="rId150" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{474A13E7-CE7E-43E1-A870-380EDFA1C309}"/>
-    <hyperlink ref="B78" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{21A36F42-4B16-4CFA-B623-0DB89E8B2083}"/>
-    <hyperlink ref="N78" r:id="rId152" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{42589127-5D50-461B-BB69-971809D64285}"/>
-    <hyperlink ref="B79" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{06B9F89E-07E2-4322-8283-405A169BCA9B}"/>
-    <hyperlink ref="N79" r:id="rId154" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{CD658701-CBD6-40E0-B898-8012B9133D22}"/>
-    <hyperlink ref="B80" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{6A414F53-74F5-4ADA-92D2-4B63C518FD5E}"/>
-    <hyperlink ref="N80" r:id="rId156" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{AD0BCE77-A7AA-4BCD-A957-2842B9BC9579}"/>
-    <hyperlink ref="B81" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{1CCFD6A9-3BA8-4F02-8D9D-69D2FEA9E5C1}"/>
-    <hyperlink ref="N81" r:id="rId158" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{69F67725-4337-460F-8F39-27933A1847E0}"/>
-    <hyperlink ref="B82" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{6B7C0DDE-21F1-45D9-84E5-EFDAB90095A8}"/>
-    <hyperlink ref="N82" r:id="rId160" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{A9F781C8-DABE-41AC-A374-545FB1F21B7E}"/>
-    <hyperlink ref="B83" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{419028E7-998E-4110-8B72-E881B611B1C8}"/>
-    <hyperlink ref="N83" r:id="rId162" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{157A8C71-7C7D-42FA-B560-7C9394D92C3C}"/>
-    <hyperlink ref="B84" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{C8E3A422-86A5-469D-97DC-A381D20E38CF}"/>
-    <hyperlink ref="N84" r:id="rId164" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{97B0DC16-CBEA-4BD5-A2E2-D34834455D26}"/>
-    <hyperlink ref="B85" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{BA8EE4BC-DECB-4A4E-B55F-68A344616CF5}"/>
-    <hyperlink ref="N85" r:id="rId166" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{B1BF38A2-88FD-4671-911D-D9D80F803625}"/>
-    <hyperlink ref="B86" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{ADD2A88D-C845-4EF4-949A-AFEC550FECAD}"/>
-    <hyperlink ref="N86" r:id="rId168" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{82348F1C-04E1-49D3-86E9-C275E4C9885B}"/>
-    <hyperlink ref="B87" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{065D9011-5E71-4561-A450-038A6C2FF4DB}"/>
-    <hyperlink ref="N87" r:id="rId170" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{721FD11E-7A45-40A9-9871-38B5B17F1DD1}"/>
-    <hyperlink ref="B88" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{5848B82C-E433-4FB3-9BB4-CB0FB246FE7D}"/>
-    <hyperlink ref="N88" r:id="rId172" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{CC336CF8-A2BF-4CB2-9A39-57E345C22126}"/>
-    <hyperlink ref="B89" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{A3E3A10E-F050-4DB1-B4F5-3E3D6E90B169}"/>
-    <hyperlink ref="N89" r:id="rId174" display="https://www.worldometers.info/world-population/new-zealand-population/" xr:uid="{F70CEEB3-BF7B-4D97-941B-B44D75C57C51}"/>
-    <hyperlink ref="B90" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{D9A51496-89D1-4AF1-ADD1-C21D0B66B94B}"/>
-    <hyperlink ref="N90" r:id="rId176" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{6427EC34-9B64-4A02-A9C5-FAD4E1F20C71}"/>
-    <hyperlink ref="B91" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{1201C07C-17B7-4FF3-AB08-8357CD7F616C}"/>
-    <hyperlink ref="N91" r:id="rId178" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{B2B41562-F6EB-4CB1-B97C-BD7481CB73AC}"/>
-    <hyperlink ref="B92" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{91FA3F62-93B6-4AC1-AEB0-529EF1674932}"/>
-    <hyperlink ref="N92" r:id="rId180" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{3151F61D-E1CD-4163-85D7-8DAF776EC8C5}"/>
-    <hyperlink ref="B93" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{1D586081-4CC0-4B67-9D65-443923F7F9FA}"/>
-    <hyperlink ref="N93" r:id="rId182" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{DC67DAFB-84DC-4F4F-8A23-C4E257AB61B6}"/>
-    <hyperlink ref="B94" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{817675BE-DDB7-4A59-BAFD-33A5650C32BF}"/>
-    <hyperlink ref="N94" r:id="rId184" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{B0AC62AC-10AA-4824-9730-FEFF41A448B8}"/>
-    <hyperlink ref="B95" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{CF55A5D8-9BAF-4364-AD55-5BCEB0779EFF}"/>
-    <hyperlink ref="N95" r:id="rId186" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{522817F4-92E6-438D-94C6-5C0333C950AB}"/>
-    <hyperlink ref="B96" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{38C8C005-5674-4EF7-BF64-0A9924A03E69}"/>
-    <hyperlink ref="N96" r:id="rId188" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{5A320E21-BE46-46D8-9EE2-BD37DE21D939}"/>
-    <hyperlink ref="B97" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{21579921-1E95-4447-ADDC-2B67CFFAF38D}"/>
-    <hyperlink ref="N97" r:id="rId190" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{0DB5EC8E-43EF-47C9-8171-0E338A9D3EAA}"/>
-    <hyperlink ref="B98" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{0C179F50-3852-47B9-A7C7-118F0B318E3C}"/>
-    <hyperlink ref="N98" r:id="rId192" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{8AF35866-06CF-4FCB-A023-6E5CAEA6B89B}"/>
-    <hyperlink ref="B99" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{B1570A3B-B240-42C5-8E72-F304A6957DFA}"/>
-    <hyperlink ref="N99" r:id="rId194" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{D54EF48D-B3A7-4AA1-9F4D-DFCC326CD39A}"/>
-    <hyperlink ref="B100" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{400152BA-AD15-41A0-A986-097E1438F240}"/>
-    <hyperlink ref="N100" r:id="rId196" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{D0553AA0-B934-4CD5-B22B-90EE5B1EF0C8}"/>
-    <hyperlink ref="B101" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{44A65294-7332-467F-B965-381B96753584}"/>
-    <hyperlink ref="N101" r:id="rId198" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{497BD52F-04D4-4E3B-9515-00A38E1B3EAE}"/>
-    <hyperlink ref="B102" r:id="rId199" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{C200D7B6-2DA9-4C33-9C7F-DC53608D18EA}"/>
-    <hyperlink ref="N102" r:id="rId200" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{47DE2F34-F843-479D-A56E-C332F9129930}"/>
-    <hyperlink ref="B103" r:id="rId201" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{05457F22-5FEB-4965-A468-F4C9970B92A0}"/>
-    <hyperlink ref="N103" r:id="rId202" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{5CCF0691-F61B-4D9F-A9CA-089FBF8931CC}"/>
-    <hyperlink ref="B104" r:id="rId203" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{560DABA0-D2DA-426B-B0E3-B94F6B7423F8}"/>
-    <hyperlink ref="N104" r:id="rId204" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{C93536B3-31F2-4FC2-90B8-D3FF51538318}"/>
-    <hyperlink ref="B105" r:id="rId205" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{FB5DE4D9-55C9-42D2-B2EB-B5A8EC2F3B76}"/>
-    <hyperlink ref="N105" r:id="rId206" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{69F6CDE3-E266-4C52-8C4D-166BC50D705B}"/>
-    <hyperlink ref="B106" r:id="rId207" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{8FC3A507-67E9-4EC7-9826-5B6C9E2674D1}"/>
-    <hyperlink ref="N106" r:id="rId208" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{3FCE5CCD-DDEC-4320-8519-400F3F06AD1B}"/>
-    <hyperlink ref="B107" r:id="rId209" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{A19F76AD-3F6E-499D-A818-04094E2E53CD}"/>
-    <hyperlink ref="N107" r:id="rId210" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{2175DE3B-446D-4796-92B2-39E7BED746DB}"/>
-    <hyperlink ref="B108" r:id="rId211" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{8634690E-D1C3-4646-BA08-BD19FA7ECD9D}"/>
-    <hyperlink ref="N108" r:id="rId212" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{8D12A430-FBDD-4EEA-8E8F-8825DCE32722}"/>
-    <hyperlink ref="B109" r:id="rId213" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{535953E8-4F94-4B0E-8A27-5BE4F964B54C}"/>
-    <hyperlink ref="N109" r:id="rId214" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{F3FD9A45-E41C-4B86-9E0E-1DE5B63CA1D7}"/>
-    <hyperlink ref="B110" r:id="rId215" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{0A8135A1-F3E7-4CFD-9B3C-EF7625D2910B}"/>
-    <hyperlink ref="N110" r:id="rId216" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{55F6F89F-1F40-47D8-A5CF-5A994F2D75FD}"/>
-    <hyperlink ref="B111" r:id="rId217" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{77B5DA20-2370-4935-9671-1D75A13BAA24}"/>
-    <hyperlink ref="N111" r:id="rId218" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{164D592C-B5DC-4BCF-8857-25CD3753B903}"/>
-    <hyperlink ref="B112" r:id="rId219" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{1336AEBF-3777-4AF3-A75E-8905946F5F63}"/>
-    <hyperlink ref="N112" r:id="rId220" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{B894BA1E-8660-43BF-8234-66248AD4CAEF}"/>
-    <hyperlink ref="B113" r:id="rId221" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{8A49172D-5C41-47D5-843F-BA7C084C05A4}"/>
-    <hyperlink ref="N113" r:id="rId222" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{D3487762-1B94-4AC9-9718-9335421B476F}"/>
-    <hyperlink ref="B114" r:id="rId223" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{C85799E1-86BC-4136-BB31-A94132668AD1}"/>
-    <hyperlink ref="N114" r:id="rId224" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{B20A8D6E-EA1C-4494-84DC-A583C152F1B4}"/>
-    <hyperlink ref="B115" r:id="rId225" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{4FBAE49F-531F-446C-B806-2CCA7DE829AF}"/>
-    <hyperlink ref="N115" r:id="rId226" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{53364108-AC4B-42B4-BE40-953A110B0C40}"/>
-    <hyperlink ref="B116" r:id="rId227" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{19E46392-46C1-4D76-9450-C835DC6DCDCD}"/>
-    <hyperlink ref="N116" r:id="rId228" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{471BE325-E848-4B6C-B574-FB76B5344496}"/>
-    <hyperlink ref="B118" r:id="rId229" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{CCF4CD35-FE98-4358-8706-A18283C98E5F}"/>
-    <hyperlink ref="N118" r:id="rId230" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{D563DFFE-C69D-4964-9E8F-B1D249708C8D}"/>
-    <hyperlink ref="B119" r:id="rId231" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{8D734174-C784-40C7-BE19-3F07A3B836D8}"/>
-    <hyperlink ref="N119" r:id="rId232" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{1A5A9B4D-4484-467E-BC25-B69186063AC6}"/>
-    <hyperlink ref="B120" r:id="rId233" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{7D943D45-2B0F-4A44-B3C9-E69A0DFB7107}"/>
-    <hyperlink ref="N120" r:id="rId234" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{9A6561F5-6E22-4808-AB76-904A9AE979EE}"/>
-    <hyperlink ref="B121" r:id="rId235" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{FFAADEC2-FB6A-4AEB-ACC3-B5EA9D55EFC8}"/>
-    <hyperlink ref="N121" r:id="rId236" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{AC6D7117-3A44-4BD1-9D50-C41A547705C1}"/>
-    <hyperlink ref="B122" r:id="rId237" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{B2CD01B2-74C6-4B2F-8C42-ED5F0DB89CD4}"/>
-    <hyperlink ref="N122" r:id="rId238" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{F2AC05A7-8F42-453D-BE19-224C5E302A18}"/>
-    <hyperlink ref="B123" r:id="rId239" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{23248D60-8D9F-426A-B011-ED37BEA40CCC}"/>
-    <hyperlink ref="N123" r:id="rId240" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{C507AC59-0CC2-47D6-A9FE-84394E05114C}"/>
-    <hyperlink ref="B124" r:id="rId241" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{3415E27A-A701-4F7B-9DF5-5D9BA972639E}"/>
-    <hyperlink ref="N124" r:id="rId242" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{B407DAB4-371A-4258-BE50-99ECBBFD3826}"/>
-    <hyperlink ref="B125" r:id="rId243" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{26F5CFC1-9D3B-4BD2-8A99-E97AB45ABC37}"/>
-    <hyperlink ref="N125" r:id="rId244" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{EC697131-8165-450A-9135-9F5718CF51FC}"/>
-    <hyperlink ref="B126" r:id="rId245" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{23869893-524F-420C-98A9-125677D7E8F9}"/>
-    <hyperlink ref="N126" r:id="rId246" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{33413B2B-FF8E-4A47-81B4-1B46AC9513EC}"/>
-    <hyperlink ref="B127" r:id="rId247" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{252727F8-8138-4937-8D82-372904415F06}"/>
-    <hyperlink ref="N127" r:id="rId248" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{9E29C1E2-B0AA-45C8-824D-667599680C16}"/>
-    <hyperlink ref="B128" r:id="rId249" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{C506E582-6E11-4D7D-9145-3180E6C4306D}"/>
-    <hyperlink ref="N128" r:id="rId250" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{BC88A8A4-E8B7-4783-9345-44DC9F54C811}"/>
-    <hyperlink ref="B129" r:id="rId251" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{0BDDC5EB-E55C-4E56-AB41-61AF89A987AA}"/>
-    <hyperlink ref="N129" r:id="rId252" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{1E63B0B4-79BD-4429-894D-B02C35AFF6BD}"/>
-    <hyperlink ref="B130" r:id="rId253" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{D7A3A44B-10C0-4F11-AF32-72F71105AE19}"/>
-    <hyperlink ref="N130" r:id="rId254" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{B16237A5-7B75-4E49-855C-391681FE9CF7}"/>
-    <hyperlink ref="B131" r:id="rId255" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{8FE87CBD-30EF-4108-85F7-1FAF99872343}"/>
-    <hyperlink ref="N131" r:id="rId256" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{5FD45CE7-897E-4573-921C-06A5E9214D0E}"/>
-    <hyperlink ref="B132" r:id="rId257" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{2D671C5A-29A6-481E-8098-3E8A3CF142E6}"/>
-    <hyperlink ref="N132" r:id="rId258" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{E0688D4E-69D1-4B1F-87E3-906266C58877}"/>
-    <hyperlink ref="B133" r:id="rId259" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{700B357F-AD50-49C4-8BA0-00FF45446863}"/>
-    <hyperlink ref="N133" r:id="rId260" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{F3135586-86CE-4980-B88F-B1FFE9E099FC}"/>
-    <hyperlink ref="B134" r:id="rId261" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{7783E0A3-E25B-4E44-B85F-FD196570E887}"/>
-    <hyperlink ref="N134" r:id="rId262" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{593F6652-5F11-4E56-8948-59F93AE4D1AF}"/>
-    <hyperlink ref="B135" r:id="rId263" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{B47297E4-CCFC-4F91-8919-4D48D84E75E7}"/>
-    <hyperlink ref="N135" r:id="rId264" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{C74DE310-E48A-4F2E-9BA9-6B3C29AF5A01}"/>
-    <hyperlink ref="B136" r:id="rId265" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{A22097CD-1C47-4A4F-88B6-762D9808B574}"/>
-    <hyperlink ref="N136" r:id="rId266" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{80DCB23A-C61C-4E0E-AEE7-A0E6129FDC16}"/>
-    <hyperlink ref="B137" r:id="rId267" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{2A8D0ABE-E4A9-43CE-880A-3282797297A7}"/>
-    <hyperlink ref="N137" r:id="rId268" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{6ADA51AC-5AFC-423F-88F7-3310B417BFAA}"/>
-    <hyperlink ref="B138" r:id="rId269" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{B4F8A40A-3350-4FFF-9074-468596824E8B}"/>
-    <hyperlink ref="N138" r:id="rId270" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{6FEC9BA9-0C40-4B4A-88DF-4684B209DBE7}"/>
-    <hyperlink ref="B139" r:id="rId271" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{EADC4E03-D6F1-4D3D-A9E9-58DF3243B25C}"/>
-    <hyperlink ref="N139" r:id="rId272" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{9F641906-9A88-4BEE-813D-84E6842D609E}"/>
-    <hyperlink ref="B140" r:id="rId273" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{3D5E6842-F38A-4FF1-B2BE-C13CF586C66C}"/>
-    <hyperlink ref="N140" r:id="rId274" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{72A55C87-B174-4899-B3EC-0307DBA7F922}"/>
-    <hyperlink ref="B141" r:id="rId275" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{203F2CCA-F6D1-4332-8E2E-889F589D1F49}"/>
-    <hyperlink ref="N141" r:id="rId276" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{A66DE836-2999-423D-9A39-00292A3B8EBA}"/>
-    <hyperlink ref="B142" r:id="rId277" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{EDF2C1D6-018F-4B5F-8B0E-F4916B9FAD5A}"/>
-    <hyperlink ref="N142" r:id="rId278" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{3887A474-7E7B-46AD-B9A2-FB783872CAA1}"/>
-    <hyperlink ref="B143" r:id="rId279" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{34E7FF71-708E-4D7D-93E9-03C8F4C37868}"/>
-    <hyperlink ref="N143" r:id="rId280" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{48F2291F-3A26-46BA-9017-C91B0DBC7932}"/>
-    <hyperlink ref="B144" r:id="rId281" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{82CE4745-1DD0-420D-8694-E87BC2FB6066}"/>
-    <hyperlink ref="N144" r:id="rId282" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{67FEC8A7-D0DC-4675-8A55-75C9A6E8563F}"/>
-    <hyperlink ref="B145" r:id="rId283" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{3E446E8F-3CE1-4C61-8E3B-012FC0E9DBF1}"/>
-    <hyperlink ref="N145" r:id="rId284" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{82D81E85-FF7C-435C-9CFA-42A65390BAD3}"/>
-    <hyperlink ref="B146" r:id="rId285" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{FC9CE9FC-B450-440B-BD34-7A5B543CA81C}"/>
-    <hyperlink ref="N146" r:id="rId286" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{D7F91407-34DE-47F2-87BF-726C0AECFC96}"/>
-    <hyperlink ref="B147" r:id="rId287" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{6C827A5A-1093-43D3-B30C-0A6A836D36E2}"/>
-    <hyperlink ref="N147" r:id="rId288" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{19D47761-E3FD-4636-A59E-2F2AFA364496}"/>
-    <hyperlink ref="B148" r:id="rId289" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{89656C1D-86BA-443F-820A-4314174C1AEC}"/>
-    <hyperlink ref="N148" r:id="rId290" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{92F343CA-AA83-4DCA-B1C6-6999C4935B67}"/>
-    <hyperlink ref="B149" r:id="rId291" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{EC758088-2EC2-46DE-BAD5-5F3298211944}"/>
-    <hyperlink ref="N149" r:id="rId292" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{05FD3812-58B8-434C-9439-0BCEF6C3AE91}"/>
-    <hyperlink ref="B150" r:id="rId293" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{3F66C2A2-EB79-4D42-904A-AB9CE6BEA596}"/>
-    <hyperlink ref="N150" r:id="rId294" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{2E204AFD-B7BF-44B2-BCAA-E5147DB0BFB2}"/>
-    <hyperlink ref="B151" r:id="rId295" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{5D0D0E91-C863-4B51-BF42-B5A57D040877}"/>
-    <hyperlink ref="N151" r:id="rId296" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{C71CF4E6-53D7-4EAF-8632-4B8264522757}"/>
-    <hyperlink ref="B152" r:id="rId297" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{82269F64-4B06-4EA0-8AC7-5EE14EC55B73}"/>
-    <hyperlink ref="N152" r:id="rId298" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{2B2F4FD2-BBD4-4B5B-AB3A-71B644741C3B}"/>
-    <hyperlink ref="B153" r:id="rId299" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{683D82FD-2AD2-46CD-8BB5-CED83B63A67C}"/>
-    <hyperlink ref="N153" r:id="rId300" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{99572CAB-F690-49AE-A18B-6165E746DB4E}"/>
-    <hyperlink ref="B154" r:id="rId301" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{6EF06010-1E87-43CB-BDAB-3C029E7D8F9C}"/>
-    <hyperlink ref="N154" r:id="rId302" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{5E6155BB-D5D9-407F-BEA5-10A778307FE1}"/>
-    <hyperlink ref="B155" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{C218BC37-1BEF-4D98-BB0D-C91E5DE9C3C4}"/>
-    <hyperlink ref="N155" r:id="rId304" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{9E41513D-40EA-44AE-8994-5C9B41EF843C}"/>
-    <hyperlink ref="B156" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{7FB35547-18FC-4B31-A29F-0180A90DDAF1}"/>
-    <hyperlink ref="N156" r:id="rId306" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{090B108F-DA0D-48EE-92D7-5A8C1545B8C0}"/>
-    <hyperlink ref="B157" r:id="rId307" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{D3715F83-F4EE-4981-B587-3112C27FC780}"/>
-    <hyperlink ref="N157" r:id="rId308" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{9311E7A7-4058-4568-8903-AC239A32F631}"/>
-    <hyperlink ref="B158" r:id="rId309" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{4222C98A-2954-4344-90C4-40DC87D74340}"/>
-    <hyperlink ref="N158" r:id="rId310" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{CBB1ABE4-2950-44D6-B56A-E14ED5BA5237}"/>
-    <hyperlink ref="B159" r:id="rId311" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{6C13BCBA-47DE-4749-AEF4-0463C7A750F8}"/>
-    <hyperlink ref="N159" r:id="rId312" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{1CBE7EAC-1CC8-4210-AE63-DFC5C1EFB1F5}"/>
-    <hyperlink ref="B160" r:id="rId313" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{FF6B0E9B-1C46-4D4C-9BD3-A1C0F953AD94}"/>
-    <hyperlink ref="N160" r:id="rId314" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{BDF8B82B-D221-4AD4-B483-E9435CA2AA30}"/>
-    <hyperlink ref="B161" r:id="rId315" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{D4285FB1-7C9C-45BA-B2A4-E5E71E82E5BB}"/>
-    <hyperlink ref="N161" r:id="rId316" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{6AA9D348-D542-452F-A6B5-4F40C11D197E}"/>
-    <hyperlink ref="B162" r:id="rId317" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{56B15B67-4D00-45D4-B923-F995DACF71A3}"/>
-    <hyperlink ref="N162" r:id="rId318" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{201FC401-6205-437A-84EF-B04283185D80}"/>
-    <hyperlink ref="B163" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{B5560ADC-F23B-4375-933E-2221D3F5DFD9}"/>
-    <hyperlink ref="N163" r:id="rId320" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{764902A6-3CF5-4489-8A19-8B24E04C8AA9}"/>
-    <hyperlink ref="B164" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{49B0B95A-F980-423B-8B63-F1BDE552A4C4}"/>
-    <hyperlink ref="N164" r:id="rId322" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{78CBF798-8397-48A6-A4B3-A9A1190FBFD2}"/>
-    <hyperlink ref="B165" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{2451120C-F309-4117-A9BF-24CC6BA1D503}"/>
-    <hyperlink ref="N165" r:id="rId324" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{2F1C70BC-6183-4BC8-A2C7-5B20B347CFD0}"/>
-    <hyperlink ref="B166" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{ADBDAADE-CD24-490A-9476-BC2D6FC08BE7}"/>
-    <hyperlink ref="N166" r:id="rId326" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{7B16070A-C8F1-458E-B72C-7D8D08A884B7}"/>
-    <hyperlink ref="B167" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{B2AA9A6D-CEA8-4AB4-88F9-97EFB0124839}"/>
-    <hyperlink ref="N167" r:id="rId328" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{891483BA-777A-4E1D-9F00-D19AD9070485}"/>
-    <hyperlink ref="B168" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{9F33CE22-B149-4F6A-AB47-A05A3989CDD5}"/>
-    <hyperlink ref="N168" r:id="rId330" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{012BBF4F-F47A-484B-AC5C-3E0957BAECC0}"/>
-    <hyperlink ref="B169" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{6865FB89-A2B1-43E0-864E-9C81068BFDEA}"/>
-    <hyperlink ref="N169" r:id="rId332" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{B45CD12F-6BB5-4909-9DA8-C94968760CA0}"/>
-    <hyperlink ref="B170" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{5F305D76-3FDF-4712-9932-34495CFE2956}"/>
-    <hyperlink ref="N170" r:id="rId334" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{87DEF195-E0E8-4E40-9BEC-75B59FC07433}"/>
-    <hyperlink ref="B171" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{48BDCB8B-0CDA-4E47-B2A3-0A716BA40124}"/>
-    <hyperlink ref="N171" r:id="rId336" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{BA478A1D-5E0F-4EFC-8DE3-780A2E026B25}"/>
-    <hyperlink ref="B172" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{49B4E9D4-14CE-47F9-ABDA-2FDF1604C9B6}"/>
-    <hyperlink ref="N172" r:id="rId338" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{1CB9CA72-DC7D-4110-9E0B-3A7CC0B537F9}"/>
-    <hyperlink ref="B173" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{602CDD72-0D2E-442E-8717-C71BA8FDF8EA}"/>
-    <hyperlink ref="N173" r:id="rId340" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{72C0987C-A20B-4549-B5F0-6B54135712F6}"/>
-    <hyperlink ref="B174" r:id="rId341" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{AC0C8E53-C926-4AA2-837A-105DD1DE2363}"/>
-    <hyperlink ref="N174" r:id="rId342" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{EF6683EB-B5CC-4CE9-B114-F5AD9041E0A6}"/>
-    <hyperlink ref="B175" r:id="rId343" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{F76D9309-BB71-49D7-8741-4D088F96F7BE}"/>
-    <hyperlink ref="N175" r:id="rId344" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{1B438F6E-F137-4D64-B8A3-7CDEBCE95E8E}"/>
-    <hyperlink ref="B176" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{28AE0465-04BF-4A29-A26E-3EED9F97CB49}"/>
-    <hyperlink ref="N176" r:id="rId346" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{0E55C813-A617-43BF-B5AC-BF914B630B1B}"/>
-    <hyperlink ref="B177" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{7B9CBE77-D7FA-4575-AD43-A8A5D91421A4}"/>
-    <hyperlink ref="N177" r:id="rId348" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{9DE78F49-A3AC-4D72-8DC6-46A4F5D012DF}"/>
-    <hyperlink ref="B178" r:id="rId349" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{E46B9F50-6E0A-4215-85C1-F31704B34E8D}"/>
-    <hyperlink ref="N178" r:id="rId350" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{A202D111-B07F-4F14-B57F-7D275D098696}"/>
-    <hyperlink ref="B179" r:id="rId351" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{A24576BE-7B0D-40A3-9E98-4731FE0E258F}"/>
-    <hyperlink ref="N179" r:id="rId352" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{50722CD7-80AC-4687-B949-078956AFEE4B}"/>
-    <hyperlink ref="B180" r:id="rId353" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{4583F29D-0087-4FAF-AA4E-2D72C4050FA4}"/>
-    <hyperlink ref="N180" r:id="rId354" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{6DB29637-4F9B-4F1A-BA09-E6AEBB3CCEDD}"/>
-    <hyperlink ref="B181" r:id="rId355" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{DCEE510D-4FA0-485A-9B30-DE8B72734B6B}"/>
-    <hyperlink ref="N181" r:id="rId356" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{BE6DAC1B-8AFC-4EDA-8D64-05DE0B04246E}"/>
-    <hyperlink ref="B182" r:id="rId357" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{27F9F8AF-EA67-4D2E-8358-A225E7AE8A9C}"/>
-    <hyperlink ref="N182" r:id="rId358" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{6255B372-25ED-475A-BC47-4711A1CE9626}"/>
-    <hyperlink ref="B183" r:id="rId359" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{7BB6AB05-5980-4C6F-B837-0E294FF3D231}"/>
-    <hyperlink ref="N183" r:id="rId360" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{9104977A-8125-4955-AEA1-45D108477BAA}"/>
-    <hyperlink ref="B184" r:id="rId361" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{40138EDA-AA90-42E8-A050-DF1DC9E4FD52}"/>
-    <hyperlink ref="N184" r:id="rId362" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{B1EA07C1-1E0F-4DF8-B33A-604DD1183CCA}"/>
-    <hyperlink ref="B185" r:id="rId363" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{73D3AFA4-A97B-487A-ABDA-22ADC3AC25AF}"/>
-    <hyperlink ref="N185" r:id="rId364" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{5CBF3446-2607-412C-9E15-824A8752ECFC}"/>
-    <hyperlink ref="B186" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{6ADBD40B-3DAF-45CD-B206-7FEB3E671955}"/>
-    <hyperlink ref="N186" r:id="rId366" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{E8DDE679-98D2-404F-BA54-256438139B82}"/>
-    <hyperlink ref="B187" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{62768CA4-08EB-4413-8D2B-0807C7759B18}"/>
-    <hyperlink ref="N187" r:id="rId368" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{95BAC086-C547-4489-9A8E-2C9D99EB6186}"/>
-    <hyperlink ref="B188" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{840B4143-9404-4616-9341-CEE8A16EB858}"/>
-    <hyperlink ref="N188" r:id="rId370" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{80E712BD-D430-456D-A204-014C8C5FA8EF}"/>
-    <hyperlink ref="B189" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{570ECB3C-5E9F-420B-850E-B958330B03A2}"/>
-    <hyperlink ref="N189" r:id="rId372" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{30E3DBFA-8B6A-45D6-A84B-3BDB84EEFBD4}"/>
-    <hyperlink ref="B190" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{ED0BA2E1-981B-4D5F-A9DD-C176094002D5}"/>
-    <hyperlink ref="N190" r:id="rId374" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{480523EA-C63F-4A1D-8D1C-632E7125C05E}"/>
-    <hyperlink ref="B191" r:id="rId375" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{24AB5A7E-7292-4FA0-8D9E-78EA95962717}"/>
-    <hyperlink ref="N191" r:id="rId376" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{2898F100-4A34-4147-BEB9-04C6805E0CA2}"/>
-    <hyperlink ref="B192" r:id="rId377" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{3535D1B7-BA94-4668-BE20-DEF875372E0E}"/>
-    <hyperlink ref="N192" r:id="rId378" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{6782547B-B220-47D5-A5F1-01DBFDE20A98}"/>
-    <hyperlink ref="B193" r:id="rId379" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{60024169-B979-40D9-A4BD-CA9C21DEEC6A}"/>
-    <hyperlink ref="N193" r:id="rId380" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{D0CACA2A-E2DB-4D90-9E21-408875E93453}"/>
-    <hyperlink ref="B194" r:id="rId381" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{21051C37-21AA-4E51-A45C-B0356A24F096}"/>
-    <hyperlink ref="N194" r:id="rId382" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{F8B1A31F-D0E4-4EDD-A763-C714B7183C5D}"/>
-    <hyperlink ref="B195" r:id="rId383" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{353A95BB-345B-4189-8587-5B8AA8A848C2}"/>
-    <hyperlink ref="N195" r:id="rId384" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{A1F15721-0F4A-4517-A6EC-5BF51B847DF5}"/>
-    <hyperlink ref="B196" r:id="rId385" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{6C0F7DDD-DF77-4463-A74F-CD16E9494006}"/>
-    <hyperlink ref="N196" r:id="rId386" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{82BDEEB9-2A6C-45B8-86CF-7A9936036522}"/>
-    <hyperlink ref="B197" r:id="rId387" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{7CCF21D3-7E87-42AC-AD8D-97E5B8BD3808}"/>
-    <hyperlink ref="N197" r:id="rId388" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{34AFEC55-4327-4C24-9676-54D710281372}"/>
-    <hyperlink ref="B198" r:id="rId389" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{416BBE4F-B245-44CE-8FBF-71FBD7A9E8C3}"/>
-    <hyperlink ref="N198" r:id="rId390" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{AD3BC7C1-CF02-4F01-BE84-47F1001FF871}"/>
-    <hyperlink ref="B199" r:id="rId391" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{12FCCB9E-A407-49D8-8888-58C2729D7787}"/>
-    <hyperlink ref="N199" r:id="rId392" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{48F55EEC-B35B-4A88-A4E6-3CAA3B1AF567}"/>
-    <hyperlink ref="B200" r:id="rId393" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{D6C5F3B8-2736-4902-8E16-BC830B9DF4B6}"/>
-    <hyperlink ref="N200" r:id="rId394" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{2AB8D16F-45CC-436D-882F-DDE6ABBB5718}"/>
-    <hyperlink ref="B201" r:id="rId395" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{599A1D0A-6985-4F32-9FB7-1B13193D435F}"/>
-    <hyperlink ref="N201" r:id="rId396" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{22B7AF71-80D5-4FD9-90E6-C388676FDA87}"/>
-    <hyperlink ref="B202" r:id="rId397" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{EABE1084-CDAF-4513-9CBA-BAB958853BB4}"/>
-    <hyperlink ref="N202" r:id="rId398" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{4B0BA16F-BC13-484A-8186-52A9CE82DBAE}"/>
-    <hyperlink ref="B203" r:id="rId399" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{5F7115AE-5F21-42EF-876A-070878CB3074}"/>
-    <hyperlink ref="N203" r:id="rId400" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{E57A8759-D011-4809-9441-614EE0B4EEED}"/>
-    <hyperlink ref="B204" r:id="rId401" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{C8B5EB10-E8C9-4C0F-85DC-9386F738406C}"/>
-    <hyperlink ref="N204" r:id="rId402" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{0F42E781-5D19-4C4F-9EA9-E9E01232E7DC}"/>
-    <hyperlink ref="B205" r:id="rId403" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{C9911BA5-66DC-4CFC-B307-A74C409B70B9}"/>
-    <hyperlink ref="N205" r:id="rId404" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{5040A3C6-FBA0-4357-9DBD-C29114A89072}"/>
-    <hyperlink ref="B206" r:id="rId405" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{C85E7F2F-1C25-454B-8E71-3764AEA3577D}"/>
-    <hyperlink ref="N206" r:id="rId406" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{3EADC81D-C1AF-430D-8E82-2F4C2BB98847}"/>
-    <hyperlink ref="B207" r:id="rId407" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{66982CDD-4AE3-447B-BF89-ED1F31B6F969}"/>
-    <hyperlink ref="N207" r:id="rId408" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{FA45E5AF-1CE8-4F03-AAFE-9E8C93D317DF}"/>
-    <hyperlink ref="B208" r:id="rId409" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{48156674-94B2-4BCB-A345-E9E2FED900EF}"/>
-    <hyperlink ref="N208" r:id="rId410" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{72A4A1FE-DB33-4078-832A-83974BF78B4E}"/>
-    <hyperlink ref="B210" r:id="rId411" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{1361AB8C-FA98-44FE-AE26-E2CA90F26842}"/>
-    <hyperlink ref="N210" r:id="rId412" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{A5D16F7D-9CBE-4949-9D8E-A41704A8C313}"/>
-    <hyperlink ref="B211" r:id="rId413" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{F90704EC-CFBC-4174-80A1-39ADF80C7499}"/>
-    <hyperlink ref="N211" r:id="rId414" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{0F1465D3-5640-4627-A43E-BF9D2ED0A14D}"/>
-    <hyperlink ref="B212" r:id="rId415" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{83DBA57A-AE6D-49B7-A7F6-527D9F331F4C}"/>
-    <hyperlink ref="N212" r:id="rId416" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{B91F49CA-89BD-405F-A227-6460F18DF859}"/>
-    <hyperlink ref="B213" r:id="rId417" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{C5CE9403-648B-4882-AFA3-5B279E333811}"/>
-    <hyperlink ref="N213" r:id="rId418" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{51998223-E901-4BD8-A0AA-006A37ADDC0C}"/>
-    <hyperlink ref="B214" r:id="rId419" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{D361F4FC-AB73-4201-9066-0ED3DE2CA4AB}"/>
-    <hyperlink ref="N214" r:id="rId420" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{61DA68A1-6CD4-49D2-B849-34F828CA3FF4}"/>
-    <hyperlink ref="B215" r:id="rId421" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{022022AF-8712-4957-897F-154074D59067}"/>
-    <hyperlink ref="N215" r:id="rId422" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{1DE71B81-CBF4-47A1-89AC-8D50664DF496}"/>
-    <hyperlink ref="B216" r:id="rId423" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{3DAE7ECC-FF11-47CD-BA53-358933307DA6}"/>
-    <hyperlink ref="N216" r:id="rId424" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{36E9590E-D5A8-4D1C-88DA-58191779653E}"/>
-    <hyperlink ref="B217" r:id="rId425" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{6BEA45BB-69F9-4A86-A81F-9FA19E942F13}"/>
-    <hyperlink ref="N217" r:id="rId426" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{AF82AB3E-1653-4FD1-99B1-9E07D89ECD6D}"/>
+    <hyperlink ref="N217" r:id="rId1" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{AF82AB3E-1653-4FD1-99B1-9E07D89ECD6D}"/>
+    <hyperlink ref="B217" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{6BEA45BB-69F9-4A86-A81F-9FA19E942F13}"/>
+    <hyperlink ref="N216" r:id="rId3" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{36E9590E-D5A8-4D1C-88DA-58191779653E}"/>
+    <hyperlink ref="B216" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{3DAE7ECC-FF11-47CD-BA53-358933307DA6}"/>
+    <hyperlink ref="N215" r:id="rId5" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{1DE71B81-CBF4-47A1-89AC-8D50664DF496}"/>
+    <hyperlink ref="B215" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{022022AF-8712-4957-897F-154074D59067}"/>
+    <hyperlink ref="N214" r:id="rId7" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{61DA68A1-6CD4-49D2-B849-34F828CA3FF4}"/>
+    <hyperlink ref="B214" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{D361F4FC-AB73-4201-9066-0ED3DE2CA4AB}"/>
+    <hyperlink ref="N213" r:id="rId9" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{51998223-E901-4BD8-A0AA-006A37ADDC0C}"/>
+    <hyperlink ref="B213" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{C5CE9403-648B-4882-AFA3-5B279E333811}"/>
+    <hyperlink ref="N212" r:id="rId11" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{B91F49CA-89BD-405F-A227-6460F18DF859}"/>
+    <hyperlink ref="B212" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{83DBA57A-AE6D-49B7-A7F6-527D9F331F4C}"/>
+    <hyperlink ref="N211" r:id="rId13" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{0F1465D3-5640-4627-A43E-BF9D2ED0A14D}"/>
+    <hyperlink ref="B211" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{F90704EC-CFBC-4174-80A1-39ADF80C7499}"/>
+    <hyperlink ref="N210" r:id="rId15" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{A5D16F7D-9CBE-4949-9D8E-A41704A8C313}"/>
+    <hyperlink ref="B210" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{1361AB8C-FA98-44FE-AE26-E2CA90F26842}"/>
+    <hyperlink ref="N208" r:id="rId17" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{72A4A1FE-DB33-4078-832A-83974BF78B4E}"/>
+    <hyperlink ref="B208" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{48156674-94B2-4BCB-A345-E9E2FED900EF}"/>
+    <hyperlink ref="N207" r:id="rId19" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{FA45E5AF-1CE8-4F03-AAFE-9E8C93D317DF}"/>
+    <hyperlink ref="B207" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{66982CDD-4AE3-447B-BF89-ED1F31B6F969}"/>
+    <hyperlink ref="N206" r:id="rId21" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{3EADC81D-C1AF-430D-8E82-2F4C2BB98847}"/>
+    <hyperlink ref="B206" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{C85E7F2F-1C25-454B-8E71-3764AEA3577D}"/>
+    <hyperlink ref="N205" r:id="rId23" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{5040A3C6-FBA0-4357-9DBD-C29114A89072}"/>
+    <hyperlink ref="B205" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{C9911BA5-66DC-4CFC-B307-A74C409B70B9}"/>
+    <hyperlink ref="N204" r:id="rId25" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{0F42E781-5D19-4C4F-9EA9-E9E01232E7DC}"/>
+    <hyperlink ref="B204" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{C8B5EB10-E8C9-4C0F-85DC-9386F738406C}"/>
+    <hyperlink ref="N203" r:id="rId27" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{E57A8759-D011-4809-9441-614EE0B4EEED}"/>
+    <hyperlink ref="B203" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{5F7115AE-5F21-42EF-876A-070878CB3074}"/>
+    <hyperlink ref="N202" r:id="rId29" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{4B0BA16F-BC13-484A-8186-52A9CE82DBAE}"/>
+    <hyperlink ref="B202" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{EABE1084-CDAF-4513-9CBA-BAB958853BB4}"/>
+    <hyperlink ref="N201" r:id="rId31" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{22B7AF71-80D5-4FD9-90E6-C388676FDA87}"/>
+    <hyperlink ref="B201" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{599A1D0A-6985-4F32-9FB7-1B13193D435F}"/>
+    <hyperlink ref="N200" r:id="rId33" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{2AB8D16F-45CC-436D-882F-DDE6ABBB5718}"/>
+    <hyperlink ref="B200" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{D6C5F3B8-2736-4902-8E16-BC830B9DF4B6}"/>
+    <hyperlink ref="N199" r:id="rId35" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{48F55EEC-B35B-4A88-A4E6-3CAA3B1AF567}"/>
+    <hyperlink ref="B199" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{12FCCB9E-A407-49D8-8888-58C2729D7787}"/>
+    <hyperlink ref="N198" r:id="rId37" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{AD3BC7C1-CF02-4F01-BE84-47F1001FF871}"/>
+    <hyperlink ref="B198" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{416BBE4F-B245-44CE-8FBF-71FBD7A9E8C3}"/>
+    <hyperlink ref="N197" r:id="rId39" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{34AFEC55-4327-4C24-9676-54D710281372}"/>
+    <hyperlink ref="B197" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{7CCF21D3-7E87-42AC-AD8D-97E5B8BD3808}"/>
+    <hyperlink ref="N196" r:id="rId41" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{82BDEEB9-2A6C-45B8-86CF-7A9936036522}"/>
+    <hyperlink ref="B196" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{6C0F7DDD-DF77-4463-A74F-CD16E9494006}"/>
+    <hyperlink ref="N195" r:id="rId43" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{A1F15721-0F4A-4517-A6EC-5BF51B847DF5}"/>
+    <hyperlink ref="B195" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{353A95BB-345B-4189-8587-5B8AA8A848C2}"/>
+    <hyperlink ref="N194" r:id="rId45" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{F8B1A31F-D0E4-4EDD-A763-C714B7183C5D}"/>
+    <hyperlink ref="B194" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{21051C37-21AA-4E51-A45C-B0356A24F096}"/>
+    <hyperlink ref="N193" r:id="rId47" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{D0CACA2A-E2DB-4D90-9E21-408875E93453}"/>
+    <hyperlink ref="B193" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{60024169-B979-40D9-A4BD-CA9C21DEEC6A}"/>
+    <hyperlink ref="N192" r:id="rId49" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{6782547B-B220-47D5-A5F1-01DBFDE20A98}"/>
+    <hyperlink ref="B192" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{3535D1B7-BA94-4668-BE20-DEF875372E0E}"/>
+    <hyperlink ref="N191" r:id="rId51" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{2898F100-4A34-4147-BEB9-04C6805E0CA2}"/>
+    <hyperlink ref="B191" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{24AB5A7E-7292-4FA0-8D9E-78EA95962717}"/>
+    <hyperlink ref="N190" r:id="rId53" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{480523EA-C63F-4A1D-8D1C-632E7125C05E}"/>
+    <hyperlink ref="B190" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{ED0BA2E1-981B-4D5F-A9DD-C176094002D5}"/>
+    <hyperlink ref="N189" r:id="rId55" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{30E3DBFA-8B6A-45D6-A84B-3BDB84EEFBD4}"/>
+    <hyperlink ref="B189" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{570ECB3C-5E9F-420B-850E-B958330B03A2}"/>
+    <hyperlink ref="N188" r:id="rId57" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{80E712BD-D430-456D-A204-014C8C5FA8EF}"/>
+    <hyperlink ref="B188" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{840B4143-9404-4616-9341-CEE8A16EB858}"/>
+    <hyperlink ref="N187" r:id="rId59" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{95BAC086-C547-4489-9A8E-2C9D99EB6186}"/>
+    <hyperlink ref="B187" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{62768CA4-08EB-4413-8D2B-0807C7759B18}"/>
+    <hyperlink ref="N186" r:id="rId61" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{E8DDE679-98D2-404F-BA54-256438139B82}"/>
+    <hyperlink ref="B186" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{6ADBD40B-3DAF-45CD-B206-7FEB3E671955}"/>
+    <hyperlink ref="N185" r:id="rId63" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{5CBF3446-2607-412C-9E15-824A8752ECFC}"/>
+    <hyperlink ref="B185" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{73D3AFA4-A97B-487A-ABDA-22ADC3AC25AF}"/>
+    <hyperlink ref="N184" r:id="rId65" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{B1EA07C1-1E0F-4DF8-B33A-604DD1183CCA}"/>
+    <hyperlink ref="B184" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{40138EDA-AA90-42E8-A050-DF1DC9E4FD52}"/>
+    <hyperlink ref="N183" r:id="rId67" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{9104977A-8125-4955-AEA1-45D108477BAA}"/>
+    <hyperlink ref="B183" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{7BB6AB05-5980-4C6F-B837-0E294FF3D231}"/>
+    <hyperlink ref="N182" r:id="rId69" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{6255B372-25ED-475A-BC47-4711A1CE9626}"/>
+    <hyperlink ref="B182" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{27F9F8AF-EA67-4D2E-8358-A225E7AE8A9C}"/>
+    <hyperlink ref="N181" r:id="rId71" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{BE6DAC1B-8AFC-4EDA-8D64-05DE0B04246E}"/>
+    <hyperlink ref="B181" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{DCEE510D-4FA0-485A-9B30-DE8B72734B6B}"/>
+    <hyperlink ref="N180" r:id="rId73" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{6DB29637-4F9B-4F1A-BA09-E6AEBB3CCEDD}"/>
+    <hyperlink ref="B180" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{4583F29D-0087-4FAF-AA4E-2D72C4050FA4}"/>
+    <hyperlink ref="N179" r:id="rId75" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{50722CD7-80AC-4687-B949-078956AFEE4B}"/>
+    <hyperlink ref="B179" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{A24576BE-7B0D-40A3-9E98-4731FE0E258F}"/>
+    <hyperlink ref="N178" r:id="rId77" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{A202D111-B07F-4F14-B57F-7D275D098696}"/>
+    <hyperlink ref="B178" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{E46B9F50-6E0A-4215-85C1-F31704B34E8D}"/>
+    <hyperlink ref="N177" r:id="rId79" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{9DE78F49-A3AC-4D72-8DC6-46A4F5D012DF}"/>
+    <hyperlink ref="B177" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{7B9CBE77-D7FA-4575-AD43-A8A5D91421A4}"/>
+    <hyperlink ref="N176" r:id="rId81" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{0E55C813-A617-43BF-B5AC-BF914B630B1B}"/>
+    <hyperlink ref="B176" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{28AE0465-04BF-4A29-A26E-3EED9F97CB49}"/>
+    <hyperlink ref="N175" r:id="rId83" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{1B438F6E-F137-4D64-B8A3-7CDEBCE95E8E}"/>
+    <hyperlink ref="B175" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{F76D9309-BB71-49D7-8741-4D088F96F7BE}"/>
+    <hyperlink ref="N174" r:id="rId85" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{EF6683EB-B5CC-4CE9-B114-F5AD9041E0A6}"/>
+    <hyperlink ref="B174" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{AC0C8E53-C926-4AA2-837A-105DD1DE2363}"/>
+    <hyperlink ref="N173" r:id="rId87" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{72C0987C-A20B-4549-B5F0-6B54135712F6}"/>
+    <hyperlink ref="B173" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{602CDD72-0D2E-442E-8717-C71BA8FDF8EA}"/>
+    <hyperlink ref="N172" r:id="rId89" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{1CB9CA72-DC7D-4110-9E0B-3A7CC0B537F9}"/>
+    <hyperlink ref="B172" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{49B4E9D4-14CE-47F9-ABDA-2FDF1604C9B6}"/>
+    <hyperlink ref="N171" r:id="rId91" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{BA478A1D-5E0F-4EFC-8DE3-780A2E026B25}"/>
+    <hyperlink ref="B171" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{48BDCB8B-0CDA-4E47-B2A3-0A716BA40124}"/>
+    <hyperlink ref="N170" r:id="rId93" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{87DEF195-E0E8-4E40-9BEC-75B59FC07433}"/>
+    <hyperlink ref="B170" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{5F305D76-3FDF-4712-9932-34495CFE2956}"/>
+    <hyperlink ref="N169" r:id="rId95" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{B45CD12F-6BB5-4909-9DA8-C94968760CA0}"/>
+    <hyperlink ref="B169" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{6865FB89-A2B1-43E0-864E-9C81068BFDEA}"/>
+    <hyperlink ref="N168" r:id="rId97" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{012BBF4F-F47A-484B-AC5C-3E0957BAECC0}"/>
+    <hyperlink ref="B168" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{9F33CE22-B149-4F6A-AB47-A05A3989CDD5}"/>
+    <hyperlink ref="N167" r:id="rId99" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{891483BA-777A-4E1D-9F00-D19AD9070485}"/>
+    <hyperlink ref="B167" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{B2AA9A6D-CEA8-4AB4-88F9-97EFB0124839}"/>
+    <hyperlink ref="N166" r:id="rId101" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{7B16070A-C8F1-458E-B72C-7D8D08A884B7}"/>
+    <hyperlink ref="B166" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{ADBDAADE-CD24-490A-9476-BC2D6FC08BE7}"/>
+    <hyperlink ref="N165" r:id="rId103" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{2F1C70BC-6183-4BC8-A2C7-5B20B347CFD0}"/>
+    <hyperlink ref="B165" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{2451120C-F309-4117-A9BF-24CC6BA1D503}"/>
+    <hyperlink ref="N164" r:id="rId105" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{78CBF798-8397-48A6-A4B3-A9A1190FBFD2}"/>
+    <hyperlink ref="B164" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{49B0B95A-F980-423B-8B63-F1BDE552A4C4}"/>
+    <hyperlink ref="N163" r:id="rId107" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{764902A6-3CF5-4489-8A19-8B24E04C8AA9}"/>
+    <hyperlink ref="B163" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{B5560ADC-F23B-4375-933E-2221D3F5DFD9}"/>
+    <hyperlink ref="N162" r:id="rId109" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{201FC401-6205-437A-84EF-B04283185D80}"/>
+    <hyperlink ref="B162" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{56B15B67-4D00-45D4-B923-F995DACF71A3}"/>
+    <hyperlink ref="N161" r:id="rId111" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{6AA9D348-D542-452F-A6B5-4F40C11D197E}"/>
+    <hyperlink ref="B161" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{D4285FB1-7C9C-45BA-B2A4-E5E71E82E5BB}"/>
+    <hyperlink ref="N160" r:id="rId113" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{BDF8B82B-D221-4AD4-B483-E9435CA2AA30}"/>
+    <hyperlink ref="B160" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{FF6B0E9B-1C46-4D4C-9BD3-A1C0F953AD94}"/>
+    <hyperlink ref="N159" r:id="rId115" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{1CBE7EAC-1CC8-4210-AE63-DFC5C1EFB1F5}"/>
+    <hyperlink ref="B159" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{6C13BCBA-47DE-4749-AEF4-0463C7A750F8}"/>
+    <hyperlink ref="N158" r:id="rId117" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{CBB1ABE4-2950-44D6-B56A-E14ED5BA5237}"/>
+    <hyperlink ref="B158" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{4222C98A-2954-4344-90C4-40DC87D74340}"/>
+    <hyperlink ref="N157" r:id="rId119" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{9311E7A7-4058-4568-8903-AC239A32F631}"/>
+    <hyperlink ref="B157" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{D3715F83-F4EE-4981-B587-3112C27FC780}"/>
+    <hyperlink ref="N156" r:id="rId121" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{090B108F-DA0D-48EE-92D7-5A8C1545B8C0}"/>
+    <hyperlink ref="B156" r:id="rId122" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{7FB35547-18FC-4B31-A29F-0180A90DDAF1}"/>
+    <hyperlink ref="N155" r:id="rId123" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{9E41513D-40EA-44AE-8994-5C9B41EF843C}"/>
+    <hyperlink ref="B155" r:id="rId124" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{C218BC37-1BEF-4D98-BB0D-C91E5DE9C3C4}"/>
+    <hyperlink ref="N154" r:id="rId125" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{5E6155BB-D5D9-407F-BEA5-10A778307FE1}"/>
+    <hyperlink ref="B154" r:id="rId126" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{6EF06010-1E87-43CB-BDAB-3C029E7D8F9C}"/>
+    <hyperlink ref="N153" r:id="rId127" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{99572CAB-F690-49AE-A18B-6165E746DB4E}"/>
+    <hyperlink ref="B153" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{683D82FD-2AD2-46CD-8BB5-CED83B63A67C}"/>
+    <hyperlink ref="N152" r:id="rId129" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{2B2F4FD2-BBD4-4B5B-AB3A-71B644741C3B}"/>
+    <hyperlink ref="B152" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{82269F64-4B06-4EA0-8AC7-5EE14EC55B73}"/>
+    <hyperlink ref="N151" r:id="rId131" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{C71CF4E6-53D7-4EAF-8632-4B8264522757}"/>
+    <hyperlink ref="B151" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{5D0D0E91-C863-4B51-BF42-B5A57D040877}"/>
+    <hyperlink ref="N150" r:id="rId133" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{2E204AFD-B7BF-44B2-BCAA-E5147DB0BFB2}"/>
+    <hyperlink ref="B150" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{3F66C2A2-EB79-4D42-904A-AB9CE6BEA596}"/>
+    <hyperlink ref="N149" r:id="rId135" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{05FD3812-58B8-434C-9439-0BCEF6C3AE91}"/>
+    <hyperlink ref="B149" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{EC758088-2EC2-46DE-BAD5-5F3298211944}"/>
+    <hyperlink ref="N148" r:id="rId137" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{92F343CA-AA83-4DCA-B1C6-6999C4935B67}"/>
+    <hyperlink ref="B148" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{89656C1D-86BA-443F-820A-4314174C1AEC}"/>
+    <hyperlink ref="N147" r:id="rId139" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{19D47761-E3FD-4636-A59E-2F2AFA364496}"/>
+    <hyperlink ref="B147" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{6C827A5A-1093-43D3-B30C-0A6A836D36E2}"/>
+    <hyperlink ref="N146" r:id="rId141" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{D7F91407-34DE-47F2-87BF-726C0AECFC96}"/>
+    <hyperlink ref="B146" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{FC9CE9FC-B450-440B-BD34-7A5B543CA81C}"/>
+    <hyperlink ref="N145" r:id="rId143" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{82D81E85-FF7C-435C-9CFA-42A65390BAD3}"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{3E446E8F-3CE1-4C61-8E3B-012FC0E9DBF1}"/>
+    <hyperlink ref="N144" r:id="rId145" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{67FEC8A7-D0DC-4675-8A55-75C9A6E8563F}"/>
+    <hyperlink ref="B144" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{82CE4745-1DD0-420D-8694-E87BC2FB6066}"/>
+    <hyperlink ref="N143" r:id="rId147" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{48F2291F-3A26-46BA-9017-C91B0DBC7932}"/>
+    <hyperlink ref="B143" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{34E7FF71-708E-4D7D-93E9-03C8F4C37868}"/>
+    <hyperlink ref="N142" r:id="rId149" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{3887A474-7E7B-46AD-B9A2-FB783872CAA1}"/>
+    <hyperlink ref="B142" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{EDF2C1D6-018F-4B5F-8B0E-F4916B9FAD5A}"/>
+    <hyperlink ref="N141" r:id="rId151" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{A66DE836-2999-423D-9A39-00292A3B8EBA}"/>
+    <hyperlink ref="B141" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{203F2CCA-F6D1-4332-8E2E-889F589D1F49}"/>
+    <hyperlink ref="N140" r:id="rId153" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{72A55C87-B174-4899-B3EC-0307DBA7F922}"/>
+    <hyperlink ref="B140" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{3D5E6842-F38A-4FF1-B2BE-C13CF586C66C}"/>
+    <hyperlink ref="N139" r:id="rId155" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{9F641906-9A88-4BEE-813D-84E6842D609E}"/>
+    <hyperlink ref="B139" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{EADC4E03-D6F1-4D3D-A9E9-58DF3243B25C}"/>
+    <hyperlink ref="N138" r:id="rId157" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{6FEC9BA9-0C40-4B4A-88DF-4684B209DBE7}"/>
+    <hyperlink ref="B138" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{B4F8A40A-3350-4FFF-9074-468596824E8B}"/>
+    <hyperlink ref="N137" r:id="rId159" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{6ADA51AC-5AFC-423F-88F7-3310B417BFAA}"/>
+    <hyperlink ref="B137" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{2A8D0ABE-E4A9-43CE-880A-3282797297A7}"/>
+    <hyperlink ref="N136" r:id="rId161" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{80DCB23A-C61C-4E0E-AEE7-A0E6129FDC16}"/>
+    <hyperlink ref="B136" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{A22097CD-1C47-4A4F-88B6-762D9808B574}"/>
+    <hyperlink ref="N135" r:id="rId163" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{C74DE310-E48A-4F2E-9BA9-6B3C29AF5A01}"/>
+    <hyperlink ref="B135" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{B47297E4-CCFC-4F91-8919-4D48D84E75E7}"/>
+    <hyperlink ref="N134" r:id="rId165" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{593F6652-5F11-4E56-8948-59F93AE4D1AF}"/>
+    <hyperlink ref="B134" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{7783E0A3-E25B-4E44-B85F-FD196570E887}"/>
+    <hyperlink ref="N133" r:id="rId167" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{F3135586-86CE-4980-B88F-B1FFE9E099FC}"/>
+    <hyperlink ref="B133" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{700B357F-AD50-49C4-8BA0-00FF45446863}"/>
+    <hyperlink ref="N132" r:id="rId169" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{E0688D4E-69D1-4B1F-87E3-906266C58877}"/>
+    <hyperlink ref="B132" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{2D671C5A-29A6-481E-8098-3E8A3CF142E6}"/>
+    <hyperlink ref="N131" r:id="rId171" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{5FD45CE7-897E-4573-921C-06A5E9214D0E}"/>
+    <hyperlink ref="B131" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{8FE87CBD-30EF-4108-85F7-1FAF99872343}"/>
+    <hyperlink ref="N130" r:id="rId173" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{B16237A5-7B75-4E49-855C-391681FE9CF7}"/>
+    <hyperlink ref="B130" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{D7A3A44B-10C0-4F11-AF32-72F71105AE19}"/>
+    <hyperlink ref="N129" r:id="rId175" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{1E63B0B4-79BD-4429-894D-B02C35AFF6BD}"/>
+    <hyperlink ref="B129" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{0BDDC5EB-E55C-4E56-AB41-61AF89A987AA}"/>
+    <hyperlink ref="N128" r:id="rId177" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{BC88A8A4-E8B7-4783-9345-44DC9F54C811}"/>
+    <hyperlink ref="B128" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{C506E582-6E11-4D7D-9145-3180E6C4306D}"/>
+    <hyperlink ref="N127" r:id="rId179" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{9E29C1E2-B0AA-45C8-824D-667599680C16}"/>
+    <hyperlink ref="B127" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{252727F8-8138-4937-8D82-372904415F06}"/>
+    <hyperlink ref="N126" r:id="rId181" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{33413B2B-FF8E-4A47-81B4-1B46AC9513EC}"/>
+    <hyperlink ref="B126" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{23869893-524F-420C-98A9-125677D7E8F9}"/>
+    <hyperlink ref="N125" r:id="rId183" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{EC697131-8165-450A-9135-9F5718CF51FC}"/>
+    <hyperlink ref="B125" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{26F5CFC1-9D3B-4BD2-8A99-E97AB45ABC37}"/>
+    <hyperlink ref="N124" r:id="rId185" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{B407DAB4-371A-4258-BE50-99ECBBFD3826}"/>
+    <hyperlink ref="B124" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{3415E27A-A701-4F7B-9DF5-5D9BA972639E}"/>
+    <hyperlink ref="N123" r:id="rId187" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{C507AC59-0CC2-47D6-A9FE-84394E05114C}"/>
+    <hyperlink ref="B123" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{23248D60-8D9F-426A-B011-ED37BEA40CCC}"/>
+    <hyperlink ref="N122" r:id="rId189" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{F2AC05A7-8F42-453D-BE19-224C5E302A18}"/>
+    <hyperlink ref="B122" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{B2CD01B2-74C6-4B2F-8C42-ED5F0DB89CD4}"/>
+    <hyperlink ref="N121" r:id="rId191" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{AC6D7117-3A44-4BD1-9D50-C41A547705C1}"/>
+    <hyperlink ref="B121" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{FFAADEC2-FB6A-4AEB-ACC3-B5EA9D55EFC8}"/>
+    <hyperlink ref="N120" r:id="rId193" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{9A6561F5-6E22-4808-AB76-904A9AE979EE}"/>
+    <hyperlink ref="B120" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{7D943D45-2B0F-4A44-B3C9-E69A0DFB7107}"/>
+    <hyperlink ref="N119" r:id="rId195" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{1A5A9B4D-4484-467E-BC25-B69186063AC6}"/>
+    <hyperlink ref="B119" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{8D734174-C784-40C7-BE19-3F07A3B836D8}"/>
+    <hyperlink ref="N118" r:id="rId197" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{D563DFFE-C69D-4964-9E8F-B1D249708C8D}"/>
+    <hyperlink ref="B118" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{CCF4CD35-FE98-4358-8706-A18283C98E5F}"/>
+    <hyperlink ref="N116" r:id="rId199" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{471BE325-E848-4B6C-B574-FB76B5344496}"/>
+    <hyperlink ref="B116" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{19E46392-46C1-4D76-9450-C835DC6DCDCD}"/>
+    <hyperlink ref="N115" r:id="rId201" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{53364108-AC4B-42B4-BE40-953A110B0C40}"/>
+    <hyperlink ref="B115" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{4FBAE49F-531F-446C-B806-2CCA7DE829AF}"/>
+    <hyperlink ref="N114" r:id="rId203" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{B20A8D6E-EA1C-4494-84DC-A583C152F1B4}"/>
+    <hyperlink ref="B114" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{C85799E1-86BC-4136-BB31-A94132668AD1}"/>
+    <hyperlink ref="N113" r:id="rId205" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{D3487762-1B94-4AC9-9718-9335421B476F}"/>
+    <hyperlink ref="B113" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{8A49172D-5C41-47D5-843F-BA7C084C05A4}"/>
+    <hyperlink ref="N112" r:id="rId207" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{B894BA1E-8660-43BF-8234-66248AD4CAEF}"/>
+    <hyperlink ref="B112" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{1336AEBF-3777-4AF3-A75E-8905946F5F63}"/>
+    <hyperlink ref="N111" r:id="rId209" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{164D592C-B5DC-4BCF-8857-25CD3753B903}"/>
+    <hyperlink ref="B111" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{77B5DA20-2370-4935-9671-1D75A13BAA24}"/>
+    <hyperlink ref="N110" r:id="rId211" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{55F6F89F-1F40-47D8-A5CF-5A994F2D75FD}"/>
+    <hyperlink ref="B110" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{0A8135A1-F3E7-4CFD-9B3C-EF7625D2910B}"/>
+    <hyperlink ref="N109" r:id="rId213" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{F3FD9A45-E41C-4B86-9E0E-1DE5B63CA1D7}"/>
+    <hyperlink ref="B109" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{535953E8-4F94-4B0E-8A27-5BE4F964B54C}"/>
+    <hyperlink ref="N108" r:id="rId215" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{8D12A430-FBDD-4EEA-8E8F-8825DCE32722}"/>
+    <hyperlink ref="B108" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{8634690E-D1C3-4646-BA08-BD19FA7ECD9D}"/>
+    <hyperlink ref="N107" r:id="rId217" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{2175DE3B-446D-4796-92B2-39E7BED746DB}"/>
+    <hyperlink ref="B107" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{A19F76AD-3F6E-499D-A818-04094E2E53CD}"/>
+    <hyperlink ref="N106" r:id="rId219" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{3FCE5CCD-DDEC-4320-8519-400F3F06AD1B}"/>
+    <hyperlink ref="B106" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{8FC3A507-67E9-4EC7-9826-5B6C9E2674D1}"/>
+    <hyperlink ref="N105" r:id="rId221" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{69F6CDE3-E266-4C52-8C4D-166BC50D705B}"/>
+    <hyperlink ref="B105" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{FB5DE4D9-55C9-42D2-B2EB-B5A8EC2F3B76}"/>
+    <hyperlink ref="N104" r:id="rId223" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{C93536B3-31F2-4FC2-90B8-D3FF51538318}"/>
+    <hyperlink ref="B104" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{560DABA0-D2DA-426B-B0E3-B94F6B7423F8}"/>
+    <hyperlink ref="N103" r:id="rId225" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{5CCF0691-F61B-4D9F-A9CA-089FBF8931CC}"/>
+    <hyperlink ref="B103" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{05457F22-5FEB-4965-A468-F4C9970B92A0}"/>
+    <hyperlink ref="N102" r:id="rId227" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{47DE2F34-F843-479D-A56E-C332F9129930}"/>
+    <hyperlink ref="B102" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{C200D7B6-2DA9-4C33-9C7F-DC53608D18EA}"/>
+    <hyperlink ref="N101" r:id="rId229" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{497BD52F-04D4-4E3B-9515-00A38E1B3EAE}"/>
+    <hyperlink ref="B101" r:id="rId230" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{44A65294-7332-467F-B965-381B96753584}"/>
+    <hyperlink ref="N100" r:id="rId231" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{D0553AA0-B934-4CD5-B22B-90EE5B1EF0C8}"/>
+    <hyperlink ref="B100" r:id="rId232" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{400152BA-AD15-41A0-A986-097E1438F240}"/>
+    <hyperlink ref="N99" r:id="rId233" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{D54EF48D-B3A7-4AA1-9F4D-DFCC326CD39A}"/>
+    <hyperlink ref="B99" r:id="rId234" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{B1570A3B-B240-42C5-8E72-F304A6957DFA}"/>
+    <hyperlink ref="N98" r:id="rId235" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{8AF35866-06CF-4FCB-A023-6E5CAEA6B89B}"/>
+    <hyperlink ref="B98" r:id="rId236" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{0C179F50-3852-47B9-A7C7-118F0B318E3C}"/>
+    <hyperlink ref="N97" r:id="rId237" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{0DB5EC8E-43EF-47C9-8171-0E338A9D3EAA}"/>
+    <hyperlink ref="B97" r:id="rId238" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{21579921-1E95-4447-ADDC-2B67CFFAF38D}"/>
+    <hyperlink ref="N96" r:id="rId239" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{5A320E21-BE46-46D8-9EE2-BD37DE21D939}"/>
+    <hyperlink ref="B96" r:id="rId240" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{38C8C005-5674-4EF7-BF64-0A9924A03E69}"/>
+    <hyperlink ref="N95" r:id="rId241" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{522817F4-92E6-438D-94C6-5C0333C950AB}"/>
+    <hyperlink ref="B95" r:id="rId242" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{CF55A5D8-9BAF-4364-AD55-5BCEB0779EFF}"/>
+    <hyperlink ref="N94" r:id="rId243" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{B0AC62AC-10AA-4824-9730-FEFF41A448B8}"/>
+    <hyperlink ref="B94" r:id="rId244" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{817675BE-DDB7-4A59-BAFD-33A5650C32BF}"/>
+    <hyperlink ref="N93" r:id="rId245" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{DC67DAFB-84DC-4F4F-8A23-C4E257AB61B6}"/>
+    <hyperlink ref="B93" r:id="rId246" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{1D586081-4CC0-4B67-9D65-443923F7F9FA}"/>
+    <hyperlink ref="N92" r:id="rId247" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{3151F61D-E1CD-4163-85D7-8DAF776EC8C5}"/>
+    <hyperlink ref="B92" r:id="rId248" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{91FA3F62-93B6-4AC1-AEB0-529EF1674932}"/>
+    <hyperlink ref="N91" r:id="rId249" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{B2B41562-F6EB-4CB1-B97C-BD7481CB73AC}"/>
+    <hyperlink ref="B91" r:id="rId250" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{1201C07C-17B7-4FF3-AB08-8357CD7F616C}"/>
+    <hyperlink ref="N90" r:id="rId251" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{6427EC34-9B64-4A02-A9C5-FAD4E1F20C71}"/>
+    <hyperlink ref="B90" r:id="rId252" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{D9A51496-89D1-4AF1-ADD1-C21D0B66B94B}"/>
+    <hyperlink ref="N89" r:id="rId253" display="https://www.worldometers.info/world-population/new-zealand-population/" xr:uid="{F70CEEB3-BF7B-4D97-941B-B44D75C57C51}"/>
+    <hyperlink ref="B89" r:id="rId254" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{A3E3A10E-F050-4DB1-B4F5-3E3D6E90B169}"/>
+    <hyperlink ref="N88" r:id="rId255" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{CC336CF8-A2BF-4CB2-9A39-57E345C22126}"/>
+    <hyperlink ref="B88" r:id="rId256" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{5848B82C-E433-4FB3-9BB4-CB0FB246FE7D}"/>
+    <hyperlink ref="N87" r:id="rId257" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{721FD11E-7A45-40A9-9871-38B5B17F1DD1}"/>
+    <hyperlink ref="B87" r:id="rId258" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{065D9011-5E71-4561-A450-038A6C2FF4DB}"/>
+    <hyperlink ref="N86" r:id="rId259" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{82348F1C-04E1-49D3-86E9-C275E4C9885B}"/>
+    <hyperlink ref="B86" r:id="rId260" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{ADD2A88D-C845-4EF4-949A-AFEC550FECAD}"/>
+    <hyperlink ref="N85" r:id="rId261" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{B1BF38A2-88FD-4671-911D-D9D80F803625}"/>
+    <hyperlink ref="B85" r:id="rId262" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{BA8EE4BC-DECB-4A4E-B55F-68A344616CF5}"/>
+    <hyperlink ref="N84" r:id="rId263" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{97B0DC16-CBEA-4BD5-A2E2-D34834455D26}"/>
+    <hyperlink ref="B84" r:id="rId264" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{C8E3A422-86A5-469D-97DC-A381D20E38CF}"/>
+    <hyperlink ref="N83" r:id="rId265" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{157A8C71-7C7D-42FA-B560-7C9394D92C3C}"/>
+    <hyperlink ref="B83" r:id="rId266" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{419028E7-998E-4110-8B72-E881B611B1C8}"/>
+    <hyperlink ref="N82" r:id="rId267" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{A9F781C8-DABE-41AC-A374-545FB1F21B7E}"/>
+    <hyperlink ref="B82" r:id="rId268" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{6B7C0DDE-21F1-45D9-84E5-EFDAB90095A8}"/>
+    <hyperlink ref="N81" r:id="rId269" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{69F67725-4337-460F-8F39-27933A1847E0}"/>
+    <hyperlink ref="B81" r:id="rId270" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{1CCFD6A9-3BA8-4F02-8D9D-69D2FEA9E5C1}"/>
+    <hyperlink ref="N80" r:id="rId271" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{AD0BCE77-A7AA-4BCD-A957-2842B9BC9579}"/>
+    <hyperlink ref="B80" r:id="rId272" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{6A414F53-74F5-4ADA-92D2-4B63C518FD5E}"/>
+    <hyperlink ref="N79" r:id="rId273" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{CD658701-CBD6-40E0-B898-8012B9133D22}"/>
+    <hyperlink ref="B79" r:id="rId274" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{06B9F89E-07E2-4322-8283-405A169BCA9B}"/>
+    <hyperlink ref="N78" r:id="rId275" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{42589127-5D50-461B-BB69-971809D64285}"/>
+    <hyperlink ref="B78" r:id="rId276" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{21A36F42-4B16-4CFA-B623-0DB89E8B2083}"/>
+    <hyperlink ref="N77" r:id="rId277" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{474A13E7-CE7E-43E1-A870-380EDFA1C309}"/>
+    <hyperlink ref="B77" r:id="rId278" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{DC72A639-7DCA-42B0-8CFE-6E7529D6AA07}"/>
+    <hyperlink ref="N76" r:id="rId279" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{DE786426-8F1B-461C-9EE2-1203DA9CEECA}"/>
+    <hyperlink ref="B76" r:id="rId280" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{E23B6D13-D466-45AE-B168-CA7D19C14260}"/>
+    <hyperlink ref="N75" r:id="rId281" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{A69CA781-C0E2-4787-9B50-BDFEA36DF1A0}"/>
+    <hyperlink ref="B75" r:id="rId282" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{9B374325-448E-491A-BBA6-78590A9F2FD4}"/>
+    <hyperlink ref="N74" r:id="rId283" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{B9DF4C9D-F3AD-46AB-B077-D4D34E363260}"/>
+    <hyperlink ref="B74" r:id="rId284" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{1E760713-76D1-4DEB-A750-0DC2CDEA9D11}"/>
+    <hyperlink ref="N73" r:id="rId285" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{10C1F3F4-76CE-4A1B-BD42-EDDF83279999}"/>
+    <hyperlink ref="B73" r:id="rId286" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{291F7CCE-D096-4A40-AE35-66FAAA04CB0D}"/>
+    <hyperlink ref="N72" r:id="rId287" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{DFF2FE60-9F38-4BDB-949C-DE0FFFD80D19}"/>
+    <hyperlink ref="B72" r:id="rId288" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{E1ACAAA9-06F6-422B-A9EB-F72BE4599CE7}"/>
+    <hyperlink ref="N71" r:id="rId289" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{7EA0450F-117B-42DB-9AE0-0480CA720EAA}"/>
+    <hyperlink ref="B71" r:id="rId290" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{301BA943-3312-4ECA-B3F5-422D7421C944}"/>
+    <hyperlink ref="N70" r:id="rId291" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{19CC7926-C8B5-4FFC-863D-2E1FA89CEB63}"/>
+    <hyperlink ref="B70" r:id="rId292" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{D8E53674-263E-4F3A-8AD7-0DE8B4D40AAE}"/>
+    <hyperlink ref="N69" r:id="rId293" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{84F7C965-4F9C-49A0-99B3-5A8240F81688}"/>
+    <hyperlink ref="B69" r:id="rId294" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{35572098-0A01-4018-897E-077845733BF4}"/>
+    <hyperlink ref="N68" r:id="rId295" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{8B5D2914-B9A6-48EF-A8C2-D9FDD8A38825}"/>
+    <hyperlink ref="B68" r:id="rId296" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{78534B21-E810-4A27-A04C-7ED5F47C8776}"/>
+    <hyperlink ref="N67" r:id="rId297" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{B01D4F1C-1FB8-40E0-B7BA-F7EA354C9F64}"/>
+    <hyperlink ref="B67" r:id="rId298" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{6B8018C6-C4D0-4586-8C08-B9E43DCC2370}"/>
+    <hyperlink ref="N66" r:id="rId299" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{5010A0AA-17A0-4559-9369-2D2955FD3362}"/>
+    <hyperlink ref="B66" r:id="rId300" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{6D1BC77E-948B-4992-9AD2-9B9D4B660C57}"/>
+    <hyperlink ref="N65" r:id="rId301" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{1211839D-0990-496C-89BD-F9F1831957EC}"/>
+    <hyperlink ref="B65" r:id="rId302" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{431424FA-899A-414D-8EF1-096C43C13A86}"/>
+    <hyperlink ref="N64" r:id="rId303" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{DA56EE79-E869-4EB0-B6E6-DE59BFBB2AF4}"/>
+    <hyperlink ref="B64" r:id="rId304" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{5E3FC2E2-B95B-4C1B-A5BA-D2EADB8652F9}"/>
+    <hyperlink ref="N63" r:id="rId305" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{CC8849CD-E8C2-4EB0-BCDF-D25C8186B9BB}"/>
+    <hyperlink ref="B63" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{7BC91014-CFED-451E-A5C6-5B13E0B592C4}"/>
+    <hyperlink ref="N62" r:id="rId307" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{AEFA0891-E863-4A67-89ED-7C7D7F49028A}"/>
+    <hyperlink ref="B62" r:id="rId308" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{5034A04F-D9DC-4F76-B319-594FDA1104ED}"/>
+    <hyperlink ref="N61" r:id="rId309" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{9E7ABF43-D18A-4B46-ADF3-6400BF49CAAC}"/>
+    <hyperlink ref="B61" r:id="rId310" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{028EA16A-2E65-485B-9F75-2C9A705D96B0}"/>
+    <hyperlink ref="N60" r:id="rId311" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{67BA5EE5-C299-4962-8CE4-62679C49BCAD}"/>
+    <hyperlink ref="B60" r:id="rId312" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{4436447F-62B3-40A0-8F06-FC4259CBD2B8}"/>
+    <hyperlink ref="N59" r:id="rId313" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{B1A2F607-661A-4D22-A458-148EBAA2C55A}"/>
+    <hyperlink ref="B59" r:id="rId314" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{636CF292-864D-40AB-A80A-2BF7BBEDB8BB}"/>
+    <hyperlink ref="N58" r:id="rId315" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{59EECF15-2590-4958-BF6D-F63E7AC9EBF9}"/>
+    <hyperlink ref="B58" r:id="rId316" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{37AC4507-601D-4FD0-9A74-61F1BC75850E}"/>
+    <hyperlink ref="N57" r:id="rId317" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{5E52B5B8-9C5F-4FF1-98B4-A74B9F488D86}"/>
+    <hyperlink ref="B57" r:id="rId318" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{80675B6A-B70C-4637-991D-CBAC32A8A85F}"/>
+    <hyperlink ref="N56" r:id="rId319" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{6A08F4EC-CDC2-4EC1-B9CD-06E9DF5FA856}"/>
+    <hyperlink ref="B56" r:id="rId320" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{8A926E6A-6756-4EB8-89C0-36037C437028}"/>
+    <hyperlink ref="N55" r:id="rId321" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{5518318E-19A2-4DD0-909C-C48BA141827C}"/>
+    <hyperlink ref="B55" r:id="rId322" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{27773E99-BDC3-4320-B0D9-708DEA7770FC}"/>
+    <hyperlink ref="N54" r:id="rId323" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{A4822884-0311-4167-83CD-4893CC1B0935}"/>
+    <hyperlink ref="B54" r:id="rId324" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{53FA32D5-00C9-4918-BE7B-7996D833F185}"/>
+    <hyperlink ref="N53" r:id="rId325" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{B60B111C-2A2C-49AF-9E85-C82672962882}"/>
+    <hyperlink ref="B53" r:id="rId326" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{7A4E0846-3AE3-47F1-B024-A3972753EF61}"/>
+    <hyperlink ref="N52" r:id="rId327" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{22E3E674-D3D0-4810-B0DC-03117338FB2C}"/>
+    <hyperlink ref="B52" r:id="rId328" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{118C437B-A065-4B89-8E64-05619F56AD89}"/>
+    <hyperlink ref="N51" r:id="rId329" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{A41F6EC2-F193-4B93-ACD6-080ABFB90415}"/>
+    <hyperlink ref="B51" r:id="rId330" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{4F281397-BF2B-4AC4-92F4-EAA06E6C0EAF}"/>
+    <hyperlink ref="N50" r:id="rId331" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{3AF01887-B476-44B2-93F2-24DE9AE1B6E7}"/>
+    <hyperlink ref="B50" r:id="rId332" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{4AE579D9-9283-4791-A2AC-96265CD0BF13}"/>
+    <hyperlink ref="N49" r:id="rId333" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{927FC421-60D1-4FAA-8D14-6848046E45BE}"/>
+    <hyperlink ref="B49" r:id="rId334" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{F6E6D7E4-23EA-4CFD-B1EE-16A827BF9F8C}"/>
+    <hyperlink ref="N48" r:id="rId335" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{439B7806-3BCC-44D1-AD4C-7B9B1112A23E}"/>
+    <hyperlink ref="B48" r:id="rId336" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{EE413F25-1E4D-42AA-8FC0-D1017FAA4BFD}"/>
+    <hyperlink ref="N47" r:id="rId337" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{7C296434-360E-4DCB-957E-52932FEEFF6D}"/>
+    <hyperlink ref="B47" r:id="rId338" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{9015747D-2CE1-4526-8CFA-B913F035488E}"/>
+    <hyperlink ref="N46" r:id="rId339" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{B82F7272-BAE0-409A-9F12-3FD230E74B76}"/>
+    <hyperlink ref="B46" r:id="rId340" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{A8904A51-2FE9-416A-9DCA-76E0DCA007AF}"/>
+    <hyperlink ref="N45" r:id="rId341" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{D2ADBAA8-53CE-4433-8D0E-9F537D6F9697}"/>
+    <hyperlink ref="B45" r:id="rId342" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{37E390C2-372C-44AA-80F9-6DD770E4A567}"/>
+    <hyperlink ref="N44" r:id="rId343" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{2313DCC7-1D36-4795-A1B3-A43F2FC40EF8}"/>
+    <hyperlink ref="B44" r:id="rId344" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{B09F1861-2E8D-4637-9AA0-85DC2D85870A}"/>
+    <hyperlink ref="N43" r:id="rId345" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{D65D2EE2-F911-4FCE-A803-CD5D0E8956DC}"/>
+    <hyperlink ref="B43" r:id="rId346" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{2CED9FDD-498F-4A3E-AE57-A15EA8DC685A}"/>
+    <hyperlink ref="N42" r:id="rId347" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{C7A40CF2-84D5-4BE9-B756-D4D57100C557}"/>
+    <hyperlink ref="B42" r:id="rId348" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{562426ED-D5EF-4856-92AF-E66A628EED7E}"/>
+    <hyperlink ref="N41" r:id="rId349" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{0EBCFF40-7555-48F9-9AD6-07EFCA062773}"/>
+    <hyperlink ref="B41" r:id="rId350" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{D31D8D3E-64FD-492B-A84A-2F8CDBB9E3D0}"/>
+    <hyperlink ref="N40" r:id="rId351" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{655C9882-3539-4701-ACA8-44522AD5B494}"/>
+    <hyperlink ref="B40" r:id="rId352" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{213A50BC-709F-47CC-883A-5938DE3008A2}"/>
+    <hyperlink ref="N39" r:id="rId353" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{8D096D4A-D327-43C3-92DC-CB232E97223A}"/>
+    <hyperlink ref="B39" r:id="rId354" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{9957DBE2-ADEA-443B-9B3F-822E83BEC192}"/>
+    <hyperlink ref="N38" r:id="rId355" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{AB18BD1C-7415-4ADA-849D-AD1BD4C1FD71}"/>
+    <hyperlink ref="B38" r:id="rId356" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{1A68CF80-45F6-41F1-90B6-36A2404BD5C5}"/>
+    <hyperlink ref="N37" r:id="rId357" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{3CB42FC7-BFBA-4C95-820B-CDD668DBD8D0}"/>
+    <hyperlink ref="B37" r:id="rId358" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{DD94ECF7-A4DA-4B2E-B1E4-97D71B662977}"/>
+    <hyperlink ref="N36" r:id="rId359" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{2305714D-2127-42C4-A226-FBAF6E0CD334}"/>
+    <hyperlink ref="B36" r:id="rId360" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{D6AFB624-7A3B-41FA-8413-2207B8FFD029}"/>
+    <hyperlink ref="N35" r:id="rId361" display="https://www.worldometers.info/world-population/israel-population/" xr:uid="{4AD27984-B1EB-4CDF-9283-80F16F8C915C}"/>
+    <hyperlink ref="B35" r:id="rId362" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{C3E2F096-36AC-474B-876C-BB60E55204F2}"/>
+    <hyperlink ref="N34" r:id="rId363" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{CF37D625-75EA-423D-B760-F24E2E40F456}"/>
+    <hyperlink ref="B34" r:id="rId364" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{6C0E5A1B-3B04-4ECA-89D5-CA3E1DD8E706}"/>
+    <hyperlink ref="N33" r:id="rId365" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{BC191A1B-D258-47F1-BAA8-35C3D208D058}"/>
+    <hyperlink ref="B33" r:id="rId366" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{EBA32A9E-EBB6-409D-BCE2-C31E36A61E04}"/>
+    <hyperlink ref="N32" r:id="rId367" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{993F40DE-7F82-4CF6-AF2F-3D296E2148A1}"/>
+    <hyperlink ref="B32" r:id="rId368" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{A60B292B-F0AD-4B87-AFF1-49DD5021DC68}"/>
+    <hyperlink ref="N31" r:id="rId369" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{9F469778-41CD-45CB-9B65-AB4A46D8F908}"/>
+    <hyperlink ref="B31" r:id="rId370" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{B392C44F-EA83-4E47-9ED6-47E697C8DD9B}"/>
+    <hyperlink ref="N30" r:id="rId371" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{65F17414-2734-4DDA-B2C2-FF6568E7C26C}"/>
+    <hyperlink ref="B30" r:id="rId372" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{28E006D2-1C6D-48E0-B54D-6B7B25144FD2}"/>
+    <hyperlink ref="N29" r:id="rId373" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{22E7E010-C999-4AA9-848D-AC458080679F}"/>
+    <hyperlink ref="B29" r:id="rId374" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{6B3DCA67-41F1-4BC7-B5D0-57C26CB8257E}"/>
+    <hyperlink ref="N28" r:id="rId375" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{6066BE44-927E-435E-AE67-5BBD798579A2}"/>
+    <hyperlink ref="B28" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{A583B931-3455-4647-BEB9-F47B9953CFBC}"/>
+    <hyperlink ref="N27" r:id="rId377" display="https://www.worldometers.info/world-population/qatar-population/" xr:uid="{BB5BCCF5-0867-45D1-8A6B-5F0F00AB3C69}"/>
+    <hyperlink ref="B27" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{86C616D8-03FB-4D21-9EEB-E0913940AF6F}"/>
+    <hyperlink ref="N26" r:id="rId379" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{1C31D426-512E-44E1-BCDB-9761A9F7FCA7}"/>
+    <hyperlink ref="B26" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{C1CE3B0C-35D9-49CA-9ED3-6442695ED350}"/>
+    <hyperlink ref="N25" r:id="rId381" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{EAD6A328-02FD-4EFF-B8F4-339AF0029DE6}"/>
+    <hyperlink ref="B25" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{A7F5295E-2890-4DEF-8AD8-7EC3C64DEFC8}"/>
+    <hyperlink ref="N24" r:id="rId383" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{CD832A2A-79B8-47BC-BC37-8A7288DB5A59}"/>
+    <hyperlink ref="B24" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{ADA65136-3934-433F-A566-DD01F0AAB91E}"/>
+    <hyperlink ref="N23" r:id="rId385" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{2F8C977D-AD74-406D-9202-8EFE287F710E}"/>
+    <hyperlink ref="B23" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{28F1D791-A810-45F9-B607-BAEF6A7F2DB0}"/>
+    <hyperlink ref="N22" r:id="rId387" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{5B234DE8-B9F1-4AF3-8871-8456DF5BDA8C}"/>
+    <hyperlink ref="B22" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{8E9497FB-9DD2-40CA-B9BE-902981EB93E1}"/>
+    <hyperlink ref="N21" r:id="rId389" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{DD5AA775-EA5F-4285-B568-F9BE1C68B3E2}"/>
+    <hyperlink ref="B21" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{FF72035C-67CC-467B-8A98-B9F4495F105F}"/>
+    <hyperlink ref="N20" r:id="rId391" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{0863F3D3-D6B6-4D60-A921-CA2E4562592C}"/>
+    <hyperlink ref="B20" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{AAC29302-EC2D-4DC7-B492-1AA354ED7D37}"/>
+    <hyperlink ref="N19" r:id="rId393" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{8667C7A9-D069-4619-94E7-881FA83D6DA1}"/>
+    <hyperlink ref="B19" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{7238A033-0C8E-4DF7-B170-E2AF1A09EF75}"/>
+    <hyperlink ref="N18" r:id="rId395" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{5B0E747D-3736-4E14-837E-9F09488059C5}"/>
+    <hyperlink ref="B18" r:id="rId396" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{C5D8AD6D-13C1-4710-BDBE-DB076C87349F}"/>
+    <hyperlink ref="N17" r:id="rId397" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{19E7AF65-1888-44FE-8191-CB26AD5585A1}"/>
+    <hyperlink ref="B17" r:id="rId398" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{9D7A66CC-47EB-4CA3-9A35-FEE966376872}"/>
+    <hyperlink ref="N16" r:id="rId399" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{A5A95D3E-2FE6-4092-821E-6010FBA2FF62}"/>
+    <hyperlink ref="B16" r:id="rId400" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{EC448B8C-0E24-4436-9010-09D6116732B2}"/>
+    <hyperlink ref="N15" r:id="rId401" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{EC9E6B33-B1F2-449E-80F1-A5CEA11990E2}"/>
+    <hyperlink ref="B15" r:id="rId402" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{037E60B5-8131-4ED0-B0AE-A0043CA77B0D}"/>
+    <hyperlink ref="N14" r:id="rId403" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{5081962A-A900-4CD9-B4E1-6D17EED16CD5}"/>
+    <hyperlink ref="B14" r:id="rId404" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{B6D6D225-1E1F-4DDC-8050-66DC384067B8}"/>
+    <hyperlink ref="N13" r:id="rId405" display="https://www.worldometers.info/world-population/china-population/" xr:uid="{C7FCA9D9-1441-4CBE-B82A-A2367D9E04E2}"/>
+    <hyperlink ref="B13" r:id="rId406" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{B69C9A84-306C-49F0-BB43-D373D6CDE02B}"/>
+    <hyperlink ref="N12" r:id="rId407" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{1810D27A-A376-4742-B856-F969991960C5}"/>
+    <hyperlink ref="B12" r:id="rId408" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{D67A141A-4961-45F7-B1E6-891C69E4C57A}"/>
+    <hyperlink ref="N11" r:id="rId409" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{B96B394C-3543-4BDE-B650-FD70293C9DB0}"/>
+    <hyperlink ref="B11" r:id="rId410" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{D0597DDC-F82B-4AD8-ADA4-12CF6876FA11}"/>
+    <hyperlink ref="N10" r:id="rId411" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{F6589005-DE34-4D82-B67E-77BF4C801816}"/>
+    <hyperlink ref="B10" r:id="rId412" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{668ACE96-CC8F-41D2-8906-CD0FCF4C24CA}"/>
+    <hyperlink ref="N9" r:id="rId413" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{461E499F-8133-4DE8-AE95-826605C5229E}"/>
+    <hyperlink ref="B9" r:id="rId414" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{A7204496-915B-4C40-BD9C-FA45AF864848}"/>
+    <hyperlink ref="N8" r:id="rId415" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{BC63EF94-6A1E-4618-A743-1042F9EFC4B5}"/>
+    <hyperlink ref="B8" r:id="rId416" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{7511BFDA-DCDD-4305-BDE2-05E397A318DF}"/>
+    <hyperlink ref="N7" r:id="rId417" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{510ECDF2-8499-4253-A97A-9E0A28B05215}"/>
+    <hyperlink ref="B7" r:id="rId418" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C0B55CED-23B2-4D39-B2DD-0FA4AA52B5A3}"/>
+    <hyperlink ref="N6" r:id="rId419" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{5316A2BC-17BD-4A65-B635-6C0FFF881BF2}"/>
+    <hyperlink ref="B6" r:id="rId420" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{0EF94E3B-624D-4BD5-A62B-92BCC810E706}"/>
+    <hyperlink ref="N5" r:id="rId421" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{7D9F3989-D528-4B68-9CBB-4BC533414E55}"/>
+    <hyperlink ref="B5" r:id="rId422" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{3A5A8062-BAEC-4C0D-9C3B-9DB31B96FE1B}"/>
+    <hyperlink ref="N4" r:id="rId423" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{DB55D9D5-B993-435C-816C-66026BE9001C}"/>
+    <hyperlink ref="B4" r:id="rId424" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{D6389D63-37C9-4557-A1D6-E2CA1DABF213}"/>
+    <hyperlink ref="N3" r:id="rId425" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{56FB9EF8-0C85-423D-A930-86B52752673A}"/>
+    <hyperlink ref="B3" r:id="rId426" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{AED44D47-86B1-4DD3-8A67-1AEEABEDB7AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId427"/>
@@ -10223,7 +10224,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:N217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10367,11 +10368,11 @@
         <v>330753490</v>
       </c>
       <c r="P3" s="12">
-        <f>IFERROR(B3/K3,0)</f>
+        <f t="shared" ref="P3:P66" si="0">IFERROR(B3/K3,0)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="12">
-        <f>IFERROR(J3/I3,0)</f>
+        <f t="shared" ref="Q3:Q66" si="1">IFERROR(J3/I3,0)</f>
         <v>0.27136699507389161</v>
       </c>
     </row>
@@ -10419,11 +10420,11 @@
         <v>46752506</v>
       </c>
       <c r="P4" s="12">
-        <f>IFERROR(B4/K4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="12">
-        <f>IFERROR(J4/I4,0)</f>
+        <f t="shared" si="1"/>
         <v>4.2645348837209305</v>
       </c>
     </row>
@@ -10471,11 +10472,11 @@
         <v>145926611</v>
       </c>
       <c r="P5" s="12">
-        <f>IFERROR(B5/K5,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="12">
-        <f>IFERROR(J5/I5,0)</f>
+        <f t="shared" si="1"/>
         <v>0.78304347826086962</v>
       </c>
     </row>
@@ -10519,11 +10520,11 @@
         <v>67840351</v>
       </c>
       <c r="P6" s="12">
-        <f>IFERROR(B6/K6,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6" s="12">
-        <f>IFERROR(J6/I6,0)</f>
+        <f t="shared" si="1"/>
         <v>2.2046183450930084</v>
       </c>
     </row>
@@ -10567,11 +10568,11 @@
         <v>60472892</v>
       </c>
       <c r="P7" s="12">
-        <f>IFERROR(B7/K7,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7" s="12">
-        <f>IFERROR(J7/I7,0)</f>
+        <f t="shared" si="1"/>
         <v>4.3146198830409359</v>
       </c>
     </row>
@@ -10619,11 +10620,11 @@
         <v>212364444</v>
       </c>
       <c r="P8" s="12">
-        <f>IFERROR(B8/K8,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q8" s="12">
-        <f>IFERROR(J8/I8,0)</f>
+        <f t="shared" si="1"/>
         <v>0.115051695119019</v>
       </c>
     </row>
@@ -10667,11 +10668,11 @@
         <v>65255252</v>
       </c>
       <c r="P9" s="12">
-        <f>IFERROR(B9/K9,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q9" s="12">
-        <f>IFERROR(J9/I9,0)</f>
+        <f t="shared" si="1"/>
         <v>1.192257503262288</v>
       </c>
     </row>
@@ -10715,11 +10716,11 @@
         <v>83749935</v>
       </c>
       <c r="P10" s="12">
-        <f>IFERROR(B10/K10,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10" s="12">
-        <f>IFERROR(J10/I10,0)</f>
+        <f t="shared" si="1"/>
         <v>1.5718585402558314</v>
       </c>
     </row>
@@ -10763,11 +10764,11 @@
         <v>84220162</v>
       </c>
       <c r="P11" s="15">
-        <f>IFERROR(B11/K11,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q11" s="12">
-        <f>IFERROR(J11/I11,0)</f>
+        <f t="shared" si="1"/>
         <v>1.7850467289719627</v>
       </c>
     </row>
@@ -10811,11 +10812,11 @@
         <v>83850893</v>
       </c>
       <c r="P12" s="12">
-        <f>IFERROR(B12/K12,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12" s="12">
-        <f>IFERROR(J12/I12,0)</f>
+        <f t="shared" si="1"/>
         <v>0.49528643944887601</v>
       </c>
     </row>
@@ -10857,11 +10858,11 @@
         <v>1439323776</v>
       </c>
       <c r="P13" s="12">
-        <f>IFERROR(B13/K13,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="12">
-        <f>IFERROR(J13/I13,0)</f>
+        <f t="shared" si="1"/>
         <v>5.2727272727272725</v>
       </c>
     </row>
@@ -10905,11 +10906,11 @@
         <v>1378233611</v>
       </c>
       <c r="P14" s="12">
-        <f>IFERROR(B14/K14,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14" s="12">
-        <f>IFERROR(J14/I14,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10953,11 +10954,11 @@
         <v>32910878</v>
       </c>
       <c r="P15" s="12">
-        <f>IFERROR(B15/K15,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q15" s="12">
-        <f>IFERROR(J15/I15,0)</f>
+        <f t="shared" si="1"/>
         <v>2.9085510688836105</v>
       </c>
     </row>
@@ -11001,11 +11002,11 @@
         <v>37699156</v>
       </c>
       <c r="P16" s="12">
-        <f>IFERROR(B16/K16,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16" s="12">
-        <f>IFERROR(J16/I16,0)</f>
+        <f t="shared" si="1"/>
         <v>3.8784860557768925</v>
       </c>
     </row>
@@ -11053,11 +11054,11 @@
         <v>11583189</v>
       </c>
       <c r="P17" s="12">
-        <f>IFERROR(B17/K17,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q17" s="12">
-        <f>IFERROR(J17/I17,0)</f>
+        <f t="shared" si="1"/>
         <v>12.41578947368421</v>
       </c>
     </row>
@@ -11101,11 +11102,11 @@
         <v>34741400</v>
       </c>
       <c r="P18" s="12">
-        <f>IFERROR(B18/K18,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q18" s="12">
-        <f>IFERROR(J18/I18,0)</f>
+        <f t="shared" si="1"/>
         <v>8.6474358974358978</v>
       </c>
     </row>
@@ -11149,11 +11150,11 @@
         <v>17130079</v>
       </c>
       <c r="P19" s="15">
-        <f>IFERROR(B19/K19,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q19" s="12">
-        <f>IFERROR(J19/I19,0)</f>
+        <f t="shared" si="1"/>
         <v>6.1902439024390246</v>
       </c>
     </row>
@@ -11201,11 +11202,11 @@
         <v>128755457</v>
       </c>
       <c r="P20" s="12">
-        <f>IFERROR(B20/K20,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q20" s="12">
-        <f>IFERROR(J20/I20,0)</f>
+        <f t="shared" si="1"/>
         <v>0.8756613756613757</v>
       </c>
     </row>
@@ -11253,11 +11254,11 @@
         <v>220309834</v>
       </c>
       <c r="P21" s="12">
-        <f>IFERROR(B21/K21,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q21" s="12">
-        <f>IFERROR(J21/I21,0)</f>
+        <f t="shared" si="1"/>
         <v>1.5225225225225225</v>
       </c>
     </row>
@@ -11301,11 +11302,11 @@
         <v>19094896</v>
       </c>
       <c r="P22" s="12">
-        <f>IFERROR(B22/K22,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q22" s="12">
-        <f>IFERROR(J22/I22,0)</f>
+        <f t="shared" si="1"/>
         <v>2.9260935143288083</v>
       </c>
     </row>
@@ -11353,11 +11354,11 @@
         <v>8646448</v>
       </c>
       <c r="P23" s="12">
-        <f>IFERROR(B23/K23,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q23" s="12">
-        <f>IFERROR(J23/I23,0)</f>
+        <f t="shared" si="1"/>
         <v>51.144927536231883</v>
       </c>
     </row>
@@ -11401,11 +11402,11 @@
         <v>17607301</v>
       </c>
       <c r="P24" s="12">
-        <f>IFERROR(B24/K24,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q24" s="12">
-        <f>IFERROR(J24/I24,0)</f>
+        <f t="shared" si="1"/>
         <v>8.8367346938775508</v>
       </c>
     </row>
@@ -11449,11 +11450,11 @@
         <v>10091169</v>
       </c>
       <c r="P25" s="12">
-        <f>IFERROR(B25/K25,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q25" s="12">
-        <f>IFERROR(J25/I25,0)</f>
+        <f t="shared" si="1"/>
         <v>8.0683760683760681</v>
       </c>
     </row>
@@ -11497,11 +11498,11 @@
         <v>10200387</v>
       </c>
       <c r="P26" s="12">
-        <f>IFERROR(B26/K26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q26" s="12">
-        <f>IFERROR(J26/I26,0)</f>
+        <f t="shared" si="1"/>
         <v>25.703703703703702</v>
       </c>
     </row>
@@ -11545,11 +11546,11 @@
         <v>2874514</v>
       </c>
       <c r="P27" s="12">
-        <f>IFERROR(B27/K27,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q27" s="12">
-        <f>IFERROR(J27/I27,0)</f>
+        <f t="shared" si="1"/>
         <v>136.59722222222223</v>
       </c>
     </row>
@@ -11595,11 +11596,11 @@
         <v>5844386</v>
       </c>
       <c r="P28" s="12">
-        <f>IFERROR(B28/K28,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q28" s="12">
-        <f>IFERROR(J28/I28,0)</f>
+        <f t="shared" si="1"/>
         <v>230.05</v>
       </c>
     </row>
@@ -11643,11 +11644,11 @@
         <v>9449712</v>
       </c>
       <c r="P29" s="12">
-        <f>IFERROR(B29/K29,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q29" s="12">
-        <f>IFERROR(J29/I29,0)</f>
+        <f t="shared" si="1"/>
         <v>30.793478260869566</v>
       </c>
     </row>
@@ -11691,11 +11692,11 @@
         <v>4930547</v>
       </c>
       <c r="P30" s="12">
-        <f>IFERROR(B30/K30,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q30" s="12">
-        <f>IFERROR(J30/I30,0)</f>
+        <f t="shared" si="1"/>
         <v>70.043478260869563</v>
       </c>
     </row>
@@ -11739,11 +11740,11 @@
         <v>9874659</v>
       </c>
       <c r="P31" s="12">
-        <f>IFERROR(B31/K31,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q31" s="12">
-        <f>IFERROR(J31/I31,0)</f>
+        <f t="shared" si="1"/>
         <v>2135</v>
       </c>
     </row>
@@ -11791,11 +11792,11 @@
         <v>164475123</v>
       </c>
       <c r="P32" s="12">
-        <f>IFERROR(B32/K32,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q32" s="12">
-        <f>IFERROR(J32/I32,0)</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
@@ -11843,11 +11844,11 @@
         <v>37851778</v>
       </c>
       <c r="P33" s="12">
-        <f>IFERROR(B33/K33,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q33" s="12">
-        <f>IFERROR(J33/I33,0)</f>
+        <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
     </row>
@@ -11895,11 +11896,11 @@
         <v>43765842</v>
       </c>
       <c r="P34" s="12">
-        <f>IFERROR(B34/K34,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q34" s="12">
-        <f>IFERROR(J34/I34,0)</f>
+        <f t="shared" si="1"/>
         <v>1.76</v>
       </c>
     </row>
@@ -11947,11 +11948,11 @@
         <v>8637437</v>
       </c>
       <c r="P35" s="12">
-        <f>IFERROR(B35/K35,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q35" s="12">
-        <f>IFERROR(J35/I35,0)</f>
+        <f t="shared" si="1"/>
         <v>32.016666666666666</v>
       </c>
     </row>
@@ -11997,11 +11998,11 @@
         <v>273144953</v>
       </c>
       <c r="P36" s="15">
-        <f>IFERROR(B36/K36,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q36" s="12">
-        <f>IFERROR(J36/I36,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12049,11 +12050,11 @@
         <v>19253316</v>
       </c>
       <c r="P37" s="15">
-        <f>IFERROR(B37/K37,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q37" s="12">
-        <f>IFERROR(J37/I37,0)</f>
+        <f t="shared" si="1"/>
         <v>3.8995433789954337</v>
       </c>
     </row>
@@ -12097,11 +12098,11 @@
         <v>126524328</v>
       </c>
       <c r="P38" s="12">
-        <f>IFERROR(B38/K38,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q38" s="12">
-        <f>IFERROR(J38/I38,0)</f>
+        <f t="shared" si="1"/>
         <v>0.49034749034749037</v>
       </c>
     </row>
@@ -12149,11 +12150,11 @@
         <v>8999806</v>
       </c>
       <c r="P39" s="12">
-        <f>IFERROR(B39/K39,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q39" s="12">
-        <f>IFERROR(J39/I39,0)</f>
+        <f t="shared" si="1"/>
         <v>38.085106382978722</v>
       </c>
     </row>
@@ -12197,11 +12198,11 @@
         <v>50811863</v>
       </c>
       <c r="P40" s="12">
-        <f>IFERROR(B40/K40,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q40" s="12">
-        <f>IFERROR(J40/I40,0)</f>
+        <f t="shared" si="1"/>
         <v>1.9562043795620438</v>
       </c>
     </row>
@@ -12245,11 +12246,11 @@
         <v>59209961</v>
       </c>
       <c r="P41" s="12">
-        <f>IFERROR(B41/K41,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q41" s="12">
-        <f>IFERROR(J41/I41,0)</f>
+        <f t="shared" si="1"/>
         <v>1.8067226890756303</v>
       </c>
     </row>
@@ -12297,11 +12298,11 @@
         <v>109387948</v>
       </c>
       <c r="P42" s="12">
-        <f>IFERROR(B42/K42,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q42" s="12">
-        <f>IFERROR(J42/I42,0)</f>
+        <f t="shared" si="1"/>
         <v>1.4415584415584415</v>
       </c>
     </row>
@@ -12345,15 +12346,15 @@
         <v>4262156</v>
       </c>
       <c r="P43" s="12">
-        <f>IFERROR(B43/K43,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q43" s="12">
-        <f>IFERROR(J43/I43,0)</f>
+        <f t="shared" si="1"/>
         <v>16.057142857142857</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="28">
         <v>42</v>
       </c>
@@ -12393,11 +12394,11 @@
         <v>10833701</v>
       </c>
       <c r="P44" s="15">
-        <f>IFERROR(B44/K44,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q44" s="12">
-        <f>IFERROR(J44/I44,0)</f>
+        <f t="shared" si="1"/>
         <v>7.9770992366412212</v>
       </c>
     </row>
@@ -12443,11 +12444,11 @@
         <v>51263639</v>
       </c>
       <c r="P45" s="12">
-        <f>IFERROR(B45/K45,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q45" s="12">
-        <f>IFERROR(J45/I45,0)</f>
+        <f t="shared" si="1"/>
         <v>3.9090909090909092</v>
       </c>
     </row>
@@ -12491,11 +12492,11 @@
         <v>102072877</v>
       </c>
       <c r="P46" s="12">
-        <f>IFERROR(B46/K46,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q46" s="12">
-        <f>IFERROR(J46/I46,0)</f>
+        <f t="shared" si="1"/>
         <v>2.5853658536585367</v>
       </c>
     </row>
@@ -12541,11 +12542,11 @@
         <v>5789609</v>
       </c>
       <c r="P47" s="12">
-        <f>IFERROR(B47/K47,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q47" s="12">
-        <f>IFERROR(J47/I47,0)</f>
+        <f t="shared" si="1"/>
         <v>53.25714285714286</v>
       </c>
     </row>
@@ -12589,11 +12590,11 @@
         <v>8741704</v>
       </c>
       <c r="P48" s="12">
-        <f>IFERROR(B48/K48,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q48" s="12">
-        <f>IFERROR(J48/I48,0)</f>
+        <f t="shared" si="1"/>
         <v>53.954545454545453</v>
       </c>
     </row>
@@ -12641,11 +12642,11 @@
         <v>4305682</v>
       </c>
       <c r="P49" s="12">
-        <f>IFERROR(B49/K49,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q49" s="12">
-        <f>IFERROR(J49/I49,0)</f>
+        <f t="shared" si="1"/>
         <v>29.416666666666668</v>
       </c>
     </row>
@@ -12691,11 +12692,11 @@
         <v>10706473</v>
       </c>
       <c r="P50" s="12">
-        <f>IFERROR(B50/K50,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q50" s="12">
-        <f>IFERROR(J50/I50,0)</f>
+        <f t="shared" si="1"/>
         <v>21.081081081081081</v>
       </c>
     </row>
@@ -12739,11 +12740,11 @@
         <v>5415755</v>
       </c>
       <c r="P51" s="12">
-        <f>IFERROR(B51/K51,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q51" s="12">
-        <f>IFERROR(J51/I51,0)</f>
+        <f t="shared" si="1"/>
         <v>65.782608695652172</v>
       </c>
     </row>
@@ -12787,11 +12788,11 @@
         <v>45141794</v>
       </c>
       <c r="P52" s="12">
-        <f>IFERROR(B52/K52,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q52" s="12">
-        <f>IFERROR(J52/I52,0)</f>
+        <f t="shared" si="1"/>
         <v>0.92941176470588238</v>
       </c>
     </row>
@@ -12837,11 +12838,11 @@
         <v>25460983</v>
       </c>
       <c r="P53" s="12">
-        <f>IFERROR(B53/K53,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q53" s="12">
-        <f>IFERROR(J53/I53,0)</f>
+        <f t="shared" si="1"/>
         <v>16.235294117647058</v>
       </c>
     </row>
@@ -12887,11 +12888,11 @@
         <v>32311201</v>
       </c>
       <c r="P54" s="12">
-        <f>IFERROR(B54/K54,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q54" s="12">
-        <f>IFERROR(J54/I54,0)</f>
+        <f t="shared" si="1"/>
         <v>15.142857142857142</v>
       </c>
     </row>
@@ -12937,11 +12938,11 @@
         <v>36852978</v>
       </c>
       <c r="P55" s="12">
-        <f>IFERROR(B55/K55,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q55" s="12">
-        <f>IFERROR(J55/I55,0)</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
@@ -12985,11 +12986,11 @@
         <v>43744108</v>
       </c>
       <c r="P56" s="12">
-        <f>IFERROR(B56/K56,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q56" s="12">
-        <f>IFERROR(J56/I56,0)</f>
+        <f t="shared" si="1"/>
         <v>6.6818181818181817</v>
       </c>
     </row>
@@ -13035,11 +13036,11 @@
         <v>5539635</v>
       </c>
       <c r="P57" s="12">
-        <f>IFERROR(B57/K57,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q57" s="12">
-        <f>IFERROR(J57/I57,0)</f>
+        <f t="shared" si="1"/>
         <v>34.060606060606062</v>
       </c>
     </row>
@@ -13083,11 +13084,11 @@
         <v>1693017</v>
       </c>
       <c r="P58" s="12">
-        <f>IFERROR(B58/K58,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q58" s="12">
-        <f>IFERROR(J58/I58,0)</f>
+        <f t="shared" si="1"/>
         <v>915.25</v>
       </c>
     </row>
@@ -13135,11 +13136,11 @@
         <v>38807744</v>
       </c>
       <c r="P59" s="12">
-        <f>IFERROR(B59/K59,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q59" s="12">
-        <f>IFERROR(J59/I59,0)</f>
+        <f t="shared" si="1"/>
         <v>22.285714285714285</v>
       </c>
     </row>
@@ -13187,11 +13188,11 @@
         <v>18747133</v>
       </c>
       <c r="P60" s="12">
-        <f>IFERROR(B60/K60,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q60" s="12">
-        <f>IFERROR(J60/I60,0)</f>
+        <f t="shared" si="1"/>
         <v>9.7741935483870961</v>
       </c>
     </row>
@@ -13235,11 +13236,11 @@
         <v>4035126</v>
       </c>
       <c r="P61" s="12">
-        <f>IFERROR(B61/K61,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q61" s="12">
-        <f>IFERROR(J61/I61,0)</f>
+        <f t="shared" si="1"/>
         <v>5.4820717131474099</v>
       </c>
     </row>
@@ -13283,11 +13284,11 @@
         <v>30984320</v>
       </c>
       <c r="P62" s="12">
-        <f>IFERROR(B62/K62,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q62" s="12">
-        <f>IFERROR(J62/I62,0)</f>
+        <f t="shared" si="1"/>
         <v>35.6</v>
       </c>
     </row>
@@ -13331,11 +13332,11 @@
         <v>205430154</v>
       </c>
       <c r="P63" s="12">
-        <f>IFERROR(B63/K63,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q63" s="12">
-        <f>IFERROR(J63/I63,0)</f>
+        <f t="shared" si="1"/>
         <v>3.5714285714285716</v>
       </c>
     </row>
@@ -13383,11 +13384,11 @@
         <v>5088544</v>
       </c>
       <c r="P64" s="12">
-        <f>IFERROR(B64/K64,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q64" s="12">
-        <f>IFERROR(J64/I64,0)</f>
+        <f t="shared" si="1"/>
         <v>29.322580645161292</v>
       </c>
     </row>
@@ -13435,11 +13436,11 @@
         <v>2962544</v>
       </c>
       <c r="P65" s="12">
-        <f>IFERROR(B65/K65,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q65" s="12">
-        <f>IFERROR(J65/I65,0)</f>
+        <f t="shared" si="1"/>
         <v>136.5</v>
       </c>
     </row>
@@ -13483,11 +13484,11 @@
         <v>624613</v>
       </c>
       <c r="P66" s="12">
-        <f>IFERROR(B66/K66,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q66" s="12">
-        <f>IFERROR(J66/I66,0)</f>
+        <f t="shared" si="1"/>
         <v>569.81818181818187</v>
       </c>
     </row>
@@ -13535,11 +13536,11 @@
         <v>9663390</v>
       </c>
       <c r="P67" s="12">
-        <f>IFERROR(B67/K67,0)</f>
+        <f t="shared" ref="P67:P130" si="2">IFERROR(B67/K67,0)</f>
         <v>0</v>
       </c>
       <c r="Q67" s="12">
-        <f>IFERROR(J67/I67,0)</f>
+        <f t="shared" ref="Q67:Q130" si="3">IFERROR(J67/I67,0)</f>
         <v>7.6956521739130439</v>
       </c>
     </row>
@@ -13587,11 +13588,11 @@
         <v>11651907</v>
       </c>
       <c r="P68" s="12">
-        <f>IFERROR(B68/K68,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q68" s="12">
-        <f>IFERROR(J68/I68,0)</f>
+        <f t="shared" si="3"/>
         <v>96.333333333333329</v>
       </c>
     </row>
@@ -13633,11 +13634,11 @@
         <v>40098372</v>
       </c>
       <c r="P69" s="15">
-        <f>IFERROR(B69/K69,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q69" s="12">
-        <f>IFERROR(J69/I69,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13683,11 +13684,11 @@
         <v>69777809</v>
       </c>
       <c r="P70" s="12">
-        <f>IFERROR(B70/K70,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q70" s="12">
-        <f>IFERROR(J70/I70,0)</f>
+        <f t="shared" si="3"/>
         <v>0.70491803278688525</v>
       </c>
     </row>
@@ -13727,11 +13728,11 @@
         <v>26454069</v>
       </c>
       <c r="P71" s="15">
-        <f>IFERROR(B71/K71,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q71" s="12">
-        <f>IFERROR(J71/I71,0)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -13775,11 +13776,11 @@
         <v>10127290</v>
       </c>
       <c r="P72" s="15">
-        <f>IFERROR(B72/K72,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q72" s="12">
-        <f>IFERROR(J72/I72,0)</f>
+        <f t="shared" si="3"/>
         <v>9.7931034482758612</v>
       </c>
     </row>
@@ -13823,11 +13824,11 @@
         <v>10429300</v>
       </c>
       <c r="P73" s="15">
-        <f>IFERROR(B73/K73,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q73" s="12">
-        <f>IFERROR(J73/I73,0)</f>
+        <f t="shared" si="3"/>
         <v>11.083333333333334</v>
       </c>
     </row>
@@ -13873,11 +13874,11 @@
         <v>33404657</v>
       </c>
       <c r="P74" s="12">
-        <f>IFERROR(B74/K74,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q74" s="12">
-        <f>IFERROR(J74/I74,0)</f>
+        <f t="shared" si="3"/>
         <v>9.875</v>
       </c>
     </row>
@@ -13921,11 +13922,11 @@
         <v>13082852</v>
       </c>
       <c r="P75" s="12">
-        <f>IFERROR(B75/K75,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q75" s="12">
-        <f>IFERROR(J75/I75,0)</f>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
     </row>
@@ -13973,11 +13974,11 @@
         <v>9883522</v>
       </c>
       <c r="P76" s="12">
-        <f>IFERROR(B76/K76,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q76" s="12">
-        <f>IFERROR(J76/I76,0)</f>
+        <f t="shared" si="3"/>
         <v>23.5</v>
       </c>
     </row>
@@ -14021,15 +14022,15 @@
         <v>4108356</v>
       </c>
       <c r="P77" s="12">
-        <f>IFERROR(B77/K77,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q77" s="12">
-        <f>IFERROR(J77/I77,0)</f>
+        <f t="shared" si="3"/>
         <v>77.285714285714292</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="28">
         <v>76</v>
       </c>
@@ -14069,11 +14070,11 @@
         <v>3283308</v>
       </c>
       <c r="P78" s="12">
-        <f>IFERROR(B78/K78,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q78" s="12">
-        <f>IFERROR(J78/I78,0)</f>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
     </row>
@@ -14117,11 +14118,11 @@
         <v>16682261</v>
       </c>
       <c r="P79" s="12">
-        <f>IFERROR(B79/K79,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q79" s="12">
-        <f>IFERROR(J79/I79,0)</f>
+        <f t="shared" si="3"/>
         <v>21.833333333333332</v>
       </c>
     </row>
@@ -14169,11 +14170,11 @@
         <v>6954790</v>
       </c>
       <c r="P80" s="12">
-        <f>IFERROR(B80/K80,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q80" s="12">
-        <f>IFERROR(J80/I80,0)</f>
+        <f t="shared" si="3"/>
         <v>6.0196078431372548</v>
       </c>
     </row>
@@ -14215,11 +14216,11 @@
         <v>26287582</v>
       </c>
       <c r="P81" s="12">
-        <f>IFERROR(B81/K81,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q81" s="12">
-        <f>IFERROR(J81/I81,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14263,11 +14264,11 @@
         <v>11327480</v>
       </c>
       <c r="P82" s="12">
-        <f>IFERROR(B82/K82,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q82" s="12">
-        <f>IFERROR(J82/I82,0)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -14305,11 +14306,11 @@
         <v>43707940</v>
       </c>
       <c r="P83" s="12">
-        <f>IFERROR(B83/K83,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q83" s="12">
-        <f>IFERROR(J83/I83,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14351,11 +14352,11 @@
         <v>340958</v>
       </c>
       <c r="P84" s="12">
-        <f>IFERROR(B84/K84,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q84" s="12">
-        <f>IFERROR(J84/I84,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14403,15 +14404,15 @@
         <v>1326423</v>
       </c>
       <c r="P85" s="12">
-        <f>IFERROR(B85/K85,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q85" s="12">
-        <f>IFERROR(J85/I85,0)</f>
+        <f t="shared" si="3"/>
         <v>266.2</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="28">
         <v>84</v>
       </c>
@@ -14451,11 +14452,11 @@
         <v>2083385</v>
       </c>
       <c r="P86" s="12">
-        <f>IFERROR(B86/K86,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q86" s="12">
-        <f>IFERROR(J86/I86,0)</f>
+        <f t="shared" si="3"/>
         <v>39.38095238095238</v>
       </c>
     </row>
@@ -14501,11 +14502,11 @@
         <v>2726772</v>
       </c>
       <c r="P87" s="12">
-        <f>IFERROR(B87/K87,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q87" s="12">
-        <f>IFERROR(J87/I87,0)</f>
+        <f t="shared" si="3"/>
         <v>32.882352941176471</v>
       </c>
     </row>
@@ -14551,11 +14552,11 @@
         <v>17870731</v>
       </c>
       <c r="P88" s="12">
-        <f>IFERROR(B88/K88,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q88" s="12">
-        <f>IFERROR(J88/I88,0)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
@@ -14601,11 +14602,11 @@
         <v>4817157</v>
       </c>
       <c r="P89" s="12">
-        <f>IFERROR(B89/K89,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q89" s="12">
-        <f>IFERROR(J89/I89,0)</f>
+        <f t="shared" si="3"/>
         <v>155.5</v>
       </c>
     </row>
@@ -14651,11 +14652,11 @@
         <v>5459310</v>
       </c>
       <c r="P90" s="12">
-        <f>IFERROR(B90/K90,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q90" s="12">
-        <f>IFERROR(J90/I90,0)</f>
+        <f t="shared" si="3"/>
         <v>90.333333333333329</v>
       </c>
     </row>
@@ -14701,11 +14702,11 @@
         <v>2078902</v>
       </c>
       <c r="P91" s="12">
-        <f>IFERROR(B91/K91,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q91" s="12">
-        <f>IFERROR(J91/I91,0)</f>
+        <f t="shared" si="3"/>
         <v>100.71428571428571</v>
       </c>
     </row>
@@ -14745,11 +14746,11 @@
         <v>89174452</v>
       </c>
       <c r="P92" s="12">
-        <f>IFERROR(B92/K92,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q92" s="12">
-        <f>IFERROR(J92/I92,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14789,11 +14790,11 @@
         <v>15830856</v>
       </c>
       <c r="P93" s="12">
-        <f>IFERROR(B93/K93,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q93" s="12">
-        <f>IFERROR(J93/I93,0)</f>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
     </row>
@@ -14835,11 +14836,11 @@
         <v>986088</v>
       </c>
       <c r="P94" s="12">
-        <f>IFERROR(B94/K94,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q94" s="12">
-        <f>IFERROR(J94/I94,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14885,11 +14886,11 @@
         <v>6482018</v>
       </c>
       <c r="P95" s="12">
-        <f>IFERROR(B95/K95,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q95" s="12">
-        <f>IFERROR(J95/I95,0)</f>
+        <f t="shared" si="3"/>
         <v>9.8421052631578956</v>
       </c>
     </row>
@@ -14933,11 +14934,11 @@
         <v>271903</v>
       </c>
       <c r="P96" s="12">
-        <f>IFERROR(B96/K96,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q96" s="12">
-        <f>IFERROR(J96/I96,0)</f>
+        <f t="shared" si="3"/>
         <v>445</v>
       </c>
     </row>
@@ -14985,11 +14986,11 @@
         <v>6509752</v>
       </c>
       <c r="P97" s="12">
-        <f>IFERROR(B97/K97,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q97" s="12">
-        <f>IFERROR(J97/I97,0)</f>
+        <f t="shared" si="3"/>
         <v>13.153846153846153</v>
       </c>
     </row>
@@ -15033,11 +15034,11 @@
         <v>2218477</v>
       </c>
       <c r="P98" s="12">
-        <f>IFERROR(B98/K98,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q98" s="12">
-        <f>IFERROR(J98/I98,0)</f>
+        <f t="shared" si="3"/>
         <v>45.272727272727273</v>
       </c>
     </row>
@@ -15083,11 +15084,11 @@
         <v>7489099</v>
       </c>
       <c r="P99" s="12">
-        <f>IFERROR(B99/K99,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q99" s="12">
-        <f>IFERROR(J99/I99,0)</f>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
     </row>
@@ -15131,11 +15132,11 @@
         <v>11802436</v>
       </c>
       <c r="P100" s="12">
-        <f>IFERROR(B100/K100,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q100" s="12">
-        <f>IFERROR(J100/I100,0)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
@@ -15179,11 +15180,11 @@
         <v>539261</v>
       </c>
       <c r="P101" s="15">
-        <f>IFERROR(B101/K101,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q101" s="12">
-        <f>IFERROR(J101/I101,0)</f>
+        <f t="shared" si="3"/>
         <v>910.5</v>
       </c>
     </row>
@@ -15229,11 +15230,11 @@
         <v>1888690</v>
       </c>
       <c r="P102" s="12">
-        <f>IFERROR(B102/K102,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q102" s="12">
-        <f>IFERROR(J102/I102,0)</f>
+        <f t="shared" si="3"/>
         <v>171.33333333333334</v>
       </c>
     </row>
@@ -15277,11 +15278,11 @@
         <v>21401804</v>
       </c>
       <c r="P103" s="12">
-        <f>IFERROR(B103/K103,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q103" s="12">
-        <f>IFERROR(J103/I103,0)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
     </row>
@@ -15327,11 +15328,11 @@
         <v>2878189</v>
       </c>
       <c r="P104" s="12">
-        <f>IFERROR(B104/K104,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q104" s="12">
-        <f>IFERROR(J104/I104,0)</f>
+        <f t="shared" si="3"/>
         <v>318</v>
       </c>
     </row>
@@ -15373,11 +15374,11 @@
         <v>1961573</v>
       </c>
       <c r="P105" s="12">
-        <f>IFERROR(B105/K105,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q105" s="12">
-        <f>IFERROR(J105/I105,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15413,11 +15414,11 @@
         <v>9508183</v>
       </c>
       <c r="P106" s="15">
-        <f>IFERROR(B106/K106,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q106" s="12">
-        <f>IFERROR(J106/I106,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15461,11 +15462,11 @@
         <v>1206224</v>
       </c>
       <c r="P107" s="15">
-        <f>IFERROR(B107/K107,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q107" s="12">
-        <f>IFERROR(J107/I107,0)</f>
+        <f t="shared" si="3"/>
         <v>75.2</v>
       </c>
     </row>
@@ -15511,11 +15512,11 @@
         <v>6829201</v>
       </c>
       <c r="P108" s="12">
-        <f>IFERROR(B108/K108,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q108" s="12">
-        <f>IFERROR(J108/I108,0)</f>
+        <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
     </row>
@@ -15557,11 +15558,11 @@
         <v>24079100</v>
       </c>
       <c r="P109" s="12">
-        <f>IFERROR(B109/K109,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q109" s="12">
-        <f>IFERROR(J109/I109,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15605,11 +15606,11 @@
         <v>5088065</v>
       </c>
       <c r="P110" s="12">
-        <f>IFERROR(B110/K110,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q110" s="12">
-        <f>IFERROR(J110/I110,0)</f>
+        <f t="shared" si="3"/>
         <v>40.75</v>
       </c>
     </row>
@@ -15651,11 +15652,11 @@
         <v>20168486</v>
       </c>
       <c r="P111" s="12">
-        <f>IFERROR(B111/K111,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q111" s="12">
-        <f>IFERROR(J111/I111,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15693,11 +15694,11 @@
         <v>20822813</v>
       </c>
       <c r="P112" s="12">
-        <f>IFERROR(B112/K112,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q112" s="12">
-        <f>IFERROR(J112/I112,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15741,11 +15742,11 @@
         <v>77249</v>
       </c>
       <c r="P113" s="12">
-        <f>IFERROR(B113/K113,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q113" s="12">
-        <f>IFERROR(J113/I113,0)</f>
+        <f t="shared" si="3"/>
         <v>3283.6666666666665</v>
       </c>
     </row>
@@ -15789,11 +15790,11 @@
         <v>53608695</v>
       </c>
       <c r="P114" s="12">
-        <f>IFERROR(B114/K114,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q114" s="12">
-        <f>IFERROR(J114/I114,0)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -15835,11 +15836,11 @@
         <v>7120986</v>
       </c>
       <c r="P115" s="12">
-        <f>IFERROR(B115/K115,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q115" s="12">
-        <f>IFERROR(J115/I115,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15883,11 +15884,11 @@
         <v>3472200</v>
       </c>
       <c r="P116" s="12">
-        <f>IFERROR(B116/K116,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q116" s="12">
-        <f>IFERROR(J116/I116,0)</f>
+        <f t="shared" si="3"/>
         <v>29.857142857142858</v>
       </c>
     </row>
@@ -15921,11 +15922,11 @@
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
       <c r="P117" s="12">
-        <f>IFERROR(B117/K117,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q117" s="12">
-        <f>IFERROR(J117/I117,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15971,11 +15972,11 @@
         <v>3990118</v>
       </c>
       <c r="P118" s="15">
-        <f>IFERROR(B118/K118,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q118" s="12">
-        <f>IFERROR(J118/I118,0)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
@@ -16019,11 +16020,11 @@
         <v>18311507</v>
       </c>
       <c r="P119" s="12">
-        <f>IFERROR(B119/K119,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q119" s="12">
-        <f>IFERROR(J119/I119,0)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
@@ -16067,11 +16068,11 @@
         <v>33922</v>
       </c>
       <c r="P120" s="12">
-        <f>IFERROR(B120/K120,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q120" s="12">
-        <f>IFERROR(J120/I120,0)</f>
+        <f t="shared" si="3"/>
         <v>19103</v>
       </c>
     </row>
@@ -16115,15 +16116,15 @@
         <v>10189909</v>
       </c>
       <c r="P121" s="12">
-        <f>IFERROR(B121/K121,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q121" s="12">
-        <f>IFERROR(J121/I121,0)</f>
+        <f t="shared" si="3"/>
         <v>11.6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="28">
         <v>120</v>
       </c>
@@ -16161,11 +16162,11 @@
         <v>1396368</v>
       </c>
       <c r="P122" s="15">
-        <f>IFERROR(B122/K122,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q122" s="12">
-        <f>IFERROR(J122/I122,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16207,11 +16208,11 @@
         <v>173654</v>
       </c>
       <c r="P123" s="12">
-        <f>IFERROR(B123/K123,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q123" s="12">
-        <f>IFERROR(J123/I123,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16255,11 +16256,11 @@
         <v>441394</v>
       </c>
       <c r="P124" s="12">
-        <f>IFERROR(B124/K124,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q124" s="12">
-        <f>IFERROR(J124/I124,0)</f>
+        <f t="shared" si="3"/>
         <v>1183</v>
       </c>
     </row>
@@ -16299,11 +16300,11 @@
         <v>59494330</v>
       </c>
       <c r="P125" s="12">
-        <f>IFERROR(B125/K125,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q125" s="12">
-        <f>IFERROR(J125/I125,0)</f>
+        <f t="shared" si="3"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -16345,11 +16346,11 @@
         <v>2959518</v>
       </c>
       <c r="P126" s="12">
-        <f>IFERROR(B126/K126,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q126" s="12">
-        <f>IFERROR(J126/I126,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16393,11 +16394,11 @@
         <v>28445910</v>
       </c>
       <c r="P127" s="12">
-        <f>IFERROR(B127/K127,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q127" s="12">
-        <f>IFERROR(J127/I127,0)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -16439,11 +16440,11 @@
         <v>23811335</v>
       </c>
       <c r="P128" s="12">
-        <f>IFERROR(B128/K128,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q128" s="12">
-        <f>IFERROR(J128/I128,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16483,11 +16484,11 @@
         <v>894487</v>
       </c>
       <c r="P129" s="12">
-        <f>IFERROR(B129/K129,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q129" s="12">
-        <f>IFERROR(J129/I129,0)</f>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
     </row>
@@ -16525,11 +16526,11 @@
         <v>7954868</v>
       </c>
       <c r="P130" s="15">
-        <f>IFERROR(B130/K130,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q130" s="12">
-        <f>IFERROR(J130/I130,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16567,11 +16568,11 @@
         <v>16359351</v>
       </c>
       <c r="P131" s="12">
-        <f>IFERROR(B131/K131,0)</f>
+        <f t="shared" ref="P131:P194" si="4">IFERROR(B131/K131,0)</f>
         <v>0</v>
       </c>
       <c r="Q131" s="12">
-        <f>IFERROR(J131/I131,0)</f>
+        <f t="shared" ref="Q131:Q194" si="5">IFERROR(J131/I131,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16609,11 +16610,11 @@
         <v>5499241</v>
       </c>
       <c r="P132" s="12">
-        <f>IFERROR(B132/K132,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q132" s="12">
-        <f>IFERROR(J132/I132,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16655,11 +16656,11 @@
         <v>5085052</v>
       </c>
       <c r="P133" s="12">
-        <f>IFERROR(B133/K133,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q133" s="12">
-        <f>IFERROR(J133/I133,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16701,11 +16702,11 @@
         <v>12078851</v>
       </c>
       <c r="P134" s="12">
-        <f>IFERROR(B134/K134,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q134" s="12">
-        <f>IFERROR(J134/I134,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16749,11 +16750,11 @@
         <v>84975</v>
       </c>
       <c r="P135" s="12">
-        <f>IFERROR(B135/K135,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q135" s="12">
-        <f>IFERROR(J135/I135,0)</f>
+        <f t="shared" si="5"/>
         <v>195.35</v>
       </c>
     </row>
@@ -16795,11 +16796,11 @@
         <v>1271502</v>
       </c>
       <c r="P136" s="12">
-        <f>IFERROR(B136/K136,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q136" s="12">
-        <f>IFERROR(J136/I136,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16843,11 +16844,11 @@
         <v>628056</v>
       </c>
       <c r="P137" s="12">
-        <f>IFERROR(B137/K137,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q137" s="12">
-        <f>IFERROR(J137/I137,0)</f>
+        <f t="shared" si="5"/>
         <v>258</v>
       </c>
     </row>
@@ -16889,11 +16890,11 @@
         <v>555195</v>
       </c>
       <c r="P138" s="12">
-        <f>IFERROR(B138/K138,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q138" s="12">
-        <f>IFERROR(J138/I138,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16933,11 +16934,11 @@
         <v>97224670</v>
       </c>
       <c r="P139" s="12">
-        <f>IFERROR(B139/K139,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q139" s="12">
-        <f>IFERROR(J139/I139,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -16981,11 +16982,11 @@
         <v>114568201</v>
       </c>
       <c r="P140" s="12">
-        <f>IFERROR(B140/K140,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q140" s="12">
-        <f>IFERROR(J140/I140,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17023,11 +17024,11 @@
         <v>12907635</v>
       </c>
       <c r="P141" s="12">
-        <f>IFERROR(B141/K141,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q141" s="12">
-        <f>IFERROR(J141/I141,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17073,11 +17074,11 @@
         <v>11384207</v>
       </c>
       <c r="P142" s="12">
-        <f>IFERROR(B142/K142,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q142" s="12">
-        <f>IFERROR(J142/I142,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17117,11 +17118,11 @@
         <v>29066056</v>
       </c>
       <c r="P143" s="12">
-        <f>IFERROR(B143/K143,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q143" s="12">
-        <f>IFERROR(J143/I143,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17163,15 +17164,15 @@
         <v>8251932</v>
       </c>
       <c r="P144" s="12">
-        <f>IFERROR(B144/K144,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q144" s="12">
-        <f>IFERROR(J144/I144,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="28">
         <v>143</v>
       </c>
@@ -17209,11 +17210,11 @@
         <v>218608</v>
       </c>
       <c r="P145" s="12">
-        <f>IFERROR(B145/K145,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q145" s="12">
-        <f>IFERROR(J145/I145,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17259,11 +17260,11 @@
         <v>11176461</v>
       </c>
       <c r="P146" s="15">
-        <f>IFERROR(B146/K146,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q146" s="12">
-        <f>IFERROR(J146/I146,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17303,11 +17304,11 @@
         <v>27591793</v>
       </c>
       <c r="P147" s="12">
-        <f>IFERROR(B147/K147,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q147" s="12">
-        <f>IFERROR(J147/I147,0)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -17345,11 +17346,11 @@
         <v>5041262</v>
       </c>
       <c r="P148" s="12">
-        <f>IFERROR(B148/K148,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q148" s="12">
-        <f>IFERROR(J148/I148,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17389,11 +17390,11 @@
         <v>375301</v>
       </c>
       <c r="P149" s="12">
-        <f>IFERROR(B149/K149,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q149" s="12">
-        <f>IFERROR(J149/I149,0)</f>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
     </row>
@@ -17435,11 +17436,11 @@
         <v>1158593</v>
       </c>
       <c r="P150" s="12">
-        <f>IFERROR(B150/K150,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q150" s="12">
-        <f>IFERROR(J150/I150,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17477,11 +17478,11 @@
         <v>48839</v>
       </c>
       <c r="P151" s="12">
-        <f>IFERROR(B151/K151,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q151" s="12">
-        <f>IFERROR(J151/I151,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17523,11 +17524,11 @@
         <v>54362812</v>
       </c>
       <c r="P152" s="12">
-        <f>IFERROR(B152/K152,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q152" s="12">
-        <f>IFERROR(J152/I152,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17565,11 +17566,11 @@
         <v>297602</v>
       </c>
       <c r="P153" s="12">
-        <f>IFERROR(B153/K153,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q153" s="12">
-        <f>IFERROR(J153/I153,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17607,11 +17608,11 @@
         <v>45534716</v>
       </c>
       <c r="P154" s="12">
-        <f>IFERROR(B154/K154,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q154" s="12">
-        <f>IFERROR(J154/I154,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17651,11 +17652,11 @@
         <v>400115</v>
       </c>
       <c r="P155" s="12">
-        <f>IFERROR(B155/K155,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q155" s="12">
-        <f>IFERROR(J155/I155,0)</f>
+        <f t="shared" si="5"/>
         <v>96.75</v>
       </c>
     </row>
@@ -17693,11 +17694,11 @@
         <v>33692</v>
       </c>
       <c r="P156" s="12">
-        <f>IFERROR(B156/K156,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q156" s="12">
-        <f>IFERROR(J156/I156,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17735,11 +17736,11 @@
         <v>4818458</v>
       </c>
       <c r="P157" s="12">
-        <f>IFERROR(B157/K157,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q157" s="12">
-        <f>IFERROR(J157/I157,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17783,11 +17784,11 @@
         <v>436933</v>
       </c>
       <c r="P158" s="12">
-        <f>IFERROR(B158/K158,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q158" s="12">
-        <f>IFERROR(J158/I158,0)</f>
+        <f t="shared" si="5"/>
         <v>161.5</v>
       </c>
     </row>
@@ -17831,11 +17832,11 @@
         <v>62306</v>
       </c>
       <c r="P159" s="12">
-        <f>IFERROR(B159/K159,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q159" s="12">
-        <f>IFERROR(J159/I159,0)</f>
+        <f t="shared" si="5"/>
         <v>979</v>
       </c>
     </row>
@@ -17875,15 +17876,15 @@
         <v>16688259</v>
       </c>
       <c r="P160" s="12">
-        <f>IFERROR(B160/K160,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q160" s="12">
-        <f>IFERROR(J160/I160,0)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="28">
         <v>159</v>
       </c>
@@ -17921,11 +17922,11 @@
         <v>1398913</v>
       </c>
       <c r="P161" s="12">
-        <f>IFERROR(B161/K161,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q161" s="12">
-        <f>IFERROR(J161/I161,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17963,11 +17964,11 @@
         <v>31132211</v>
       </c>
       <c r="P162" s="15">
-        <f>IFERROR(B162/K162,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q162" s="12">
-        <f>IFERROR(J162/I162,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18011,11 +18012,11 @@
         <v>786067</v>
       </c>
       <c r="P163" s="12">
-        <f>IFERROR(B163/K163,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q163" s="12">
-        <f>IFERROR(J163/I163,0)</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -18059,11 +18060,11 @@
         <v>106708</v>
       </c>
       <c r="P164" s="12">
-        <f>IFERROR(B164/K164,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q164" s="12">
-        <f>IFERROR(J164/I164,0)</f>
+        <f t="shared" si="5"/>
         <v>236.75</v>
       </c>
     </row>
@@ -18105,11 +18106,11 @@
         <v>3271218</v>
       </c>
       <c r="P165" s="15">
-        <f>IFERROR(B165/K165,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q165" s="12">
-        <f>IFERROR(J165/I165,0)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -18153,11 +18154,11 @@
         <v>392754</v>
       </c>
       <c r="P166" s="12">
-        <f>IFERROR(B166/K166,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q166" s="12">
-        <f>IFERROR(J166/I166,0)</f>
+        <f t="shared" si="5"/>
         <v>244</v>
       </c>
     </row>
@@ -18197,11 +18198,11 @@
         <v>39206</v>
       </c>
       <c r="P167" s="12">
-        <f>IFERROR(B167/K167,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q167" s="12">
-        <f>IFERROR(J167/I167,0)</f>
+        <f t="shared" si="5"/>
         <v>2449</v>
       </c>
     </row>
@@ -18245,11 +18246,11 @@
         <v>65620</v>
       </c>
       <c r="P168" s="12">
-        <f>IFERROR(B168/K168,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q168" s="12">
-        <f>IFERROR(J168/I168,0)</f>
+        <f t="shared" si="5"/>
         <v>472.33333333333331</v>
       </c>
     </row>
@@ -18291,11 +18292,11 @@
         <v>29735785</v>
       </c>
       <c r="P169" s="15">
-        <f>IFERROR(B169/K169,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q169" s="12">
-        <f>IFERROR(J169/I169,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18339,11 +18340,11 @@
         <v>287331</v>
       </c>
       <c r="P170" s="12">
-        <f>IFERROR(B170/K170,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q170" s="12">
-        <f>IFERROR(J170/I170,0)</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
     </row>
@@ -18385,11 +18386,11 @@
         <v>38114</v>
       </c>
       <c r="P171" s="12">
-        <f>IFERROR(B171/K171,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q171" s="12">
-        <f>IFERROR(J171/I171,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18433,11 +18434,11 @@
         <v>42812</v>
       </c>
       <c r="P172" s="12">
-        <f>IFERROR(B172/K172,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q172" s="12">
-        <f>IFERROR(J172/I172,0)</f>
+        <f t="shared" si="5"/>
         <v>253.57142857142858</v>
       </c>
     </row>
@@ -18479,11 +18480,11 @@
         <v>6858905</v>
       </c>
       <c r="P173" s="12">
-        <f>IFERROR(B173/K173,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q173" s="12">
-        <f>IFERROR(J173/I173,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18527,15 +18528,15 @@
         <v>19061013</v>
       </c>
       <c r="P174" s="12">
-        <f>IFERROR(B174/K174,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q174" s="12">
-        <f>IFERROR(J174/I174,0)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="28">
         <v>173</v>
       </c>
@@ -18569,11 +18570,11 @@
         <v>280700</v>
       </c>
       <c r="P175" s="12">
-        <f>IFERROR(B175/K175,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q175" s="12">
-        <f>IFERROR(J175/I175,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18611,11 +18612,11 @@
         <v>17441746</v>
       </c>
       <c r="P176" s="12">
-        <f>IFERROR(B176/K176,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q176" s="12">
-        <f>IFERROR(J176/I176,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18657,11 +18658,11 @@
         <v>32720557</v>
       </c>
       <c r="P177" s="12">
-        <f>IFERROR(B177/K177,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q177" s="12">
-        <f>IFERROR(J177/I177,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18697,11 +18698,11 @@
         <v>648161</v>
       </c>
       <c r="P178" s="12">
-        <f>IFERROR(B178/K178,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q178" s="12">
-        <f>IFERROR(J178/I178,0)</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
     </row>
@@ -18741,11 +18742,11 @@
         <v>38577</v>
       </c>
       <c r="P179" s="12">
-        <f>IFERROR(B179/K179,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q179" s="12">
-        <f>IFERROR(J179/I179,0)</f>
+        <f t="shared" si="5"/>
         <v>1011</v>
       </c>
     </row>
@@ -18779,11 +18780,11 @@
         <v>3539907</v>
       </c>
       <c r="P180" s="12">
-        <f>IFERROR(B180/K180,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q180" s="12">
-        <f>IFERROR(J180/I180,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18825,11 +18826,11 @@
         <v>14834125</v>
       </c>
       <c r="P181" s="12">
-        <f>IFERROR(B181/K181,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q181" s="12">
-        <f>IFERROR(J181/I181,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18867,15 +18868,15 @@
         <v>6614179</v>
       </c>
       <c r="P182" s="12">
-        <f>IFERROR(B182/K182,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q182" s="12">
-        <f>IFERROR(J182/I182,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="28">
         <v>181</v>
       </c>
@@ -18915,11 +18916,11 @@
         <v>97824</v>
       </c>
       <c r="P183" s="12">
-        <f>IFERROR(B183/K183,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q183" s="12">
-        <f>IFERROR(J183/I183,0)</f>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
     </row>
@@ -18961,11 +18962,11 @@
         <v>2345158</v>
       </c>
       <c r="P184" s="12">
-        <f>IFERROR(B184/K184,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q184" s="12">
-        <f>IFERROR(J184/I184,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19003,11 +19004,11 @@
         <v>1315040</v>
       </c>
       <c r="P185" s="12">
-        <f>IFERROR(B185/K185,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q185" s="12">
-        <f>IFERROR(J185/I185,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19049,11 +19050,11 @@
         <v>2407111</v>
       </c>
       <c r="P186" s="12">
-        <f>IFERROR(B186/K186,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q186" s="12">
-        <f>IFERROR(J186/I186,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19093,11 +19094,11 @@
         <v>770494</v>
       </c>
       <c r="P187" s="12">
-        <f>IFERROR(B187/K187,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q187" s="12">
-        <f>IFERROR(J187/I187,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19137,11 +19138,11 @@
         <v>112456</v>
       </c>
       <c r="P188" s="12">
-        <f>IFERROR(B188/K188,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q188" s="12">
-        <f>IFERROR(J188/I188,0)</f>
+        <f t="shared" si="5"/>
         <v>46.75</v>
       </c>
     </row>
@@ -19183,11 +19184,11 @@
         <v>4632582</v>
       </c>
       <c r="P189" s="12">
-        <f>IFERROR(B189/K189,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q189" s="12">
-        <f>IFERROR(J189/I189,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19225,11 +19226,11 @@
         <v>7261510</v>
       </c>
       <c r="P190" s="12">
-        <f>IFERROR(B190/K190,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q190" s="12">
-        <f>IFERROR(J190/I190,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19271,11 +19272,11 @@
         <v>396653</v>
       </c>
       <c r="P191" s="15">
-        <f>IFERROR(B191/K191,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q191" s="12">
-        <f>IFERROR(J191/I191,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19313,11 +19314,11 @@
         <v>895606</v>
       </c>
       <c r="P192" s="12">
-        <f>IFERROR(B192/K192,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q192" s="12">
-        <f>IFERROR(J192/I192,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19355,11 +19356,11 @@
         <v>285140</v>
       </c>
       <c r="P193" s="12">
-        <f>IFERROR(B193/K193,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q193" s="12">
-        <f>IFERROR(J193/I193,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -19397,15 +19398,15 @@
         <v>183520</v>
       </c>
       <c r="P194" s="12">
-        <f>IFERROR(B194/K194,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q194" s="12">
-        <f>IFERROR(J194/I194,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="28">
         <v>193</v>
       </c>
@@ -19439,11 +19440,11 @@
         <v>110895</v>
       </c>
       <c r="P195" s="12">
-        <f>IFERROR(B195/K195,0)</f>
+        <f t="shared" ref="P195:P213" si="6">IFERROR(B195/K195,0)</f>
         <v>0</v>
       </c>
       <c r="Q195" s="12">
-        <f>IFERROR(J195/I195,0)</f>
+        <f t="shared" ref="Q195:Q213" si="7">IFERROR(J195/I195,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -19485,11 +19486,11 @@
         <v>164007</v>
       </c>
       <c r="P196" s="12">
-        <f>IFERROR(B196/K196,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q196" s="12">
-        <f>IFERROR(J196/I196,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19527,11 +19528,11 @@
         <v>71963</v>
       </c>
       <c r="P197" s="12">
-        <f>IFERROR(B197/K197,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q197" s="12">
-        <f>IFERROR(J197/I197,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19569,11 +19570,11 @@
         <v>2534689</v>
       </c>
       <c r="P198" s="15">
-        <f>IFERROR(B198/K198,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q198" s="12">
-        <f>IFERROR(J198/I198,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19615,15 +19616,15 @@
         <v>11840584</v>
       </c>
       <c r="P199" s="12">
-        <f>IFERROR(B199/K199,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q199" s="12">
-        <f>IFERROR(J199/I199,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="28">
         <v>198</v>
       </c>
@@ -19657,11 +19658,11 @@
         <v>53150</v>
       </c>
       <c r="P200" s="12">
-        <f>IFERROR(B200/K200,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q200" s="12">
-        <f>IFERROR(J200/I200,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19699,15 +19700,15 @@
         <v>3466</v>
       </c>
       <c r="P201" s="12">
-        <f>IFERROR(B201/K201,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q201" s="12">
-        <f>IFERROR(J201/I201,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="28">
         <v>200</v>
       </c>
@@ -19745,11 +19746,11 @@
         <v>38648</v>
       </c>
       <c r="P202" s="12">
-        <f>IFERROR(B202/K202,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q202" s="12">
-        <f>IFERROR(J202/I202,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19783,11 +19784,11 @@
         <v>801</v>
       </c>
       <c r="P203" s="12">
-        <f>IFERROR(B203/K203,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q203" s="12">
-        <f>IFERROR(J203/I203,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19825,11 +19826,11 @@
         <v>867066</v>
       </c>
       <c r="P204" s="12">
-        <f>IFERROR(B204/K204,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q204" s="12">
-        <f>IFERROR(J204/I204,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19873,11 +19874,11 @@
         <v>4992</v>
       </c>
       <c r="P205" s="12">
-        <f>IFERROR(B205/K205,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q205" s="12">
-        <f>IFERROR(J205/I205,0)</f>
+        <f t="shared" si="7"/>
         <v>2204</v>
       </c>
     </row>
@@ -19915,11 +19916,11 @@
         <v>56758</v>
       </c>
       <c r="P206" s="12">
-        <f>IFERROR(B206/K206,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q206" s="12">
-        <f>IFERROR(J206/I206,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19953,11 +19954,11 @@
         <v>98269</v>
       </c>
       <c r="P207" s="12">
-        <f>IFERROR(B207/K207,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q207" s="12">
-        <f>IFERROR(J207/I207,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19999,11 +20000,11 @@
         <v>585948</v>
       </c>
       <c r="P208" s="15">
-        <f>IFERROR(B208/K208,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q208" s="12">
-        <f>IFERROR(J208/I208,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20033,15 +20034,15 @@
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
       <c r="P209" s="12">
-        <f>IFERROR(B209/K209,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q209" s="12">
-        <f>IFERROR(J209/I209,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="28">
         <v>208</v>
       </c>
@@ -20081,15 +20082,15 @@
         <v>30205</v>
       </c>
       <c r="P210" s="12">
-        <f>IFERROR(B210/K210,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q210" s="12">
-        <f>IFERROR(J210/I210,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="30">
         <v>209</v>
       </c>
@@ -20123,15 +20124,15 @@
         <v>8924052</v>
       </c>
       <c r="P211" s="12">
-        <f>IFERROR(B211/K211,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q211" s="12">
-        <f>IFERROR(J211/I211,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="30">
         <v>210</v>
       </c>
@@ -20165,11 +20166,11 @@
         <v>26191</v>
       </c>
       <c r="P212" s="12">
-        <f>IFERROR(B212/K212,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q212" s="12">
-        <f>IFERROR(J212/I212,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20203,11 +20204,11 @@
         <v>9873</v>
       </c>
       <c r="P213" s="12">
-        <f>IFERROR(B213/K213,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q213" s="12">
-        <f>IFERROR(J213/I213,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20299,7 +20300,7 @@
         <v>2140050</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="31">
         <v>215</v>
       </c>
@@ -20356,432 +20357,432 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{E8662E53-7837-47F3-9B81-C772699D2FE4}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{4CD87D19-A65E-489F-AFDF-15D148ABE016}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{E0CF43AE-902A-4AA4-89E0-2B60B84E895C}"/>
-    <hyperlink ref="N4" r:id="rId4" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{EE827B68-38C1-4313-A26E-2FBC032028D5}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{D73A0275-7811-421E-B16F-CE7CAE65C2C1}"/>
-    <hyperlink ref="N5" r:id="rId6" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{59EE7A7D-8198-447F-95B0-34C2CAD7FCB6}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{516C3987-513A-408B-87EA-BDE5FAF05761}"/>
-    <hyperlink ref="N6" r:id="rId8" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{AB860673-B549-4887-898F-BB966E31FF38}"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{37A6E3FA-504C-42F0-82B0-BAD6C4D1C372}"/>
-    <hyperlink ref="N7" r:id="rId10" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{68CEDD48-28D6-481D-95C6-91EEACB5B0C5}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{C446CE48-21A9-4BAF-81F2-CBEED5CDEF7F}"/>
-    <hyperlink ref="N8" r:id="rId12" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{B30CB6C6-5DB4-4874-98FC-1F6A5E99515F}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{EB58E9C1-02A0-41CB-B31D-C9A1A891ED00}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{40C1ACB1-641C-45D9-9B98-719628C70369}"/>
-    <hyperlink ref="B10" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{99F9DDF7-BB02-429D-9A9D-7FD0E3BCFF65}"/>
-    <hyperlink ref="N10" r:id="rId16" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{DD2C3FEB-1D15-4B9A-84DF-C6527452F9F2}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{1F50738C-1FF4-4463-911D-53F0193662AD}"/>
-    <hyperlink ref="N11" r:id="rId18" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{E63F366A-099A-4C12-A882-28D5DF138E60}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{0BBEA79F-44C7-43DC-B7EA-1729CC003C35}"/>
-    <hyperlink ref="N12" r:id="rId20" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{BAE8B411-AF74-4AD0-B70A-18BD1B5365F6}"/>
-    <hyperlink ref="B13" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{F40B2F29-403B-4BBE-B2C6-00F1F59B846C}"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.worldometers.info/world-population/china-population/" xr:uid="{A44225DA-F2F7-4DF9-9111-5B217C9BF3A8}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{0FA5DB00-2979-48A2-BD32-A85AA8C3D759}"/>
-    <hyperlink ref="N14" r:id="rId24" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{68CA2C56-2D3E-4744-80BB-71D5C4618B24}"/>
-    <hyperlink ref="B15" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{C8F4C105-8E9E-40B8-9F25-D32B358FC917}"/>
-    <hyperlink ref="N15" r:id="rId26" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{ABDC6BEE-323A-49A7-8234-EC83A2D85977}"/>
-    <hyperlink ref="B16" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{6B906D5E-16F1-4442-94B5-D799F9E25267}"/>
-    <hyperlink ref="N16" r:id="rId28" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{B7498DBE-3916-47C9-B527-198AC7693E71}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{9F675712-3ADC-46C5-8CAB-31BE258ED4A6}"/>
-    <hyperlink ref="N17" r:id="rId30" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{792263CE-3E39-4F92-BFDD-5B0210ADD00A}"/>
-    <hyperlink ref="B18" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{F37EC4BD-5673-442D-81C0-8CCB4E88C5CD}"/>
-    <hyperlink ref="N18" r:id="rId32" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{EDF0D46A-F938-4ECB-8DA2-305C22198921}"/>
-    <hyperlink ref="B19" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{93286C7C-352F-4B4E-9E6D-12B007F19389}"/>
-    <hyperlink ref="N19" r:id="rId34" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{75CF60F3-904A-4B79-9B9B-D239DC3A9E73}"/>
-    <hyperlink ref="B20" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{6D118CA3-5B7A-4505-BA28-3862544E2F7F}"/>
-    <hyperlink ref="N20" r:id="rId36" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{34783605-009A-45EB-9A9E-667A0446A8B2}"/>
-    <hyperlink ref="B21" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{6D70BB18-28A3-490A-88A4-D318566E445E}"/>
-    <hyperlink ref="N21" r:id="rId38" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{8AEC5B27-919F-4355-9544-2C11EE6E5D53}"/>
-    <hyperlink ref="B22" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{CE0DD051-893F-4900-8858-1D6586A1BCA5}"/>
-    <hyperlink ref="N22" r:id="rId40" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{5EB7F79F-39A8-4B73-A996-B984AC272622}"/>
-    <hyperlink ref="B23" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{F14290CF-BF9B-44EF-B5CC-AD479805FBD5}"/>
-    <hyperlink ref="N23" r:id="rId42" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{3151BFC2-7EDE-4766-A558-7A39921C5DF5}"/>
-    <hyperlink ref="B24" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{AEFF3DF0-630F-4849-910D-D0ADCCDC6D43}"/>
-    <hyperlink ref="N24" r:id="rId44" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{2BC86638-C7CF-4C4E-ACFC-59ABCB332FEF}"/>
-    <hyperlink ref="B25" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{1C6B86EB-A880-4990-A7F1-5C044342CC20}"/>
-    <hyperlink ref="N25" r:id="rId46" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{AC577DE9-AAD3-4651-AFFF-90C2CF1916E1}"/>
-    <hyperlink ref="B26" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{CFB9A0B9-7662-4EB5-A195-92CA90C76A1F}"/>
-    <hyperlink ref="N26" r:id="rId48" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{48608EE3-AC63-47EE-B748-6A04D72CD1FB}"/>
-    <hyperlink ref="B27" r:id="rId49" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{392797E5-FA57-4889-8E17-6A539BCED7EF}"/>
-    <hyperlink ref="N27" r:id="rId50" display="https://www.worldometers.info/world-population/qatar-population/" xr:uid="{5FD9B11C-8111-4209-922B-E7BB559F4301}"/>
-    <hyperlink ref="B28" r:id="rId51" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{5D7BEC5D-6A08-4E1A-92C3-B9641EDFA83D}"/>
-    <hyperlink ref="N28" r:id="rId52" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{84E0CD24-F1AE-485F-980B-02EF5842991C}"/>
-    <hyperlink ref="B29" r:id="rId53" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{819F639D-7F80-4121-9090-A8AB8A7D4184}"/>
-    <hyperlink ref="N29" r:id="rId54" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{E620A23F-36FD-4A37-B8A7-A06280F8008E}"/>
-    <hyperlink ref="B30" r:id="rId55" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{8417DB42-2E38-41FD-81B0-7E2EA7446C8F}"/>
-    <hyperlink ref="N30" r:id="rId56" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{E17D3A33-3FFF-4A73-BDDA-4856A7105350}"/>
-    <hyperlink ref="B31" r:id="rId57" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{2AB887C7-5DB6-4FAE-9085-F3D0CAB72149}"/>
-    <hyperlink ref="N31" r:id="rId58" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{240F6CFE-4288-4920-B45E-CC619015898F}"/>
-    <hyperlink ref="B32" r:id="rId59" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{780F0DB2-0E7B-4720-BA2F-C9B9B4E94DBC}"/>
-    <hyperlink ref="N32" r:id="rId60" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{01990790-51BF-457A-886A-9E94E50E39A8}"/>
-    <hyperlink ref="B33" r:id="rId61" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{6330ADA0-A10D-4F1A-A105-50DB7EE5E7E3}"/>
-    <hyperlink ref="N33" r:id="rId62" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{D01D8531-2F59-47A2-9C17-F563D878080C}"/>
-    <hyperlink ref="B34" r:id="rId63" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{B07C5483-A00A-4FE1-9351-0C977469BA00}"/>
-    <hyperlink ref="N34" r:id="rId64" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{91AFF622-3F97-44D5-BF2B-8F4586D71EC4}"/>
-    <hyperlink ref="B35" r:id="rId65" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{03062CAE-A59C-4A01-BC40-45D01200D371}"/>
-    <hyperlink ref="N35" r:id="rId66" display="https://www.worldometers.info/world-population/israel-population/" xr:uid="{01C98C9B-9FA6-4995-B762-F459E4FFD326}"/>
-    <hyperlink ref="B36" r:id="rId67" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{229402AE-DDD1-423D-965D-10CF4C9150A2}"/>
-    <hyperlink ref="N36" r:id="rId68" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{92074D6F-4EB8-4BD9-8467-0CDC12FED385}"/>
-    <hyperlink ref="B37" r:id="rId69" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{7F16F9B1-0914-4F05-84FB-A7B0961B9EC8}"/>
-    <hyperlink ref="N37" r:id="rId70" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{96B305B4-FFCF-479D-9FA9-B7793F2586B0}"/>
-    <hyperlink ref="B38" r:id="rId71" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{4C002475-2D07-40BF-9643-441FF34CBBE4}"/>
-    <hyperlink ref="N38" r:id="rId72" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{5C9F9454-921C-4CB3-AC53-F102D79539B1}"/>
-    <hyperlink ref="B39" r:id="rId73" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{72584125-F165-41F2-82AF-20902B870E89}"/>
-    <hyperlink ref="N39" r:id="rId74" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{BAA8427C-C084-45A8-B452-113135AB9C0D}"/>
-    <hyperlink ref="B40" r:id="rId75" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{0AC0C16B-84BD-44D8-9F93-5B2DFADCE520}"/>
-    <hyperlink ref="N40" r:id="rId76" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{99E87DDC-1980-46B2-94DD-AF2C9DB1063F}"/>
-    <hyperlink ref="B41" r:id="rId77" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{5ED76954-D028-494D-93B3-A95184789F5A}"/>
-    <hyperlink ref="N41" r:id="rId78" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{C0DB9A1D-56ED-4420-8B7F-4DF741C52394}"/>
-    <hyperlink ref="B42" r:id="rId79" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{494DF9A5-2B54-4642-ACAA-D3DBB5D37711}"/>
-    <hyperlink ref="N42" r:id="rId80" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{C5A8A342-8FE8-442E-BEC2-BFF1B2327AEE}"/>
-    <hyperlink ref="B43" r:id="rId81" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{032DAA7F-5D73-4F67-9A4B-234CEF39F3D9}"/>
-    <hyperlink ref="N43" r:id="rId82" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{3F97AC79-54AE-4951-953E-FC5AECBA1448}"/>
-    <hyperlink ref="B44" r:id="rId83" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{C6BAF216-F175-4E95-946C-BFE637FE83DA}"/>
-    <hyperlink ref="N44" r:id="rId84" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{FB61ED65-8437-426D-AED5-BF8A7CF211A6}"/>
-    <hyperlink ref="B45" r:id="rId85" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{D03A235B-3AF7-45BC-83E2-F91DB782381E}"/>
-    <hyperlink ref="N45" r:id="rId86" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{69528BFF-30CC-4277-9B98-371CCB460653}"/>
-    <hyperlink ref="B46" r:id="rId87" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{9E46E45D-8080-46D5-B676-AAD4513760FB}"/>
-    <hyperlink ref="N46" r:id="rId88" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{B3210E0F-88D8-4DE9-84CF-5FFDB3C83E14}"/>
-    <hyperlink ref="B47" r:id="rId89" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{94B5F87D-D2EF-40E3-8E09-5A65B0ABBB40}"/>
-    <hyperlink ref="N47" r:id="rId90" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{AD9347EA-904A-4E20-8335-B80CE2AB04E0}"/>
-    <hyperlink ref="B48" r:id="rId91" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{0C1F8A34-3D50-4D9F-A700-E5B5D017BF43}"/>
-    <hyperlink ref="N48" r:id="rId92" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{ED346430-6CDF-4334-971D-299C87E743C6}"/>
-    <hyperlink ref="B49" r:id="rId93" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{6E14A511-7E73-4490-82DF-BDE1A28643FC}"/>
-    <hyperlink ref="N49" r:id="rId94" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{A1AED7EA-7DC7-4B47-AC89-54A6B67C5CA6}"/>
-    <hyperlink ref="B50" r:id="rId95" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{31D88951-F575-45C5-A8C8-12278A3AB5CE}"/>
-    <hyperlink ref="N50" r:id="rId96" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{C14CF894-43EA-408E-BB3D-0312D4DE9196}"/>
-    <hyperlink ref="B51" r:id="rId97" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{FA6B4D46-02A1-4EEF-AEFF-8C4DED941B08}"/>
-    <hyperlink ref="N51" r:id="rId98" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{0D4B1DF2-2F25-4618-A462-8B2360837B1F}"/>
-    <hyperlink ref="B52" r:id="rId99" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{6628FCD2-5BE3-47CB-9C36-F4BCD05D8312}"/>
-    <hyperlink ref="N52" r:id="rId100" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{744F07E0-5FC9-423E-B6AD-90E8D8938F94}"/>
-    <hyperlink ref="B53" r:id="rId101" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{31709C5F-3B2E-4CC7-8381-C2F809E920DF}"/>
-    <hyperlink ref="N53" r:id="rId102" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{BEFFA5AE-F7FE-499B-BFB1-CEAF8C3FDFA6}"/>
-    <hyperlink ref="B54" r:id="rId103" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{AA97E947-EAB0-42E0-A212-FB61BFB7C3FD}"/>
-    <hyperlink ref="N54" r:id="rId104" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{A509EAB8-2B9D-4EC4-B28B-4AC32D9B2E12}"/>
-    <hyperlink ref="B55" r:id="rId105" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{007D1264-2573-4726-A766-75D76F38373A}"/>
-    <hyperlink ref="N55" r:id="rId106" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{1AC56046-860F-4103-9CCE-5361AE860567}"/>
-    <hyperlink ref="B56" r:id="rId107" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{0108210E-D7A8-44F0-96B1-4ADA9D6F9B9A}"/>
-    <hyperlink ref="N56" r:id="rId108" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{B451B5C1-C233-494B-9FC0-77DF512BF4F1}"/>
-    <hyperlink ref="B57" r:id="rId109" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{C52CA8CD-60F3-4550-A70E-D68445A41525}"/>
-    <hyperlink ref="N57" r:id="rId110" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{5CA41557-20C8-4EDC-9412-241CA7FEF3B2}"/>
-    <hyperlink ref="B58" r:id="rId111" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{F59C9B65-CC0E-4E61-A04C-BC7BB6D80B76}"/>
-    <hyperlink ref="N58" r:id="rId112" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{01705C9C-FAC6-4D3C-BDD3-FAE582092F30}"/>
-    <hyperlink ref="B59" r:id="rId113" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{890165BC-F3B8-4092-BA64-09C850A955FA}"/>
-    <hyperlink ref="N59" r:id="rId114" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{DA2982B5-C29B-436A-BAAB-CEEFAFF7D89B}"/>
-    <hyperlink ref="B60" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{A3EA0EE4-D5AD-4F60-BC01-51231AB183E2}"/>
-    <hyperlink ref="N60" r:id="rId116" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{254C1337-D18C-4CC2-A5E0-AA26F1CCC8AE}"/>
-    <hyperlink ref="B61" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{E4D70DA8-4FBF-455A-A0B5-32CC5C4D96B7}"/>
-    <hyperlink ref="N61" r:id="rId118" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{081DCE93-018A-41BC-B47B-939C53BBCFC6}"/>
-    <hyperlink ref="B62" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{AA7EF180-C2A3-4293-A0B6-AEDAD02BCE07}"/>
-    <hyperlink ref="N62" r:id="rId120" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{03CA240C-9779-488D-B61F-7626A83D2702}"/>
-    <hyperlink ref="B63" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{7A329AFB-FEFE-4104-8D57-CD330EB92453}"/>
-    <hyperlink ref="N63" r:id="rId122" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{15598161-6F7B-4775-B189-E1C0CF45595A}"/>
-    <hyperlink ref="B64" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{7D08D723-E988-40ED-B24C-8BB553431546}"/>
-    <hyperlink ref="N64" r:id="rId124" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{027532AC-60A9-42B4-9019-2190568AE608}"/>
-    <hyperlink ref="B65" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{B5A7B428-BC7A-46E3-8734-960ED4DBF52E}"/>
-    <hyperlink ref="N65" r:id="rId126" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{CC46D717-465F-4618-BCF0-32548B9F4DD4}"/>
-    <hyperlink ref="B66" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{3B34042E-6784-4FD9-AD4D-1BD8D47254D1}"/>
-    <hyperlink ref="N66" r:id="rId128" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{5CB0CC87-8D99-4E5B-BE54-5AE7529932FA}"/>
-    <hyperlink ref="B67" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{C94CD154-E558-45B2-AF74-D022E00550C1}"/>
-    <hyperlink ref="N67" r:id="rId130" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{DFD5B9FD-EBDB-4939-A8B6-0E59D6BEC1B9}"/>
-    <hyperlink ref="B68" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{9AEE21E6-ABE3-4D6D-BC7F-D5F89D8B7B47}"/>
-    <hyperlink ref="N68" r:id="rId132" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{64182A27-543D-4F03-A585-0DFBE3CBF95E}"/>
-    <hyperlink ref="B69" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{72321C98-6965-4B24-ACE5-7483E39474B8}"/>
-    <hyperlink ref="N69" r:id="rId134" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{F4C32CD8-869E-403C-87C4-403455A9AFE7}"/>
-    <hyperlink ref="B70" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{1649C298-9BC8-45C6-82A2-CB74CC3FAEED}"/>
-    <hyperlink ref="N70" r:id="rId136" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{D72D4B41-8147-4A9E-B746-84757E3DA318}"/>
-    <hyperlink ref="B71" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{0527EEF2-CD70-4473-B872-BCDA2947AB4C}"/>
-    <hyperlink ref="N71" r:id="rId138" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{50F7805D-B19A-4A6A-8F94-32785A65191D}"/>
-    <hyperlink ref="B72" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{292D3779-BB6A-4FEF-9D71-A3B423B67EB7}"/>
-    <hyperlink ref="N72" r:id="rId140" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{07A3D5EF-EC15-4A59-9FC1-379AE8F79BBD}"/>
-    <hyperlink ref="B73" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{0510A18E-910A-4B66-819E-DFE0DAEFBAA3}"/>
-    <hyperlink ref="N73" r:id="rId142" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{A0D26B9D-B094-48B7-A301-C11D39B7EDF5}"/>
-    <hyperlink ref="B74" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{D2BA5948-10CB-482A-A2A0-7F1A72FBC244}"/>
-    <hyperlink ref="N74" r:id="rId144" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{1FDBB76D-B5E0-45E7-B698-FDB1272737AC}"/>
-    <hyperlink ref="B75" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{B661401B-3D27-4908-AA7F-7FFC61EE3B01}"/>
-    <hyperlink ref="N75" r:id="rId146" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{992331B2-9B3D-4428-9B49-129CCD9023B8}"/>
-    <hyperlink ref="B76" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{1CB8F9E0-EBB2-45C9-85A4-F751263EF07A}"/>
-    <hyperlink ref="N76" r:id="rId148" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{427E9F7A-E917-4C2A-9670-FD5EBDD7407A}"/>
-    <hyperlink ref="B77" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{68E379C8-E512-400C-8AC0-7F931830BE4D}"/>
-    <hyperlink ref="N77" r:id="rId150" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{05043A24-85EB-481C-980E-7C8B438A4E72}"/>
-    <hyperlink ref="B78" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{D2EB7EE4-7318-42A1-8B34-BA3E959D2D87}"/>
-    <hyperlink ref="N78" r:id="rId152" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{D2F30968-957C-4633-9073-022CB3857528}"/>
-    <hyperlink ref="B79" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{4A2E4CDF-04EA-4C3E-BF70-31112044FA13}"/>
-    <hyperlink ref="N79" r:id="rId154" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{7AB5F063-CF26-4A2F-A3F3-00A5E1BE0A98}"/>
-    <hyperlink ref="B80" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{848D945D-3CB8-4BFC-B2A3-96A1F98D2B42}"/>
-    <hyperlink ref="N80" r:id="rId156" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{EECFB9B8-49DD-48F5-8AEC-0BCD5EB48BE6}"/>
-    <hyperlink ref="B81" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{CB163C60-DBC2-4DB7-964A-40CF3AA703B5}"/>
-    <hyperlink ref="N81" r:id="rId158" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{42E1570D-6074-494F-A461-4862B4615C25}"/>
-    <hyperlink ref="B82" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{4AE87987-4240-4BFE-9A95-D9B16E0E7CB6}"/>
-    <hyperlink ref="N82" r:id="rId160" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{46F2E912-DD9C-400B-BC46-C1A893BB6B3B}"/>
-    <hyperlink ref="B83" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{7251D2ED-370E-40FF-A195-CD0DB3D048E7}"/>
-    <hyperlink ref="N83" r:id="rId162" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{3BC9612D-7A15-4954-A2C2-F06A4A2166E4}"/>
-    <hyperlink ref="B84" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{483326DF-1499-4CC1-BA7C-D4E52D66C6B6}"/>
-    <hyperlink ref="N84" r:id="rId164" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{A9F35B97-CC29-448F-8892-C18DE314111E}"/>
-    <hyperlink ref="B85" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{97AB051B-ACCB-457D-BE55-E0048AE52022}"/>
-    <hyperlink ref="N85" r:id="rId166" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{5658A7E5-0224-4973-A096-14075C5F103C}"/>
-    <hyperlink ref="B86" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{284410AC-6737-4038-81F7-3CD47F4D8C10}"/>
-    <hyperlink ref="N86" r:id="rId168" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{88F767B8-1795-4ECA-80A0-87E8CCD73ABA}"/>
-    <hyperlink ref="B87" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{75CBD4BF-876D-4391-A93B-48DD76D85F55}"/>
-    <hyperlink ref="N87" r:id="rId170" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{A7C6015C-13B6-469D-90A1-F4E0E3F1FDBF}"/>
-    <hyperlink ref="B88" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{B6F19E9A-0E1F-4723-B64A-E90B6467CA6D}"/>
-    <hyperlink ref="N88" r:id="rId172" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{B93BA257-3BA5-4D84-BA42-27A34C6523DF}"/>
-    <hyperlink ref="B89" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{68E4837D-C3C4-409B-8D7E-773F2BABFF3A}"/>
-    <hyperlink ref="N89" r:id="rId174" display="https://www.worldometers.info/world-population/new-zealand-population/" xr:uid="{C7BAAAA9-68DA-4204-BA66-3748B08F8C4C}"/>
-    <hyperlink ref="B90" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{F8B13B2B-3760-49B9-80F4-52A79897FE58}"/>
-    <hyperlink ref="N90" r:id="rId176" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{20D8A09D-372E-42AE-BF65-9069BD4D7D89}"/>
-    <hyperlink ref="B91" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{09147C60-0FED-4E49-B99B-17F5ACE08D9A}"/>
-    <hyperlink ref="N91" r:id="rId178" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{03827362-60E7-4208-9E6D-6B60D0DEB817}"/>
-    <hyperlink ref="B92" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{C59C460B-57F4-4FAC-A023-829A3C3D5924}"/>
-    <hyperlink ref="N92" r:id="rId180" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{AE7DA745-202E-4545-AEA9-F5C83F774819}"/>
-    <hyperlink ref="B93" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{246FDECB-2CE8-411D-BC65-E30AFBA4E4CC}"/>
-    <hyperlink ref="N93" r:id="rId182" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{E6F27481-ECF7-461E-98A0-DD7992A63A39}"/>
-    <hyperlink ref="B94" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{3C142FE3-C160-4FFF-AFCC-C0FDC0496E43}"/>
-    <hyperlink ref="N94" r:id="rId184" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{68882B67-AB25-47BC-95B0-16AFEDC7C557}"/>
-    <hyperlink ref="B95" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{538EFE60-F45C-4C75-8EE8-4F7894446598}"/>
-    <hyperlink ref="N95" r:id="rId186" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{8F43F6CF-EC9B-4372-8644-3EDD3F35CE42}"/>
-    <hyperlink ref="B96" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{94D4BCAE-4440-47A1-9F46-B4FDE66F429C}"/>
-    <hyperlink ref="N96" r:id="rId188" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{4C49EC5B-42AE-4145-ABFE-5DE83CF029E6}"/>
-    <hyperlink ref="B97" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{95E6945D-9EFF-4BDA-B5BC-D1B9B4D08E28}"/>
-    <hyperlink ref="N97" r:id="rId190" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{C0A8BB9A-DB19-4183-AED1-D52820C4F3B7}"/>
-    <hyperlink ref="B98" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{BB9E3BB3-9A29-458D-AF55-75CE280DAD3D}"/>
-    <hyperlink ref="N98" r:id="rId192" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{FDBBD87C-84FB-4EBB-BD91-68D8DF397E5B}"/>
-    <hyperlink ref="B99" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{08CAE30E-530D-4C6C-BB1D-C66F60058004}"/>
-    <hyperlink ref="N99" r:id="rId194" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{6DE3ECB9-8DE2-4BF0-B572-903E22595897}"/>
-    <hyperlink ref="B100" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{78A1F4B8-2466-4113-A221-D026990622C0}"/>
-    <hyperlink ref="N100" r:id="rId196" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{3DC61990-BE41-40C6-97AE-529BB423B43C}"/>
-    <hyperlink ref="B101" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{C3ED467F-AEA7-4EB6-AB31-99D01CC88144}"/>
-    <hyperlink ref="N101" r:id="rId198" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{69034A0F-B2D6-46FE-BC5B-D1C469AA2C8A}"/>
-    <hyperlink ref="B102" r:id="rId199" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{5DCB09AE-99FD-40DC-81CE-C27838828517}"/>
-    <hyperlink ref="N102" r:id="rId200" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{D4A8B032-AA48-4E28-8112-01E5184ECB52}"/>
-    <hyperlink ref="B103" r:id="rId201" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{A9A05336-B1A9-4A66-A2E2-1ABBF4574554}"/>
-    <hyperlink ref="N103" r:id="rId202" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{99FA170D-6D3F-47BD-BD5D-029128A59678}"/>
-    <hyperlink ref="B104" r:id="rId203" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{1D6F7E3D-FF0D-4CB7-B40E-37BDD0DE576A}"/>
-    <hyperlink ref="N104" r:id="rId204" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{D3963F99-D2D2-4C9D-82DF-89EEC01BC754}"/>
-    <hyperlink ref="B105" r:id="rId205" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{632505BC-1709-4D09-AC73-9CF5824F3D92}"/>
-    <hyperlink ref="N105" r:id="rId206" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{2A6F424D-B15D-4A3D-B153-7D502BC0CC33}"/>
-    <hyperlink ref="B106" r:id="rId207" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{1C875F8D-570B-42C7-A6CF-1F705678497E}"/>
-    <hyperlink ref="N106" r:id="rId208" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{770DDFF3-75FD-47ED-914D-83770E25A463}"/>
-    <hyperlink ref="B107" r:id="rId209" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{8B1EF6E7-8559-44A7-9ACE-C3541273CC66}"/>
-    <hyperlink ref="N107" r:id="rId210" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{41CC08B1-BD26-49DC-8CD2-2710FAC7C923}"/>
-    <hyperlink ref="B108" r:id="rId211" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{460B0431-7869-4245-B066-F4582A812961}"/>
-    <hyperlink ref="N108" r:id="rId212" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{988B24E0-F877-40A3-9AF1-05A00C603F2D}"/>
-    <hyperlink ref="B109" r:id="rId213" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{BF915651-289F-4091-89BE-6CDD88C95CBC}"/>
-    <hyperlink ref="N109" r:id="rId214" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{8960B066-A5FC-47E0-8FFB-6D260A8B8BC7}"/>
-    <hyperlink ref="B110" r:id="rId215" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{F7D33045-C624-478C-A47C-E0A24209A822}"/>
-    <hyperlink ref="N110" r:id="rId216" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{A1878DA9-5859-49DB-9B8C-B9C81407856E}"/>
-    <hyperlink ref="B111" r:id="rId217" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{F663A314-FE10-4202-A13F-437237A23A5F}"/>
-    <hyperlink ref="N111" r:id="rId218" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{5348F820-9501-48E9-9AC9-B8006DAEF597}"/>
-    <hyperlink ref="B112" r:id="rId219" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{BE248175-63CD-4FC9-8E97-6D11F9045C21}"/>
-    <hyperlink ref="N112" r:id="rId220" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{8997CB02-B461-404D-B68D-1FB203623A5F}"/>
-    <hyperlink ref="B113" r:id="rId221" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{02E811B9-F340-4D4C-AE52-C08486FC17AD}"/>
-    <hyperlink ref="N113" r:id="rId222" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{1F29CFE5-E2B5-4853-88D0-8953FF42FF68}"/>
-    <hyperlink ref="B114" r:id="rId223" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{E981B026-90DF-4AC5-8358-C7EB3FAF884F}"/>
-    <hyperlink ref="N114" r:id="rId224" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{C2A65E6F-EFB4-490E-90DB-49B7303D95FB}"/>
-    <hyperlink ref="B115" r:id="rId225" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{FA42FBB2-4E99-4E6B-83A0-B4EACCE25793}"/>
-    <hyperlink ref="N115" r:id="rId226" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{C5BDD1A6-5638-406B-8E3D-3BF091F8239F}"/>
-    <hyperlink ref="B116" r:id="rId227" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{1835E912-3EBE-41CC-925F-A2AEE5BF997B}"/>
-    <hyperlink ref="N116" r:id="rId228" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{1311231A-8842-423C-A49F-053DAEA79348}"/>
-    <hyperlink ref="B118" r:id="rId229" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{42F12F64-10E6-4AE2-81DC-ADB4E072A81A}"/>
-    <hyperlink ref="N118" r:id="rId230" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{298BC46F-76A2-4818-8F43-06ACD2E94786}"/>
-    <hyperlink ref="B119" r:id="rId231" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{CE9A3CF6-8DA0-40D4-9E12-F954EE5D1A0D}"/>
-    <hyperlink ref="N119" r:id="rId232" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{3AD4265C-9FD6-4DAC-9506-6F836879CE9E}"/>
-    <hyperlink ref="B120" r:id="rId233" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{EB8AA6EE-AF46-41DC-A5BC-ECCEBF23BDF4}"/>
-    <hyperlink ref="N120" r:id="rId234" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{AD7FA9B3-2AF9-4D18-BC89-480543F2C56D}"/>
-    <hyperlink ref="B121" r:id="rId235" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{A05A34A4-8318-4197-A8BF-55422DD663A2}"/>
-    <hyperlink ref="N121" r:id="rId236" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{1D9D97CE-85F8-4567-B554-6C1A4591CA79}"/>
-    <hyperlink ref="B122" r:id="rId237" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{D538A7B6-EEA8-4E27-AFDA-D718CD70550A}"/>
-    <hyperlink ref="N122" r:id="rId238" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{0ECA2E34-EDEA-41BA-B6DB-9FDA46AA1ABC}"/>
-    <hyperlink ref="B123" r:id="rId239" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{2233383A-6A19-432E-9F93-325ADC46C4EE}"/>
-    <hyperlink ref="N123" r:id="rId240" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{76B4BF82-26EB-4212-9E8A-6E70185E13DC}"/>
-    <hyperlink ref="B124" r:id="rId241" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{4E61EE92-179B-4BC6-84C8-555F9BFA7622}"/>
-    <hyperlink ref="N124" r:id="rId242" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{E30A4023-86FE-4699-B2D9-DB8E1F8120DF}"/>
-    <hyperlink ref="B125" r:id="rId243" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{ABC865FE-35E6-4E84-8069-91F02E3D48F3}"/>
-    <hyperlink ref="N125" r:id="rId244" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{90D07534-CCC6-4A05-B201-543E10EF2A24}"/>
-    <hyperlink ref="B126" r:id="rId245" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{F80D5847-FEE0-4896-8116-C1F2B8EDF99B}"/>
-    <hyperlink ref="N126" r:id="rId246" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{C7725918-43AC-4051-B0D9-602BEDA746A5}"/>
-    <hyperlink ref="B127" r:id="rId247" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{EB11592C-838D-4AAB-8CC8-FC00E3354533}"/>
-    <hyperlink ref="N127" r:id="rId248" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{25897A84-6F4A-4898-B4F9-F03CE2BBD577}"/>
-    <hyperlink ref="B128" r:id="rId249" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{A48C00CF-2ECD-4E26-89F8-53D782680C4B}"/>
-    <hyperlink ref="N128" r:id="rId250" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{4CE10D33-0435-474A-9E0F-586B319A89EE}"/>
-    <hyperlink ref="B129" r:id="rId251" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{21C16B4B-796C-4AB7-AF8B-3FFE7AF6A150}"/>
-    <hyperlink ref="N129" r:id="rId252" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{F1254AA1-F922-4A6D-B135-8EF4502B2BFD}"/>
-    <hyperlink ref="B130" r:id="rId253" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{3177670B-B6A8-43C6-9FA3-E17C3344A7FD}"/>
-    <hyperlink ref="N130" r:id="rId254" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{60A81034-75E0-4126-B07A-24DB8C90F406}"/>
-    <hyperlink ref="B131" r:id="rId255" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{21912874-A236-484F-B0FA-B6A620973F2B}"/>
-    <hyperlink ref="N131" r:id="rId256" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{F2F450EA-2290-431D-8032-276E732D32E6}"/>
-    <hyperlink ref="B132" r:id="rId257" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{4B8F9530-E11E-413E-85E7-805E0D99A04A}"/>
-    <hyperlink ref="N132" r:id="rId258" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{76D49451-B8E7-4CE3-B7CA-86BAE82FD6D5}"/>
-    <hyperlink ref="B133" r:id="rId259" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{41CFF11F-C4B1-4914-A2E9-B6D82BEE4B32}"/>
-    <hyperlink ref="N133" r:id="rId260" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{60615850-8447-4A52-9E26-DA8036220524}"/>
-    <hyperlink ref="B134" r:id="rId261" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{EE6075CA-C696-4457-A15F-7E68952ECF7C}"/>
-    <hyperlink ref="N134" r:id="rId262" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{08C040A8-09E2-4A75-AFBF-AC83127CF286}"/>
-    <hyperlink ref="B135" r:id="rId263" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{64C90AB0-492B-4863-B618-63A88C665433}"/>
-    <hyperlink ref="N135" r:id="rId264" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{3E99EC9B-F8D7-43D8-9A04-00F3489355D0}"/>
-    <hyperlink ref="B136" r:id="rId265" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{091B75B9-4030-4331-89BF-37A1CBA89410}"/>
-    <hyperlink ref="N136" r:id="rId266" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{74C58D0C-D830-41EC-90B5-9ED2583ED6BB}"/>
-    <hyperlink ref="B137" r:id="rId267" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{444D9530-FDB9-4E14-A890-A96A4FD27BCC}"/>
-    <hyperlink ref="N137" r:id="rId268" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{0461C898-73A5-43DF-B258-A209BC49133E}"/>
-    <hyperlink ref="B138" r:id="rId269" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{C14C6D58-04B9-478F-8753-AFB7150291DE}"/>
-    <hyperlink ref="N138" r:id="rId270" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{C1431689-6AC2-40A8-9A6C-7EBE3CA08A59}"/>
-    <hyperlink ref="B139" r:id="rId271" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{BB06A222-E456-4A2A-ADAD-86EA7BC71824}"/>
-    <hyperlink ref="N139" r:id="rId272" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{6CA6F64D-02B2-47FE-9F13-20C591FD1A8B}"/>
-    <hyperlink ref="B140" r:id="rId273" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{5A56CB84-E0C9-4F0F-92CC-5BDBD4204000}"/>
-    <hyperlink ref="N140" r:id="rId274" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{DCA288FB-BA45-4B23-ACD9-94325C876A05}"/>
-    <hyperlink ref="B141" r:id="rId275" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{34289438-46D7-48E2-BA07-944660D13773}"/>
-    <hyperlink ref="N141" r:id="rId276" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{C146766D-AC2D-48E0-97FF-A884147C2B39}"/>
-    <hyperlink ref="B142" r:id="rId277" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{C7087396-1CC1-470E-998B-76E46B9F1FDE}"/>
-    <hyperlink ref="N142" r:id="rId278" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{370AD930-8910-4900-9551-0145F1AFF9D3}"/>
-    <hyperlink ref="B143" r:id="rId279" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{E7843C5D-3A95-4EEE-A347-F0D2331DA57A}"/>
-    <hyperlink ref="N143" r:id="rId280" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{BF1B9567-F225-47D7-9579-31B6A6919119}"/>
-    <hyperlink ref="B144" r:id="rId281" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{41E94284-7716-4B80-8FAA-742F7EB09458}"/>
-    <hyperlink ref="N144" r:id="rId282" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{768E6D32-59F7-4696-83ED-00784A8640EC}"/>
-    <hyperlink ref="B145" r:id="rId283" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{5B76EAA2-A103-44FC-8899-39FAA2A9C19C}"/>
-    <hyperlink ref="N145" r:id="rId284" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{A63ADE5F-5EB8-4BD2-8FD7-1E3F5A58AE67}"/>
-    <hyperlink ref="B146" r:id="rId285" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{DFB43417-9B52-4395-B30F-26DBDE93EE0F}"/>
-    <hyperlink ref="N146" r:id="rId286" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{A445FF06-1779-4423-A3F8-7EA39299E37A}"/>
-    <hyperlink ref="B147" r:id="rId287" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{A1E0215D-EB45-4DE6-95EE-02A5AA805430}"/>
-    <hyperlink ref="N147" r:id="rId288" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{661F5B65-7137-4BB4-8B2E-0B2B47E952A6}"/>
-    <hyperlink ref="B148" r:id="rId289" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{0D0B00DE-D9A4-4D1D-8A52-4122177A2EB0}"/>
-    <hyperlink ref="N148" r:id="rId290" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{AD46D631-68F5-4ACF-A7E2-46430872A66F}"/>
-    <hyperlink ref="B149" r:id="rId291" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{8AE0EEC3-FED5-4D30-937A-300994F69FA1}"/>
-    <hyperlink ref="N149" r:id="rId292" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{7BFABB2F-62B3-47D9-951F-EB74AD00220B}"/>
-    <hyperlink ref="B150" r:id="rId293" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{2595474C-037C-45E1-9818-EF19A2E6848A}"/>
-    <hyperlink ref="N150" r:id="rId294" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{9B0AE1DF-F1C6-4EDF-AD6C-1FEDAA9F174F}"/>
-    <hyperlink ref="B151" r:id="rId295" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{981C6AD9-5D52-4C7D-8F23-B29EE207B459}"/>
-    <hyperlink ref="N151" r:id="rId296" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{C4D78398-EF31-46D7-9945-71B26AF92C2B}"/>
-    <hyperlink ref="B152" r:id="rId297" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{72E99343-1C67-4A97-9FC3-7AE556629FE0}"/>
-    <hyperlink ref="N152" r:id="rId298" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{1308C8EF-B19C-4FF2-A72A-83F747E8F485}"/>
-    <hyperlink ref="B153" r:id="rId299" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{9361964C-ECE3-4D6B-BE3F-7B23B2904BD6}"/>
-    <hyperlink ref="N153" r:id="rId300" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{3E6BF947-C7CB-4D6C-B369-A6A6EB0EBAEC}"/>
-    <hyperlink ref="B154" r:id="rId301" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{BCE25B46-4CE8-430A-A168-0EF6705DF835}"/>
-    <hyperlink ref="N154" r:id="rId302" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{7CFAEB56-4AEF-4A27-B5C2-940C3A1BF93D}"/>
-    <hyperlink ref="B155" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{FCC52AAF-A221-40CE-B279-C5C71B38FDE9}"/>
-    <hyperlink ref="N155" r:id="rId304" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{06CF8D6D-100A-46D5-9BD6-BBE1836B75B1}"/>
-    <hyperlink ref="B156" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{D2B43F8F-963B-4A65-8E3C-64BC5804D836}"/>
-    <hyperlink ref="N156" r:id="rId306" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{EEB562F4-491A-4D0D-B350-D8C110F3BFA4}"/>
-    <hyperlink ref="B157" r:id="rId307" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{917B3DC5-E1A2-4515-9683-D44131715BE9}"/>
-    <hyperlink ref="N157" r:id="rId308" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{D1216458-C322-483B-B7D0-F1E9557D5D48}"/>
-    <hyperlink ref="B158" r:id="rId309" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{59862B63-A65F-4879-99F5-162962CB3B8A}"/>
-    <hyperlink ref="N158" r:id="rId310" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{953E45D1-9557-42EC-899E-E41FAC1D0ACA}"/>
-    <hyperlink ref="B159" r:id="rId311" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{9B32F575-531B-4CC9-9267-0AEA2CF419C2}"/>
-    <hyperlink ref="N159" r:id="rId312" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{08B5EF70-9498-48D6-ACB4-A7677068E542}"/>
-    <hyperlink ref="B160" r:id="rId313" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{D7EFD0BF-9DBF-4910-841A-E577694F592F}"/>
-    <hyperlink ref="N160" r:id="rId314" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{F9443B30-7DF9-460A-A45D-C9F927B6176A}"/>
-    <hyperlink ref="B161" r:id="rId315" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{D8C59F0A-59AB-4B1F-B956-0127A7D9A97C}"/>
-    <hyperlink ref="N161" r:id="rId316" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{37636E41-EFAE-47AD-B795-48F7F282201C}"/>
-    <hyperlink ref="B162" r:id="rId317" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{5F21FF89-02B3-4F45-925E-EB74FF570733}"/>
-    <hyperlink ref="N162" r:id="rId318" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{B64F8677-7CBD-4000-9D23-C52B0548E6CA}"/>
-    <hyperlink ref="B163" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{489156AC-DF8F-4DBF-9F6C-D029FCD7FE3F}"/>
-    <hyperlink ref="N163" r:id="rId320" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{ADCA8F8F-4694-41A8-9CC8-67F82F9491B3}"/>
-    <hyperlink ref="B164" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{AD00A225-79CC-4C8F-9F9C-1474B5F5A8D2}"/>
-    <hyperlink ref="N164" r:id="rId322" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{FF1B2431-7261-4E55-A753-7DE21C5D29DD}"/>
-    <hyperlink ref="B165" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{DDD9D909-FA9D-47D8-961D-9E1CD7DF1DC8}"/>
-    <hyperlink ref="N165" r:id="rId324" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{E21CD442-4881-4D38-93FE-5274D9B1C028}"/>
-    <hyperlink ref="B166" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{9F980357-A5FD-4EA4-BE61-0924098B581E}"/>
-    <hyperlink ref="N166" r:id="rId326" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{2F42A326-B88D-48D4-BBD8-4797D8B0CF99}"/>
-    <hyperlink ref="B167" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{2FC39F71-D755-433B-826D-BC2839A900C0}"/>
-    <hyperlink ref="N167" r:id="rId328" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{7F259F53-C4A8-4B2E-9523-ECBE50A2B3C6}"/>
-    <hyperlink ref="B168" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{421D4F47-2DE2-4B47-B2C9-E09E45AE9835}"/>
-    <hyperlink ref="N168" r:id="rId330" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{4E86191D-5248-4A0B-A213-13A261A3CE22}"/>
-    <hyperlink ref="B169" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{45BDA7ED-B664-4D5D-8153-F57993091B8B}"/>
-    <hyperlink ref="N169" r:id="rId332" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{1B3141BE-6804-43E4-B575-36E5B9D1BEE2}"/>
-    <hyperlink ref="B170" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{DDFEA2EE-37B8-44DF-BCDD-218F35726C51}"/>
-    <hyperlink ref="N170" r:id="rId334" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{6BE730C3-FD81-4A95-BDCE-22DE59879F88}"/>
-    <hyperlink ref="B171" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{47959842-E05D-43DC-8322-A95F8566E0BA}"/>
-    <hyperlink ref="N171" r:id="rId336" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{0D4B52C3-7A0A-42CB-AF95-3823151F635F}"/>
-    <hyperlink ref="B172" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{4A442820-715E-4305-A4C6-FC7E94F0DA3A}"/>
-    <hyperlink ref="N172" r:id="rId338" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{35C571BF-AACE-4B82-A544-F3200A9A2E62}"/>
-    <hyperlink ref="B173" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{0D8FAEE5-DBCB-41B0-9871-4E80EF2A7321}"/>
-    <hyperlink ref="N173" r:id="rId340" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{BEAA3537-76BE-4C3D-A33B-E2C2C100017F}"/>
-    <hyperlink ref="B174" r:id="rId341" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{7EE8397F-FE14-4E79-A0BB-47BE28461E14}"/>
-    <hyperlink ref="N174" r:id="rId342" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{2FDFD14E-521C-45DF-8B6F-6C90DD97FC51}"/>
-    <hyperlink ref="B175" r:id="rId343" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{87011291-225D-4446-9A41-94B1C128E1D3}"/>
-    <hyperlink ref="N175" r:id="rId344" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{E624E9DE-CFE1-4DC4-AA5D-A1922F34CEC9}"/>
-    <hyperlink ref="B176" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{0DAB4DE1-5215-4BBA-8BD5-53AFCF3E9B4A}"/>
-    <hyperlink ref="N176" r:id="rId346" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{30FD49E1-9FDE-416C-AD3A-5043D8B002FE}"/>
-    <hyperlink ref="B177" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{7D0CBD0B-AE4D-4BF9-AA81-D5FE0336EC4F}"/>
-    <hyperlink ref="N177" r:id="rId348" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{CF35623A-8BF6-4C5E-8AA9-96C997A449F2}"/>
-    <hyperlink ref="B178" r:id="rId349" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{8DBA581C-54A1-4EFE-B91A-9893C8EE70BD}"/>
-    <hyperlink ref="N178" r:id="rId350" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{1CE2FAF5-9F2D-4F2C-AF51-0A18BB7523CA}"/>
-    <hyperlink ref="B179" r:id="rId351" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{F5C70E21-1388-42E9-B591-27274E1E262A}"/>
-    <hyperlink ref="N179" r:id="rId352" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{40A9F0C2-6590-407E-9A47-FE1241D3C787}"/>
-    <hyperlink ref="B180" r:id="rId353" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{3FC10A88-7202-4E5A-9EBB-7A785F848F66}"/>
-    <hyperlink ref="N180" r:id="rId354" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{414817FE-14E0-4F85-BD57-F743EC78FAC0}"/>
-    <hyperlink ref="B181" r:id="rId355" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{C613D22B-D7B8-4E46-9A49-42CDB0270786}"/>
-    <hyperlink ref="N181" r:id="rId356" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{0FBC32AA-C5D4-4BD2-A2B3-C67EFE3581EA}"/>
-    <hyperlink ref="B182" r:id="rId357" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{AA2A8B95-5DE8-454A-AD08-1F7E79409CB6}"/>
-    <hyperlink ref="N182" r:id="rId358" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{11AD277D-B1A4-4BC0-A2C7-C24A35ED036C}"/>
-    <hyperlink ref="B183" r:id="rId359" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{9B333E7F-CEFD-4E97-92E4-C0FFA389F56C}"/>
-    <hyperlink ref="N183" r:id="rId360" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{19ED2805-C10B-43F9-84A4-5B051879972E}"/>
-    <hyperlink ref="B184" r:id="rId361" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{04C3E3B7-E2C9-4133-85AA-F6C04BD54C92}"/>
-    <hyperlink ref="N184" r:id="rId362" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{33E217DD-5ABE-4405-B2DA-D04C4C92F623}"/>
-    <hyperlink ref="B185" r:id="rId363" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{9AF56DC1-8D9C-4FB8-8795-BEE9DA906D00}"/>
-    <hyperlink ref="N185" r:id="rId364" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{BAC771D1-0E8B-4048-83BC-EF2EA9E357A2}"/>
-    <hyperlink ref="B186" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{CDF21CD0-E7D2-4A91-8228-550F92A1181A}"/>
-    <hyperlink ref="N186" r:id="rId366" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{B470DD1D-68B8-49CD-A9B0-90DC9D0DAE2C}"/>
-    <hyperlink ref="B187" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{249E9EAD-B0C6-484C-AC83-5C2927AE5843}"/>
-    <hyperlink ref="N187" r:id="rId368" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{187B1594-6040-4183-A976-43EBDF6BAF4C}"/>
-    <hyperlink ref="B188" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{45266041-E1E6-44FE-8736-54837E8DC047}"/>
-    <hyperlink ref="N188" r:id="rId370" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{17B23FB0-CA79-48C5-90EA-A5994FC42F75}"/>
-    <hyperlink ref="B189" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{E3E5E805-1449-45B6-BCE0-441B816705BF}"/>
-    <hyperlink ref="N189" r:id="rId372" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{877F5529-24ED-4B41-933C-FE723138A669}"/>
-    <hyperlink ref="B190" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{A7D3E94D-B010-4DC4-AD68-24720A0CC468}"/>
-    <hyperlink ref="N190" r:id="rId374" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{917608AE-77D5-444D-B703-05BDEA4B7EFC}"/>
-    <hyperlink ref="B191" r:id="rId375" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{61F70375-8E19-406E-B042-B84C329044C4}"/>
-    <hyperlink ref="N191" r:id="rId376" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{7EFC3179-FD63-49B8-9ED2-9864A463C809}"/>
-    <hyperlink ref="B192" r:id="rId377" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{780DBD1F-9E32-41EF-B6BF-1AA80F79DBE4}"/>
-    <hyperlink ref="N192" r:id="rId378" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{223B15CA-278D-449E-8A66-CFA85AC2DDCE}"/>
-    <hyperlink ref="B193" r:id="rId379" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{4B9D4575-1828-454E-A8E9-9E7568A7A546}"/>
-    <hyperlink ref="N193" r:id="rId380" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{51C2E91F-835D-46CA-AFF4-98287CA1BB6F}"/>
-    <hyperlink ref="B194" r:id="rId381" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{59105C13-194D-4F4F-AB99-85A6D63A7CAC}"/>
-    <hyperlink ref="N194" r:id="rId382" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{41AEF139-235F-42A4-8698-D5F3A4DC4900}"/>
-    <hyperlink ref="B195" r:id="rId383" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{D14EE94E-AE49-435E-97A1-07B04867E7EA}"/>
-    <hyperlink ref="N195" r:id="rId384" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{6461097A-FD67-4E6A-B0BE-4A3F65CD9736}"/>
-    <hyperlink ref="B196" r:id="rId385" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{7762DAAA-1BA8-45E2-B580-D16C3E21C198}"/>
-    <hyperlink ref="N196" r:id="rId386" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{32644875-697A-4F53-9B21-E4A5F6EC9122}"/>
-    <hyperlink ref="B197" r:id="rId387" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{99AF9AB3-810F-481C-A0C1-81A16396899C}"/>
-    <hyperlink ref="N197" r:id="rId388" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{7003B5E3-2F9E-47D7-88DF-07FACEFBD377}"/>
-    <hyperlink ref="B198" r:id="rId389" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{8E0A6A1D-D9FE-4A21-A7D0-2FC7E7312AE5}"/>
-    <hyperlink ref="N198" r:id="rId390" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{56A354AE-925C-4EA0-BD96-B28F42C81E1D}"/>
-    <hyperlink ref="B199" r:id="rId391" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{A245D004-ACAB-4225-B7B9-9DC524B22B19}"/>
-    <hyperlink ref="N199" r:id="rId392" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{7E4B53BB-6B16-4C71-88CE-B25C08C760C9}"/>
-    <hyperlink ref="B200" r:id="rId393" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{97BF1932-559C-4668-9ED5-67DA4223A7F8}"/>
-    <hyperlink ref="N200" r:id="rId394" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{31903C52-2C48-433B-AC1D-B81523CACB26}"/>
-    <hyperlink ref="B201" r:id="rId395" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{E76D6FEB-5DFF-4144-9A6C-0C24DA79A05B}"/>
-    <hyperlink ref="N201" r:id="rId396" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{641BB195-32A3-4026-B432-3B56F711ABEA}"/>
-    <hyperlink ref="B202" r:id="rId397" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{ACCC74D3-B00D-4010-935B-5E59A61B2010}"/>
-    <hyperlink ref="N202" r:id="rId398" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{A59908F8-1833-496C-A88E-ECDE1BC6D784}"/>
-    <hyperlink ref="B203" r:id="rId399" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{C2DF5E88-4047-442E-A10C-94A1048C4A82}"/>
-    <hyperlink ref="N203" r:id="rId400" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{1AF4F04A-772E-4E48-82C8-DD9C3AA3AB4A}"/>
-    <hyperlink ref="B204" r:id="rId401" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{3A131DB4-407F-4C8F-9A42-CC305747ED3D}"/>
-    <hyperlink ref="N204" r:id="rId402" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{6094B26E-A398-4718-BF22-0937A0DD7522}"/>
-    <hyperlink ref="B205" r:id="rId403" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{1B083BB9-BF90-4D11-964D-F1172644D387}"/>
-    <hyperlink ref="N205" r:id="rId404" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{726A5774-1D5A-48AD-86E3-3A7012F2AA5A}"/>
-    <hyperlink ref="B206" r:id="rId405" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{6EE8B9DD-E403-42BF-8FEB-39955B62DDA8}"/>
-    <hyperlink ref="N206" r:id="rId406" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{026CCE43-74E5-471B-867A-BC7D19DC280C}"/>
-    <hyperlink ref="B207" r:id="rId407" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{2CBB9208-7B36-41B6-ADC6-55A51CF8A120}"/>
-    <hyperlink ref="N207" r:id="rId408" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{87DCF399-E234-436B-97AF-A4692044A162}"/>
-    <hyperlink ref="B208" r:id="rId409" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{D881E067-758C-4FA8-B7E6-6CF9BBE883C0}"/>
-    <hyperlink ref="N208" r:id="rId410" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{CC3200FF-EF66-46FC-B2EB-1971A278AD5F}"/>
-    <hyperlink ref="B210" r:id="rId411" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{1EBEDF8B-B92A-4403-9E39-7C2E50C3AE98}"/>
-    <hyperlink ref="N210" r:id="rId412" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{960E12AB-CC0D-4CBA-ACFE-CDA2872D1B80}"/>
-    <hyperlink ref="B211" r:id="rId413" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{DB9E86BA-BFBA-4E02-9931-0725566C6D88}"/>
-    <hyperlink ref="N211" r:id="rId414" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{1E3BEAAE-D5DD-4263-B723-408341EAF5FE}"/>
-    <hyperlink ref="B212" r:id="rId415" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{48E9FE6E-CFD5-4232-96DB-FD2BC715F550}"/>
-    <hyperlink ref="N212" r:id="rId416" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{F5312CC1-A8B9-4EEF-8E18-50EACF5725F4}"/>
-    <hyperlink ref="B213" r:id="rId417" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{38A4E892-56DF-48FE-A942-BD4533FC9A85}"/>
-    <hyperlink ref="N213" r:id="rId418" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{B23D417F-14D2-4753-B33F-7BEE3B47A7B7}"/>
-    <hyperlink ref="B214" r:id="rId419" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{304FA368-6773-463A-B5A5-B818A9623AD0}"/>
-    <hyperlink ref="N214" r:id="rId420" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{E03AC95F-C60A-4E0A-BB67-DEB6C7706D5D}"/>
-    <hyperlink ref="B215" r:id="rId421" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{F6B450A7-4B1B-4F77-93EB-B90C11C87AC1}"/>
-    <hyperlink ref="N215" r:id="rId422" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{36A92A6B-670B-464F-94F1-0C8DB033B3A0}"/>
-    <hyperlink ref="B216" r:id="rId423" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{E68A72FB-09E3-4F23-8943-F18761870388}"/>
-    <hyperlink ref="N216" r:id="rId424" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{BCBBBF2B-300F-45C8-8933-9A3F928BA214}"/>
-    <hyperlink ref="B217" r:id="rId425" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{C0B14911-F6E0-48BE-9B61-4D3654AC26CE}"/>
-    <hyperlink ref="N217" r:id="rId426" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{0C930820-F0B0-41D5-BC7D-424FA56789AE}"/>
+    <hyperlink ref="N217" r:id="rId1" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{0C930820-F0B0-41D5-BC7D-424FA56789AE}"/>
+    <hyperlink ref="B217" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{C0B14911-F6E0-48BE-9B61-4D3654AC26CE}"/>
+    <hyperlink ref="N216" r:id="rId3" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{BCBBBF2B-300F-45C8-8933-9A3F928BA214}"/>
+    <hyperlink ref="B216" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{E68A72FB-09E3-4F23-8943-F18761870388}"/>
+    <hyperlink ref="N215" r:id="rId5" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{36A92A6B-670B-464F-94F1-0C8DB033B3A0}"/>
+    <hyperlink ref="B215" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{F6B450A7-4B1B-4F77-93EB-B90C11C87AC1}"/>
+    <hyperlink ref="N214" r:id="rId7" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{E03AC95F-C60A-4E0A-BB67-DEB6C7706D5D}"/>
+    <hyperlink ref="B214" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{304FA368-6773-463A-B5A5-B818A9623AD0}"/>
+    <hyperlink ref="N213" r:id="rId9" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{B23D417F-14D2-4753-B33F-7BEE3B47A7B7}"/>
+    <hyperlink ref="B213" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{38A4E892-56DF-48FE-A942-BD4533FC9A85}"/>
+    <hyperlink ref="N212" r:id="rId11" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{F5312CC1-A8B9-4EEF-8E18-50EACF5725F4}"/>
+    <hyperlink ref="B212" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{48E9FE6E-CFD5-4232-96DB-FD2BC715F550}"/>
+    <hyperlink ref="N211" r:id="rId13" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{1E3BEAAE-D5DD-4263-B723-408341EAF5FE}"/>
+    <hyperlink ref="B211" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{DB9E86BA-BFBA-4E02-9931-0725566C6D88}"/>
+    <hyperlink ref="N210" r:id="rId15" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{960E12AB-CC0D-4CBA-ACFE-CDA2872D1B80}"/>
+    <hyperlink ref="B210" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{1EBEDF8B-B92A-4403-9E39-7C2E50C3AE98}"/>
+    <hyperlink ref="N208" r:id="rId17" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{CC3200FF-EF66-46FC-B2EB-1971A278AD5F}"/>
+    <hyperlink ref="B208" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{D881E067-758C-4FA8-B7E6-6CF9BBE883C0}"/>
+    <hyperlink ref="N207" r:id="rId19" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{87DCF399-E234-436B-97AF-A4692044A162}"/>
+    <hyperlink ref="B207" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{2CBB9208-7B36-41B6-ADC6-55A51CF8A120}"/>
+    <hyperlink ref="N206" r:id="rId21" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{026CCE43-74E5-471B-867A-BC7D19DC280C}"/>
+    <hyperlink ref="B206" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{6EE8B9DD-E403-42BF-8FEB-39955B62DDA8}"/>
+    <hyperlink ref="N205" r:id="rId23" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{726A5774-1D5A-48AD-86E3-3A7012F2AA5A}"/>
+    <hyperlink ref="B205" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{1B083BB9-BF90-4D11-964D-F1172644D387}"/>
+    <hyperlink ref="N204" r:id="rId25" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{6094B26E-A398-4718-BF22-0937A0DD7522}"/>
+    <hyperlink ref="B204" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{3A131DB4-407F-4C8F-9A42-CC305747ED3D}"/>
+    <hyperlink ref="N203" r:id="rId27" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{1AF4F04A-772E-4E48-82C8-DD9C3AA3AB4A}"/>
+    <hyperlink ref="B203" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{C2DF5E88-4047-442E-A10C-94A1048C4A82}"/>
+    <hyperlink ref="N202" r:id="rId29" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{A59908F8-1833-496C-A88E-ECDE1BC6D784}"/>
+    <hyperlink ref="B202" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{ACCC74D3-B00D-4010-935B-5E59A61B2010}"/>
+    <hyperlink ref="N201" r:id="rId31" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{641BB195-32A3-4026-B432-3B56F711ABEA}"/>
+    <hyperlink ref="B201" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{E76D6FEB-5DFF-4144-9A6C-0C24DA79A05B}"/>
+    <hyperlink ref="N200" r:id="rId33" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{31903C52-2C48-433B-AC1D-B81523CACB26}"/>
+    <hyperlink ref="B200" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{97BF1932-559C-4668-9ED5-67DA4223A7F8}"/>
+    <hyperlink ref="N199" r:id="rId35" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{7E4B53BB-6B16-4C71-88CE-B25C08C760C9}"/>
+    <hyperlink ref="B199" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{A245D004-ACAB-4225-B7B9-9DC524B22B19}"/>
+    <hyperlink ref="N198" r:id="rId37" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{56A354AE-925C-4EA0-BD96-B28F42C81E1D}"/>
+    <hyperlink ref="B198" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{8E0A6A1D-D9FE-4A21-A7D0-2FC7E7312AE5}"/>
+    <hyperlink ref="N197" r:id="rId39" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{7003B5E3-2F9E-47D7-88DF-07FACEFBD377}"/>
+    <hyperlink ref="B197" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{99AF9AB3-810F-481C-A0C1-81A16396899C}"/>
+    <hyperlink ref="N196" r:id="rId41" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{32644875-697A-4F53-9B21-E4A5F6EC9122}"/>
+    <hyperlink ref="B196" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{7762DAAA-1BA8-45E2-B580-D16C3E21C198}"/>
+    <hyperlink ref="N195" r:id="rId43" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{6461097A-FD67-4E6A-B0BE-4A3F65CD9736}"/>
+    <hyperlink ref="B195" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{D14EE94E-AE49-435E-97A1-07B04867E7EA}"/>
+    <hyperlink ref="N194" r:id="rId45" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{41AEF139-235F-42A4-8698-D5F3A4DC4900}"/>
+    <hyperlink ref="B194" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{59105C13-194D-4F4F-AB99-85A6D63A7CAC}"/>
+    <hyperlink ref="N193" r:id="rId47" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{51C2E91F-835D-46CA-AFF4-98287CA1BB6F}"/>
+    <hyperlink ref="B193" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{4B9D4575-1828-454E-A8E9-9E7568A7A546}"/>
+    <hyperlink ref="N192" r:id="rId49" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{223B15CA-278D-449E-8A66-CFA85AC2DDCE}"/>
+    <hyperlink ref="B192" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{780DBD1F-9E32-41EF-B6BF-1AA80F79DBE4}"/>
+    <hyperlink ref="N191" r:id="rId51" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{7EFC3179-FD63-49B8-9ED2-9864A463C809}"/>
+    <hyperlink ref="B191" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{61F70375-8E19-406E-B042-B84C329044C4}"/>
+    <hyperlink ref="N190" r:id="rId53" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{917608AE-77D5-444D-B703-05BDEA4B7EFC}"/>
+    <hyperlink ref="B190" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{A7D3E94D-B010-4DC4-AD68-24720A0CC468}"/>
+    <hyperlink ref="N189" r:id="rId55" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{877F5529-24ED-4B41-933C-FE723138A669}"/>
+    <hyperlink ref="B189" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{E3E5E805-1449-45B6-BCE0-441B816705BF}"/>
+    <hyperlink ref="N188" r:id="rId57" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{17B23FB0-CA79-48C5-90EA-A5994FC42F75}"/>
+    <hyperlink ref="B188" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{45266041-E1E6-44FE-8736-54837E8DC047}"/>
+    <hyperlink ref="N187" r:id="rId59" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{187B1594-6040-4183-A976-43EBDF6BAF4C}"/>
+    <hyperlink ref="B187" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{249E9EAD-B0C6-484C-AC83-5C2927AE5843}"/>
+    <hyperlink ref="N186" r:id="rId61" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{B470DD1D-68B8-49CD-A9B0-90DC9D0DAE2C}"/>
+    <hyperlink ref="B186" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{CDF21CD0-E7D2-4A91-8228-550F92A1181A}"/>
+    <hyperlink ref="N185" r:id="rId63" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{BAC771D1-0E8B-4048-83BC-EF2EA9E357A2}"/>
+    <hyperlink ref="B185" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{9AF56DC1-8D9C-4FB8-8795-BEE9DA906D00}"/>
+    <hyperlink ref="N184" r:id="rId65" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{33E217DD-5ABE-4405-B2DA-D04C4C92F623}"/>
+    <hyperlink ref="B184" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{04C3E3B7-E2C9-4133-85AA-F6C04BD54C92}"/>
+    <hyperlink ref="N183" r:id="rId67" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{19ED2805-C10B-43F9-84A4-5B051879972E}"/>
+    <hyperlink ref="B183" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{9B333E7F-CEFD-4E97-92E4-C0FFA389F56C}"/>
+    <hyperlink ref="N182" r:id="rId69" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{11AD277D-B1A4-4BC0-A2C7-C24A35ED036C}"/>
+    <hyperlink ref="B182" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{AA2A8B95-5DE8-454A-AD08-1F7E79409CB6}"/>
+    <hyperlink ref="N181" r:id="rId71" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{0FBC32AA-C5D4-4BD2-A2B3-C67EFE3581EA}"/>
+    <hyperlink ref="B181" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{C613D22B-D7B8-4E46-9A49-42CDB0270786}"/>
+    <hyperlink ref="N180" r:id="rId73" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{414817FE-14E0-4F85-BD57-F743EC78FAC0}"/>
+    <hyperlink ref="B180" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{3FC10A88-7202-4E5A-9EBB-7A785F848F66}"/>
+    <hyperlink ref="N179" r:id="rId75" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{40A9F0C2-6590-407E-9A47-FE1241D3C787}"/>
+    <hyperlink ref="B179" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{F5C70E21-1388-42E9-B591-27274E1E262A}"/>
+    <hyperlink ref="N178" r:id="rId77" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{1CE2FAF5-9F2D-4F2C-AF51-0A18BB7523CA}"/>
+    <hyperlink ref="B178" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{8DBA581C-54A1-4EFE-B91A-9893C8EE70BD}"/>
+    <hyperlink ref="N177" r:id="rId79" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{CF35623A-8BF6-4C5E-8AA9-96C997A449F2}"/>
+    <hyperlink ref="B177" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{7D0CBD0B-AE4D-4BF9-AA81-D5FE0336EC4F}"/>
+    <hyperlink ref="N176" r:id="rId81" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{30FD49E1-9FDE-416C-AD3A-5043D8B002FE}"/>
+    <hyperlink ref="B176" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{0DAB4DE1-5215-4BBA-8BD5-53AFCF3E9B4A}"/>
+    <hyperlink ref="N175" r:id="rId83" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{E624E9DE-CFE1-4DC4-AA5D-A1922F34CEC9}"/>
+    <hyperlink ref="B175" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{87011291-225D-4446-9A41-94B1C128E1D3}"/>
+    <hyperlink ref="N174" r:id="rId85" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{2FDFD14E-521C-45DF-8B6F-6C90DD97FC51}"/>
+    <hyperlink ref="B174" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{7EE8397F-FE14-4E79-A0BB-47BE28461E14}"/>
+    <hyperlink ref="N173" r:id="rId87" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{BEAA3537-76BE-4C3D-A33B-E2C2C100017F}"/>
+    <hyperlink ref="B173" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{0D8FAEE5-DBCB-41B0-9871-4E80EF2A7321}"/>
+    <hyperlink ref="N172" r:id="rId89" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{35C571BF-AACE-4B82-A544-F3200A9A2E62}"/>
+    <hyperlink ref="B172" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{4A442820-715E-4305-A4C6-FC7E94F0DA3A}"/>
+    <hyperlink ref="N171" r:id="rId91" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{0D4B52C3-7A0A-42CB-AF95-3823151F635F}"/>
+    <hyperlink ref="B171" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{47959842-E05D-43DC-8322-A95F8566E0BA}"/>
+    <hyperlink ref="N170" r:id="rId93" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{6BE730C3-FD81-4A95-BDCE-22DE59879F88}"/>
+    <hyperlink ref="B170" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{DDFEA2EE-37B8-44DF-BCDD-218F35726C51}"/>
+    <hyperlink ref="N169" r:id="rId95" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{1B3141BE-6804-43E4-B575-36E5B9D1BEE2}"/>
+    <hyperlink ref="B169" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{45BDA7ED-B664-4D5D-8153-F57993091B8B}"/>
+    <hyperlink ref="N168" r:id="rId97" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{4E86191D-5248-4A0B-A213-13A261A3CE22}"/>
+    <hyperlink ref="B168" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{421D4F47-2DE2-4B47-B2C9-E09E45AE9835}"/>
+    <hyperlink ref="N167" r:id="rId99" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{7F259F53-C4A8-4B2E-9523-ECBE50A2B3C6}"/>
+    <hyperlink ref="B167" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{2FC39F71-D755-433B-826D-BC2839A900C0}"/>
+    <hyperlink ref="N166" r:id="rId101" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{2F42A326-B88D-48D4-BBD8-4797D8B0CF99}"/>
+    <hyperlink ref="B166" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{9F980357-A5FD-4EA4-BE61-0924098B581E}"/>
+    <hyperlink ref="N165" r:id="rId103" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{E21CD442-4881-4D38-93FE-5274D9B1C028}"/>
+    <hyperlink ref="B165" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{DDD9D909-FA9D-47D8-961D-9E1CD7DF1DC8}"/>
+    <hyperlink ref="N164" r:id="rId105" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{FF1B2431-7261-4E55-A753-7DE21C5D29DD}"/>
+    <hyperlink ref="B164" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{AD00A225-79CC-4C8F-9F9C-1474B5F5A8D2}"/>
+    <hyperlink ref="N163" r:id="rId107" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{ADCA8F8F-4694-41A8-9CC8-67F82F9491B3}"/>
+    <hyperlink ref="B163" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{489156AC-DF8F-4DBF-9F6C-D029FCD7FE3F}"/>
+    <hyperlink ref="N162" r:id="rId109" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{B64F8677-7CBD-4000-9D23-C52B0548E6CA}"/>
+    <hyperlink ref="B162" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{5F21FF89-02B3-4F45-925E-EB74FF570733}"/>
+    <hyperlink ref="N161" r:id="rId111" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{37636E41-EFAE-47AD-B795-48F7F282201C}"/>
+    <hyperlink ref="B161" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{D8C59F0A-59AB-4B1F-B956-0127A7D9A97C}"/>
+    <hyperlink ref="N160" r:id="rId113" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{F9443B30-7DF9-460A-A45D-C9F927B6176A}"/>
+    <hyperlink ref="B160" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{D7EFD0BF-9DBF-4910-841A-E577694F592F}"/>
+    <hyperlink ref="N159" r:id="rId115" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{08B5EF70-9498-48D6-ACB4-A7677068E542}"/>
+    <hyperlink ref="B159" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{9B32F575-531B-4CC9-9267-0AEA2CF419C2}"/>
+    <hyperlink ref="N158" r:id="rId117" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{953E45D1-9557-42EC-899E-E41FAC1D0ACA}"/>
+    <hyperlink ref="B158" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{59862B63-A65F-4879-99F5-162962CB3B8A}"/>
+    <hyperlink ref="N157" r:id="rId119" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{D1216458-C322-483B-B7D0-F1E9557D5D48}"/>
+    <hyperlink ref="B157" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{917B3DC5-E1A2-4515-9683-D44131715BE9}"/>
+    <hyperlink ref="N156" r:id="rId121" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{EEB562F4-491A-4D0D-B350-D8C110F3BFA4}"/>
+    <hyperlink ref="B156" r:id="rId122" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{D2B43F8F-963B-4A65-8E3C-64BC5804D836}"/>
+    <hyperlink ref="N155" r:id="rId123" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{06CF8D6D-100A-46D5-9BD6-BBE1836B75B1}"/>
+    <hyperlink ref="B155" r:id="rId124" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{FCC52AAF-A221-40CE-B279-C5C71B38FDE9}"/>
+    <hyperlink ref="N154" r:id="rId125" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{7CFAEB56-4AEF-4A27-B5C2-940C3A1BF93D}"/>
+    <hyperlink ref="B154" r:id="rId126" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{BCE25B46-4CE8-430A-A168-0EF6705DF835}"/>
+    <hyperlink ref="N153" r:id="rId127" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{3E6BF947-C7CB-4D6C-B369-A6A6EB0EBAEC}"/>
+    <hyperlink ref="B153" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{9361964C-ECE3-4D6B-BE3F-7B23B2904BD6}"/>
+    <hyperlink ref="N152" r:id="rId129" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{1308C8EF-B19C-4FF2-A72A-83F747E8F485}"/>
+    <hyperlink ref="B152" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{72E99343-1C67-4A97-9FC3-7AE556629FE0}"/>
+    <hyperlink ref="N151" r:id="rId131" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{C4D78398-EF31-46D7-9945-71B26AF92C2B}"/>
+    <hyperlink ref="B151" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{981C6AD9-5D52-4C7D-8F23-B29EE207B459}"/>
+    <hyperlink ref="N150" r:id="rId133" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{9B0AE1DF-F1C6-4EDF-AD6C-1FEDAA9F174F}"/>
+    <hyperlink ref="B150" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{2595474C-037C-45E1-9818-EF19A2E6848A}"/>
+    <hyperlink ref="N149" r:id="rId135" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{7BFABB2F-62B3-47D9-951F-EB74AD00220B}"/>
+    <hyperlink ref="B149" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{8AE0EEC3-FED5-4D30-937A-300994F69FA1}"/>
+    <hyperlink ref="N148" r:id="rId137" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{AD46D631-68F5-4ACF-A7E2-46430872A66F}"/>
+    <hyperlink ref="B148" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{0D0B00DE-D9A4-4D1D-8A52-4122177A2EB0}"/>
+    <hyperlink ref="N147" r:id="rId139" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{661F5B65-7137-4BB4-8B2E-0B2B47E952A6}"/>
+    <hyperlink ref="B147" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{A1E0215D-EB45-4DE6-95EE-02A5AA805430}"/>
+    <hyperlink ref="N146" r:id="rId141" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{A445FF06-1779-4423-A3F8-7EA39299E37A}"/>
+    <hyperlink ref="B146" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{DFB43417-9B52-4395-B30F-26DBDE93EE0F}"/>
+    <hyperlink ref="N145" r:id="rId143" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{A63ADE5F-5EB8-4BD2-8FD7-1E3F5A58AE67}"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{5B76EAA2-A103-44FC-8899-39FAA2A9C19C}"/>
+    <hyperlink ref="N144" r:id="rId145" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{768E6D32-59F7-4696-83ED-00784A8640EC}"/>
+    <hyperlink ref="B144" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{41E94284-7716-4B80-8FAA-742F7EB09458}"/>
+    <hyperlink ref="N143" r:id="rId147" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{BF1B9567-F225-47D7-9579-31B6A6919119}"/>
+    <hyperlink ref="B143" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{E7843C5D-3A95-4EEE-A347-F0D2331DA57A}"/>
+    <hyperlink ref="N142" r:id="rId149" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{370AD930-8910-4900-9551-0145F1AFF9D3}"/>
+    <hyperlink ref="B142" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{C7087396-1CC1-470E-998B-76E46B9F1FDE}"/>
+    <hyperlink ref="N141" r:id="rId151" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{C146766D-AC2D-48E0-97FF-A884147C2B39}"/>
+    <hyperlink ref="B141" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{34289438-46D7-48E2-BA07-944660D13773}"/>
+    <hyperlink ref="N140" r:id="rId153" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{DCA288FB-BA45-4B23-ACD9-94325C876A05}"/>
+    <hyperlink ref="B140" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{5A56CB84-E0C9-4F0F-92CC-5BDBD4204000}"/>
+    <hyperlink ref="N139" r:id="rId155" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{6CA6F64D-02B2-47FE-9F13-20C591FD1A8B}"/>
+    <hyperlink ref="B139" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{BB06A222-E456-4A2A-ADAD-86EA7BC71824}"/>
+    <hyperlink ref="N138" r:id="rId157" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{C1431689-6AC2-40A8-9A6C-7EBE3CA08A59}"/>
+    <hyperlink ref="B138" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{C14C6D58-04B9-478F-8753-AFB7150291DE}"/>
+    <hyperlink ref="N137" r:id="rId159" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{0461C898-73A5-43DF-B258-A209BC49133E}"/>
+    <hyperlink ref="B137" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{444D9530-FDB9-4E14-A890-A96A4FD27BCC}"/>
+    <hyperlink ref="N136" r:id="rId161" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{74C58D0C-D830-41EC-90B5-9ED2583ED6BB}"/>
+    <hyperlink ref="B136" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{091B75B9-4030-4331-89BF-37A1CBA89410}"/>
+    <hyperlink ref="N135" r:id="rId163" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{3E99EC9B-F8D7-43D8-9A04-00F3489355D0}"/>
+    <hyperlink ref="B135" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{64C90AB0-492B-4863-B618-63A88C665433}"/>
+    <hyperlink ref="N134" r:id="rId165" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{08C040A8-09E2-4A75-AFBF-AC83127CF286}"/>
+    <hyperlink ref="B134" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{EE6075CA-C696-4457-A15F-7E68952ECF7C}"/>
+    <hyperlink ref="N133" r:id="rId167" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{60615850-8447-4A52-9E26-DA8036220524}"/>
+    <hyperlink ref="B133" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{41CFF11F-C4B1-4914-A2E9-B6D82BEE4B32}"/>
+    <hyperlink ref="N132" r:id="rId169" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{76D49451-B8E7-4CE3-B7CA-86BAE82FD6D5}"/>
+    <hyperlink ref="B132" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{4B8F9530-E11E-413E-85E7-805E0D99A04A}"/>
+    <hyperlink ref="N131" r:id="rId171" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{F2F450EA-2290-431D-8032-276E732D32E6}"/>
+    <hyperlink ref="B131" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{21912874-A236-484F-B0FA-B6A620973F2B}"/>
+    <hyperlink ref="N130" r:id="rId173" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{60A81034-75E0-4126-B07A-24DB8C90F406}"/>
+    <hyperlink ref="B130" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{3177670B-B6A8-43C6-9FA3-E17C3344A7FD}"/>
+    <hyperlink ref="N129" r:id="rId175" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{F1254AA1-F922-4A6D-B135-8EF4502B2BFD}"/>
+    <hyperlink ref="B129" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{21C16B4B-796C-4AB7-AF8B-3FFE7AF6A150}"/>
+    <hyperlink ref="N128" r:id="rId177" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{4CE10D33-0435-474A-9E0F-586B319A89EE}"/>
+    <hyperlink ref="B128" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{A48C00CF-2ECD-4E26-89F8-53D782680C4B}"/>
+    <hyperlink ref="N127" r:id="rId179" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{25897A84-6F4A-4898-B4F9-F03CE2BBD577}"/>
+    <hyperlink ref="B127" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{EB11592C-838D-4AAB-8CC8-FC00E3354533}"/>
+    <hyperlink ref="N126" r:id="rId181" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{C7725918-43AC-4051-B0D9-602BEDA746A5}"/>
+    <hyperlink ref="B126" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{F80D5847-FEE0-4896-8116-C1F2B8EDF99B}"/>
+    <hyperlink ref="N125" r:id="rId183" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{90D07534-CCC6-4A05-B201-543E10EF2A24}"/>
+    <hyperlink ref="B125" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{ABC865FE-35E6-4E84-8069-91F02E3D48F3}"/>
+    <hyperlink ref="N124" r:id="rId185" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{E30A4023-86FE-4699-B2D9-DB8E1F8120DF}"/>
+    <hyperlink ref="B124" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{4E61EE92-179B-4BC6-84C8-555F9BFA7622}"/>
+    <hyperlink ref="N123" r:id="rId187" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{76B4BF82-26EB-4212-9E8A-6E70185E13DC}"/>
+    <hyperlink ref="B123" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{2233383A-6A19-432E-9F93-325ADC46C4EE}"/>
+    <hyperlink ref="N122" r:id="rId189" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{0ECA2E34-EDEA-41BA-B6DB-9FDA46AA1ABC}"/>
+    <hyperlink ref="B122" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{D538A7B6-EEA8-4E27-AFDA-D718CD70550A}"/>
+    <hyperlink ref="N121" r:id="rId191" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{1D9D97CE-85F8-4567-B554-6C1A4591CA79}"/>
+    <hyperlink ref="B121" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{A05A34A4-8318-4197-A8BF-55422DD663A2}"/>
+    <hyperlink ref="N120" r:id="rId193" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{AD7FA9B3-2AF9-4D18-BC89-480543F2C56D}"/>
+    <hyperlink ref="B120" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{EB8AA6EE-AF46-41DC-A5BC-ECCEBF23BDF4}"/>
+    <hyperlink ref="N119" r:id="rId195" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{3AD4265C-9FD6-4DAC-9506-6F836879CE9E}"/>
+    <hyperlink ref="B119" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{CE9A3CF6-8DA0-40D4-9E12-F954EE5D1A0D}"/>
+    <hyperlink ref="N118" r:id="rId197" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{298BC46F-76A2-4818-8F43-06ACD2E94786}"/>
+    <hyperlink ref="B118" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{42F12F64-10E6-4AE2-81DC-ADB4E072A81A}"/>
+    <hyperlink ref="N116" r:id="rId199" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{1311231A-8842-423C-A49F-053DAEA79348}"/>
+    <hyperlink ref="B116" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{1835E912-3EBE-41CC-925F-A2AEE5BF997B}"/>
+    <hyperlink ref="N115" r:id="rId201" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{C5BDD1A6-5638-406B-8E3D-3BF091F8239F}"/>
+    <hyperlink ref="B115" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{FA42FBB2-4E99-4E6B-83A0-B4EACCE25793}"/>
+    <hyperlink ref="N114" r:id="rId203" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{C2A65E6F-EFB4-490E-90DB-49B7303D95FB}"/>
+    <hyperlink ref="B114" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{E981B026-90DF-4AC5-8358-C7EB3FAF884F}"/>
+    <hyperlink ref="N113" r:id="rId205" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{1F29CFE5-E2B5-4853-88D0-8953FF42FF68}"/>
+    <hyperlink ref="B113" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{02E811B9-F340-4D4C-AE52-C08486FC17AD}"/>
+    <hyperlink ref="N112" r:id="rId207" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{8997CB02-B461-404D-B68D-1FB203623A5F}"/>
+    <hyperlink ref="B112" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{BE248175-63CD-4FC9-8E97-6D11F9045C21}"/>
+    <hyperlink ref="N111" r:id="rId209" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{5348F820-9501-48E9-9AC9-B8006DAEF597}"/>
+    <hyperlink ref="B111" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{F663A314-FE10-4202-A13F-437237A23A5F}"/>
+    <hyperlink ref="N110" r:id="rId211" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{A1878DA9-5859-49DB-9B8C-B9C81407856E}"/>
+    <hyperlink ref="B110" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{F7D33045-C624-478C-A47C-E0A24209A822}"/>
+    <hyperlink ref="N109" r:id="rId213" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{8960B066-A5FC-47E0-8FFB-6D260A8B8BC7}"/>
+    <hyperlink ref="B109" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{BF915651-289F-4091-89BE-6CDD88C95CBC}"/>
+    <hyperlink ref="N108" r:id="rId215" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{988B24E0-F877-40A3-9AF1-05A00C603F2D}"/>
+    <hyperlink ref="B108" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{460B0431-7869-4245-B066-F4582A812961}"/>
+    <hyperlink ref="N107" r:id="rId217" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{41CC08B1-BD26-49DC-8CD2-2710FAC7C923}"/>
+    <hyperlink ref="B107" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{8B1EF6E7-8559-44A7-9ACE-C3541273CC66}"/>
+    <hyperlink ref="N106" r:id="rId219" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{770DDFF3-75FD-47ED-914D-83770E25A463}"/>
+    <hyperlink ref="B106" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{1C875F8D-570B-42C7-A6CF-1F705678497E}"/>
+    <hyperlink ref="N105" r:id="rId221" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{2A6F424D-B15D-4A3D-B153-7D502BC0CC33}"/>
+    <hyperlink ref="B105" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{632505BC-1709-4D09-AC73-9CF5824F3D92}"/>
+    <hyperlink ref="N104" r:id="rId223" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{D3963F99-D2D2-4C9D-82DF-89EEC01BC754}"/>
+    <hyperlink ref="B104" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{1D6F7E3D-FF0D-4CB7-B40E-37BDD0DE576A}"/>
+    <hyperlink ref="N103" r:id="rId225" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{99FA170D-6D3F-47BD-BD5D-029128A59678}"/>
+    <hyperlink ref="B103" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{A9A05336-B1A9-4A66-A2E2-1ABBF4574554}"/>
+    <hyperlink ref="N102" r:id="rId227" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{D4A8B032-AA48-4E28-8112-01E5184ECB52}"/>
+    <hyperlink ref="B102" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{5DCB09AE-99FD-40DC-81CE-C27838828517}"/>
+    <hyperlink ref="N101" r:id="rId229" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{69034A0F-B2D6-46FE-BC5B-D1C469AA2C8A}"/>
+    <hyperlink ref="B101" r:id="rId230" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{C3ED467F-AEA7-4EB6-AB31-99D01CC88144}"/>
+    <hyperlink ref="N100" r:id="rId231" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{3DC61990-BE41-40C6-97AE-529BB423B43C}"/>
+    <hyperlink ref="B100" r:id="rId232" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{78A1F4B8-2466-4113-A221-D026990622C0}"/>
+    <hyperlink ref="N99" r:id="rId233" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{6DE3ECB9-8DE2-4BF0-B572-903E22595897}"/>
+    <hyperlink ref="B99" r:id="rId234" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{08CAE30E-530D-4C6C-BB1D-C66F60058004}"/>
+    <hyperlink ref="N98" r:id="rId235" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{FDBBD87C-84FB-4EBB-BD91-68D8DF397E5B}"/>
+    <hyperlink ref="B98" r:id="rId236" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{BB9E3BB3-9A29-458D-AF55-75CE280DAD3D}"/>
+    <hyperlink ref="N97" r:id="rId237" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{C0A8BB9A-DB19-4183-AED1-D52820C4F3B7}"/>
+    <hyperlink ref="B97" r:id="rId238" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{95E6945D-9EFF-4BDA-B5BC-D1B9B4D08E28}"/>
+    <hyperlink ref="N96" r:id="rId239" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{4C49EC5B-42AE-4145-ABFE-5DE83CF029E6}"/>
+    <hyperlink ref="B96" r:id="rId240" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{94D4BCAE-4440-47A1-9F46-B4FDE66F429C}"/>
+    <hyperlink ref="N95" r:id="rId241" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{8F43F6CF-EC9B-4372-8644-3EDD3F35CE42}"/>
+    <hyperlink ref="B95" r:id="rId242" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{538EFE60-F45C-4C75-8EE8-4F7894446598}"/>
+    <hyperlink ref="N94" r:id="rId243" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{68882B67-AB25-47BC-95B0-16AFEDC7C557}"/>
+    <hyperlink ref="B94" r:id="rId244" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{3C142FE3-C160-4FFF-AFCC-C0FDC0496E43}"/>
+    <hyperlink ref="N93" r:id="rId245" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{E6F27481-ECF7-461E-98A0-DD7992A63A39}"/>
+    <hyperlink ref="B93" r:id="rId246" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{246FDECB-2CE8-411D-BC65-E30AFBA4E4CC}"/>
+    <hyperlink ref="N92" r:id="rId247" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{AE7DA745-202E-4545-AEA9-F5C83F774819}"/>
+    <hyperlink ref="B92" r:id="rId248" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{C59C460B-57F4-4FAC-A023-829A3C3D5924}"/>
+    <hyperlink ref="N91" r:id="rId249" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{03827362-60E7-4208-9E6D-6B60D0DEB817}"/>
+    <hyperlink ref="B91" r:id="rId250" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{09147C60-0FED-4E49-B99B-17F5ACE08D9A}"/>
+    <hyperlink ref="N90" r:id="rId251" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{20D8A09D-372E-42AE-BF65-9069BD4D7D89}"/>
+    <hyperlink ref="B90" r:id="rId252" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{F8B13B2B-3760-49B9-80F4-52A79897FE58}"/>
+    <hyperlink ref="N89" r:id="rId253" display="https://www.worldometers.info/world-population/new-zealand-population/" xr:uid="{C7BAAAA9-68DA-4204-BA66-3748B08F8C4C}"/>
+    <hyperlink ref="B89" r:id="rId254" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{68E4837D-C3C4-409B-8D7E-773F2BABFF3A}"/>
+    <hyperlink ref="N88" r:id="rId255" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{B93BA257-3BA5-4D84-BA42-27A34C6523DF}"/>
+    <hyperlink ref="B88" r:id="rId256" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{B6F19E9A-0E1F-4723-B64A-E90B6467CA6D}"/>
+    <hyperlink ref="N87" r:id="rId257" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{A7C6015C-13B6-469D-90A1-F4E0E3F1FDBF}"/>
+    <hyperlink ref="B87" r:id="rId258" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{75CBD4BF-876D-4391-A93B-48DD76D85F55}"/>
+    <hyperlink ref="N86" r:id="rId259" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{88F767B8-1795-4ECA-80A0-87E8CCD73ABA}"/>
+    <hyperlink ref="B86" r:id="rId260" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{284410AC-6737-4038-81F7-3CD47F4D8C10}"/>
+    <hyperlink ref="N85" r:id="rId261" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{5658A7E5-0224-4973-A096-14075C5F103C}"/>
+    <hyperlink ref="B85" r:id="rId262" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{97AB051B-ACCB-457D-BE55-E0048AE52022}"/>
+    <hyperlink ref="N84" r:id="rId263" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{A9F35B97-CC29-448F-8892-C18DE314111E}"/>
+    <hyperlink ref="B84" r:id="rId264" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{483326DF-1499-4CC1-BA7C-D4E52D66C6B6}"/>
+    <hyperlink ref="N83" r:id="rId265" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{3BC9612D-7A15-4954-A2C2-F06A4A2166E4}"/>
+    <hyperlink ref="B83" r:id="rId266" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{7251D2ED-370E-40FF-A195-CD0DB3D048E7}"/>
+    <hyperlink ref="N82" r:id="rId267" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{46F2E912-DD9C-400B-BC46-C1A893BB6B3B}"/>
+    <hyperlink ref="B82" r:id="rId268" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{4AE87987-4240-4BFE-9A95-D9B16E0E7CB6}"/>
+    <hyperlink ref="N81" r:id="rId269" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{42E1570D-6074-494F-A461-4862B4615C25}"/>
+    <hyperlink ref="B81" r:id="rId270" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{CB163C60-DBC2-4DB7-964A-40CF3AA703B5}"/>
+    <hyperlink ref="N80" r:id="rId271" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{EECFB9B8-49DD-48F5-8AEC-0BCD5EB48BE6}"/>
+    <hyperlink ref="B80" r:id="rId272" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{848D945D-3CB8-4BFC-B2A3-96A1F98D2B42}"/>
+    <hyperlink ref="N79" r:id="rId273" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{7AB5F063-CF26-4A2F-A3F3-00A5E1BE0A98}"/>
+    <hyperlink ref="B79" r:id="rId274" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{4A2E4CDF-04EA-4C3E-BF70-31112044FA13}"/>
+    <hyperlink ref="N78" r:id="rId275" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{D2F30968-957C-4633-9073-022CB3857528}"/>
+    <hyperlink ref="B78" r:id="rId276" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{D2EB7EE4-7318-42A1-8B34-BA3E959D2D87}"/>
+    <hyperlink ref="N77" r:id="rId277" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{05043A24-85EB-481C-980E-7C8B438A4E72}"/>
+    <hyperlink ref="B77" r:id="rId278" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{68E379C8-E512-400C-8AC0-7F931830BE4D}"/>
+    <hyperlink ref="N76" r:id="rId279" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{427E9F7A-E917-4C2A-9670-FD5EBDD7407A}"/>
+    <hyperlink ref="B76" r:id="rId280" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{1CB8F9E0-EBB2-45C9-85A4-F751263EF07A}"/>
+    <hyperlink ref="N75" r:id="rId281" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{992331B2-9B3D-4428-9B49-129CCD9023B8}"/>
+    <hyperlink ref="B75" r:id="rId282" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{B661401B-3D27-4908-AA7F-7FFC61EE3B01}"/>
+    <hyperlink ref="N74" r:id="rId283" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{1FDBB76D-B5E0-45E7-B698-FDB1272737AC}"/>
+    <hyperlink ref="B74" r:id="rId284" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{D2BA5948-10CB-482A-A2A0-7F1A72FBC244}"/>
+    <hyperlink ref="N73" r:id="rId285" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{A0D26B9D-B094-48B7-A301-C11D39B7EDF5}"/>
+    <hyperlink ref="B73" r:id="rId286" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{0510A18E-910A-4B66-819E-DFE0DAEFBAA3}"/>
+    <hyperlink ref="N72" r:id="rId287" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{07A3D5EF-EC15-4A59-9FC1-379AE8F79BBD}"/>
+    <hyperlink ref="B72" r:id="rId288" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{292D3779-BB6A-4FEF-9D71-A3B423B67EB7}"/>
+    <hyperlink ref="N71" r:id="rId289" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{50F7805D-B19A-4A6A-8F94-32785A65191D}"/>
+    <hyperlink ref="B71" r:id="rId290" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{0527EEF2-CD70-4473-B872-BCDA2947AB4C}"/>
+    <hyperlink ref="N70" r:id="rId291" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{D72D4B41-8147-4A9E-B746-84757E3DA318}"/>
+    <hyperlink ref="B70" r:id="rId292" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{1649C298-9BC8-45C6-82A2-CB74CC3FAEED}"/>
+    <hyperlink ref="N69" r:id="rId293" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{F4C32CD8-869E-403C-87C4-403455A9AFE7}"/>
+    <hyperlink ref="B69" r:id="rId294" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{72321C98-6965-4B24-ACE5-7483E39474B8}"/>
+    <hyperlink ref="N68" r:id="rId295" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{64182A27-543D-4F03-A585-0DFBE3CBF95E}"/>
+    <hyperlink ref="B68" r:id="rId296" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{9AEE21E6-ABE3-4D6D-BC7F-D5F89D8B7B47}"/>
+    <hyperlink ref="N67" r:id="rId297" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{DFD5B9FD-EBDB-4939-A8B6-0E59D6BEC1B9}"/>
+    <hyperlink ref="B67" r:id="rId298" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{C94CD154-E558-45B2-AF74-D022E00550C1}"/>
+    <hyperlink ref="N66" r:id="rId299" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{5CB0CC87-8D99-4E5B-BE54-5AE7529932FA}"/>
+    <hyperlink ref="B66" r:id="rId300" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{3B34042E-6784-4FD9-AD4D-1BD8D47254D1}"/>
+    <hyperlink ref="N65" r:id="rId301" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{CC46D717-465F-4618-BCF0-32548B9F4DD4}"/>
+    <hyperlink ref="B65" r:id="rId302" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{B5A7B428-BC7A-46E3-8734-960ED4DBF52E}"/>
+    <hyperlink ref="N64" r:id="rId303" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{027532AC-60A9-42B4-9019-2190568AE608}"/>
+    <hyperlink ref="B64" r:id="rId304" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{7D08D723-E988-40ED-B24C-8BB553431546}"/>
+    <hyperlink ref="N63" r:id="rId305" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{15598161-6F7B-4775-B189-E1C0CF45595A}"/>
+    <hyperlink ref="B63" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{7A329AFB-FEFE-4104-8D57-CD330EB92453}"/>
+    <hyperlink ref="N62" r:id="rId307" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{03CA240C-9779-488D-B61F-7626A83D2702}"/>
+    <hyperlink ref="B62" r:id="rId308" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{AA7EF180-C2A3-4293-A0B6-AEDAD02BCE07}"/>
+    <hyperlink ref="N61" r:id="rId309" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{081DCE93-018A-41BC-B47B-939C53BBCFC6}"/>
+    <hyperlink ref="B61" r:id="rId310" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{E4D70DA8-4FBF-455A-A0B5-32CC5C4D96B7}"/>
+    <hyperlink ref="N60" r:id="rId311" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{254C1337-D18C-4CC2-A5E0-AA26F1CCC8AE}"/>
+    <hyperlink ref="B60" r:id="rId312" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{A3EA0EE4-D5AD-4F60-BC01-51231AB183E2}"/>
+    <hyperlink ref="N59" r:id="rId313" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{DA2982B5-C29B-436A-BAAB-CEEFAFF7D89B}"/>
+    <hyperlink ref="B59" r:id="rId314" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{890165BC-F3B8-4092-BA64-09C850A955FA}"/>
+    <hyperlink ref="N58" r:id="rId315" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{01705C9C-FAC6-4D3C-BDD3-FAE582092F30}"/>
+    <hyperlink ref="B58" r:id="rId316" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{F59C9B65-CC0E-4E61-A04C-BC7BB6D80B76}"/>
+    <hyperlink ref="N57" r:id="rId317" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{5CA41557-20C8-4EDC-9412-241CA7FEF3B2}"/>
+    <hyperlink ref="B57" r:id="rId318" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{C52CA8CD-60F3-4550-A70E-D68445A41525}"/>
+    <hyperlink ref="N56" r:id="rId319" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{B451B5C1-C233-494B-9FC0-77DF512BF4F1}"/>
+    <hyperlink ref="B56" r:id="rId320" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{0108210E-D7A8-44F0-96B1-4ADA9D6F9B9A}"/>
+    <hyperlink ref="N55" r:id="rId321" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{1AC56046-860F-4103-9CCE-5361AE860567}"/>
+    <hyperlink ref="B55" r:id="rId322" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{007D1264-2573-4726-A766-75D76F38373A}"/>
+    <hyperlink ref="N54" r:id="rId323" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{A509EAB8-2B9D-4EC4-B28B-4AC32D9B2E12}"/>
+    <hyperlink ref="B54" r:id="rId324" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{AA97E947-EAB0-42E0-A212-FB61BFB7C3FD}"/>
+    <hyperlink ref="N53" r:id="rId325" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{BEFFA5AE-F7FE-499B-BFB1-CEAF8C3FDFA6}"/>
+    <hyperlink ref="B53" r:id="rId326" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{31709C5F-3B2E-4CC7-8381-C2F809E920DF}"/>
+    <hyperlink ref="N52" r:id="rId327" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{744F07E0-5FC9-423E-B6AD-90E8D8938F94}"/>
+    <hyperlink ref="B52" r:id="rId328" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{6628FCD2-5BE3-47CB-9C36-F4BCD05D8312}"/>
+    <hyperlink ref="N51" r:id="rId329" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{0D4B1DF2-2F25-4618-A462-8B2360837B1F}"/>
+    <hyperlink ref="B51" r:id="rId330" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{FA6B4D46-02A1-4EEF-AEFF-8C4DED941B08}"/>
+    <hyperlink ref="N50" r:id="rId331" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{C14CF894-43EA-408E-BB3D-0312D4DE9196}"/>
+    <hyperlink ref="B50" r:id="rId332" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{31D88951-F575-45C5-A8C8-12278A3AB5CE}"/>
+    <hyperlink ref="N49" r:id="rId333" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{A1AED7EA-7DC7-4B47-AC89-54A6B67C5CA6}"/>
+    <hyperlink ref="B49" r:id="rId334" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{6E14A511-7E73-4490-82DF-BDE1A28643FC}"/>
+    <hyperlink ref="N48" r:id="rId335" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{ED346430-6CDF-4334-971D-299C87E743C6}"/>
+    <hyperlink ref="B48" r:id="rId336" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{0C1F8A34-3D50-4D9F-A700-E5B5D017BF43}"/>
+    <hyperlink ref="N47" r:id="rId337" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{AD9347EA-904A-4E20-8335-B80CE2AB04E0}"/>
+    <hyperlink ref="B47" r:id="rId338" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{94B5F87D-D2EF-40E3-8E09-5A65B0ABBB40}"/>
+    <hyperlink ref="N46" r:id="rId339" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{B3210E0F-88D8-4DE9-84CF-5FFDB3C83E14}"/>
+    <hyperlink ref="B46" r:id="rId340" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{9E46E45D-8080-46D5-B676-AAD4513760FB}"/>
+    <hyperlink ref="N45" r:id="rId341" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{69528BFF-30CC-4277-9B98-371CCB460653}"/>
+    <hyperlink ref="B45" r:id="rId342" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{D03A235B-3AF7-45BC-83E2-F91DB782381E}"/>
+    <hyperlink ref="N44" r:id="rId343" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{FB61ED65-8437-426D-AED5-BF8A7CF211A6}"/>
+    <hyperlink ref="B44" r:id="rId344" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{C6BAF216-F175-4E95-946C-BFE637FE83DA}"/>
+    <hyperlink ref="N43" r:id="rId345" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{3F97AC79-54AE-4951-953E-FC5AECBA1448}"/>
+    <hyperlink ref="B43" r:id="rId346" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{032DAA7F-5D73-4F67-9A4B-234CEF39F3D9}"/>
+    <hyperlink ref="N42" r:id="rId347" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{C5A8A342-8FE8-442E-BEC2-BFF1B2327AEE}"/>
+    <hyperlink ref="B42" r:id="rId348" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{494DF9A5-2B54-4642-ACAA-D3DBB5D37711}"/>
+    <hyperlink ref="N41" r:id="rId349" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{C0DB9A1D-56ED-4420-8B7F-4DF741C52394}"/>
+    <hyperlink ref="B41" r:id="rId350" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{5ED76954-D028-494D-93B3-A95184789F5A}"/>
+    <hyperlink ref="N40" r:id="rId351" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{99E87DDC-1980-46B2-94DD-AF2C9DB1063F}"/>
+    <hyperlink ref="B40" r:id="rId352" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{0AC0C16B-84BD-44D8-9F93-5B2DFADCE520}"/>
+    <hyperlink ref="N39" r:id="rId353" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{BAA8427C-C084-45A8-B452-113135AB9C0D}"/>
+    <hyperlink ref="B39" r:id="rId354" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{72584125-F165-41F2-82AF-20902B870E89}"/>
+    <hyperlink ref="N38" r:id="rId355" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{5C9F9454-921C-4CB3-AC53-F102D79539B1}"/>
+    <hyperlink ref="B38" r:id="rId356" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{4C002475-2D07-40BF-9643-441FF34CBBE4}"/>
+    <hyperlink ref="N37" r:id="rId357" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{96B305B4-FFCF-479D-9FA9-B7793F2586B0}"/>
+    <hyperlink ref="B37" r:id="rId358" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{7F16F9B1-0914-4F05-84FB-A7B0961B9EC8}"/>
+    <hyperlink ref="N36" r:id="rId359" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{92074D6F-4EB8-4BD9-8467-0CDC12FED385}"/>
+    <hyperlink ref="B36" r:id="rId360" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{229402AE-DDD1-423D-965D-10CF4C9150A2}"/>
+    <hyperlink ref="N35" r:id="rId361" display="https://www.worldometers.info/world-population/israel-population/" xr:uid="{01C98C9B-9FA6-4995-B762-F459E4FFD326}"/>
+    <hyperlink ref="B35" r:id="rId362" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{03062CAE-A59C-4A01-BC40-45D01200D371}"/>
+    <hyperlink ref="N34" r:id="rId363" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{91AFF622-3F97-44D5-BF2B-8F4586D71EC4}"/>
+    <hyperlink ref="B34" r:id="rId364" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{B07C5483-A00A-4FE1-9351-0C977469BA00}"/>
+    <hyperlink ref="N33" r:id="rId365" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{D01D8531-2F59-47A2-9C17-F563D878080C}"/>
+    <hyperlink ref="B33" r:id="rId366" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{6330ADA0-A10D-4F1A-A105-50DB7EE5E7E3}"/>
+    <hyperlink ref="N32" r:id="rId367" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{01990790-51BF-457A-886A-9E94E50E39A8}"/>
+    <hyperlink ref="B32" r:id="rId368" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{780F0DB2-0E7B-4720-BA2F-C9B9B4E94DBC}"/>
+    <hyperlink ref="N31" r:id="rId369" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{240F6CFE-4288-4920-B45E-CC619015898F}"/>
+    <hyperlink ref="B31" r:id="rId370" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{2AB887C7-5DB6-4FAE-9085-F3D0CAB72149}"/>
+    <hyperlink ref="N30" r:id="rId371" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{E17D3A33-3FFF-4A73-BDDA-4856A7105350}"/>
+    <hyperlink ref="B30" r:id="rId372" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{8417DB42-2E38-41FD-81B0-7E2EA7446C8F}"/>
+    <hyperlink ref="N29" r:id="rId373" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{E620A23F-36FD-4A37-B8A7-A06280F8008E}"/>
+    <hyperlink ref="B29" r:id="rId374" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{819F639D-7F80-4121-9090-A8AB8A7D4184}"/>
+    <hyperlink ref="N28" r:id="rId375" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{84E0CD24-F1AE-485F-980B-02EF5842991C}"/>
+    <hyperlink ref="B28" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{5D7BEC5D-6A08-4E1A-92C3-B9641EDFA83D}"/>
+    <hyperlink ref="N27" r:id="rId377" display="https://www.worldometers.info/world-population/qatar-population/" xr:uid="{5FD9B11C-8111-4209-922B-E7BB559F4301}"/>
+    <hyperlink ref="B27" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{392797E5-FA57-4889-8E17-6A539BCED7EF}"/>
+    <hyperlink ref="N26" r:id="rId379" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{48608EE3-AC63-47EE-B748-6A04D72CD1FB}"/>
+    <hyperlink ref="B26" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{CFB9A0B9-7662-4EB5-A195-92CA90C76A1F}"/>
+    <hyperlink ref="N25" r:id="rId381" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{AC577DE9-AAD3-4651-AFFF-90C2CF1916E1}"/>
+    <hyperlink ref="B25" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{1C6B86EB-A880-4990-A7F1-5C044342CC20}"/>
+    <hyperlink ref="N24" r:id="rId383" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{2BC86638-C7CF-4C4E-ACFC-59ABCB332FEF}"/>
+    <hyperlink ref="B24" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{AEFF3DF0-630F-4849-910D-D0ADCCDC6D43}"/>
+    <hyperlink ref="N23" r:id="rId385" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{3151BFC2-7EDE-4766-A558-7A39921C5DF5}"/>
+    <hyperlink ref="B23" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{F14290CF-BF9B-44EF-B5CC-AD479805FBD5}"/>
+    <hyperlink ref="N22" r:id="rId387" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{5EB7F79F-39A8-4B73-A996-B984AC272622}"/>
+    <hyperlink ref="B22" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{CE0DD051-893F-4900-8858-1D6586A1BCA5}"/>
+    <hyperlink ref="N21" r:id="rId389" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{8AEC5B27-919F-4355-9544-2C11EE6E5D53}"/>
+    <hyperlink ref="B21" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{6D70BB18-28A3-490A-88A4-D318566E445E}"/>
+    <hyperlink ref="N20" r:id="rId391" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{34783605-009A-45EB-9A9E-667A0446A8B2}"/>
+    <hyperlink ref="B20" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{6D118CA3-5B7A-4505-BA28-3862544E2F7F}"/>
+    <hyperlink ref="N19" r:id="rId393" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{75CF60F3-904A-4B79-9B9B-D239DC3A9E73}"/>
+    <hyperlink ref="B19" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{93286C7C-352F-4B4E-9E6D-12B007F19389}"/>
+    <hyperlink ref="N18" r:id="rId395" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{EDF0D46A-F938-4ECB-8DA2-305C22198921}"/>
+    <hyperlink ref="B18" r:id="rId396" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{F37EC4BD-5673-442D-81C0-8CCB4E88C5CD}"/>
+    <hyperlink ref="N17" r:id="rId397" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{792263CE-3E39-4F92-BFDD-5B0210ADD00A}"/>
+    <hyperlink ref="B17" r:id="rId398" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{9F675712-3ADC-46C5-8CAB-31BE258ED4A6}"/>
+    <hyperlink ref="N16" r:id="rId399" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{B7498DBE-3916-47C9-B527-198AC7693E71}"/>
+    <hyperlink ref="B16" r:id="rId400" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{6B906D5E-16F1-4442-94B5-D799F9E25267}"/>
+    <hyperlink ref="N15" r:id="rId401" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{ABDC6BEE-323A-49A7-8234-EC83A2D85977}"/>
+    <hyperlink ref="B15" r:id="rId402" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{C8F4C105-8E9E-40B8-9F25-D32B358FC917}"/>
+    <hyperlink ref="N14" r:id="rId403" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{68CA2C56-2D3E-4744-80BB-71D5C4618B24}"/>
+    <hyperlink ref="B14" r:id="rId404" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{0FA5DB00-2979-48A2-BD32-A85AA8C3D759}"/>
+    <hyperlink ref="N13" r:id="rId405" display="https://www.worldometers.info/world-population/china-population/" xr:uid="{A44225DA-F2F7-4DF9-9111-5B217C9BF3A8}"/>
+    <hyperlink ref="B13" r:id="rId406" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{F40B2F29-403B-4BBE-B2C6-00F1F59B846C}"/>
+    <hyperlink ref="N12" r:id="rId407" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{BAE8B411-AF74-4AD0-B70A-18BD1B5365F6}"/>
+    <hyperlink ref="B12" r:id="rId408" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{0BBEA79F-44C7-43DC-B7EA-1729CC003C35}"/>
+    <hyperlink ref="N11" r:id="rId409" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{E63F366A-099A-4C12-A882-28D5DF138E60}"/>
+    <hyperlink ref="B11" r:id="rId410" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{1F50738C-1FF4-4463-911D-53F0193662AD}"/>
+    <hyperlink ref="N10" r:id="rId411" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{DD2C3FEB-1D15-4B9A-84DF-C6527452F9F2}"/>
+    <hyperlink ref="B10" r:id="rId412" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{99F9DDF7-BB02-429D-9A9D-7FD0E3BCFF65}"/>
+    <hyperlink ref="N9" r:id="rId413" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{40C1ACB1-641C-45D9-9B98-719628C70369}"/>
+    <hyperlink ref="B9" r:id="rId414" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{EB58E9C1-02A0-41CB-B31D-C9A1A891ED00}"/>
+    <hyperlink ref="N8" r:id="rId415" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{B30CB6C6-5DB4-4874-98FC-1F6A5E99515F}"/>
+    <hyperlink ref="B8" r:id="rId416" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{C446CE48-21A9-4BAF-81F2-CBEED5CDEF7F}"/>
+    <hyperlink ref="N7" r:id="rId417" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{68CEDD48-28D6-481D-95C6-91EEACB5B0C5}"/>
+    <hyperlink ref="B7" r:id="rId418" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{37A6E3FA-504C-42F0-82B0-BAD6C4D1C372}"/>
+    <hyperlink ref="N6" r:id="rId419" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{AB860673-B549-4887-898F-BB966E31FF38}"/>
+    <hyperlink ref="B6" r:id="rId420" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{516C3987-513A-408B-87EA-BDE5FAF05761}"/>
+    <hyperlink ref="N5" r:id="rId421" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{59EE7A7D-8198-447F-95B0-34C2CAD7FCB6}"/>
+    <hyperlink ref="B5" r:id="rId422" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{D73A0275-7811-421E-B16F-CE7CAE65C2C1}"/>
+    <hyperlink ref="N4" r:id="rId423" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{EE827B68-38C1-4313-A26E-2FBC032028D5}"/>
+    <hyperlink ref="B4" r:id="rId424" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{E0CF43AE-902A-4AA4-89E0-2B60B84E895C}"/>
+    <hyperlink ref="N3" r:id="rId425" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{4CD87D19-A65E-489F-AFDF-15D148ABE016}"/>
+    <hyperlink ref="B3" r:id="rId426" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{E8662E53-7837-47F3-9B81-C772699D2FE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId427"/>
